--- a/DS_Mystery/Asia stock management/data/Загрузка справочник ШМТ.xlsx
+++ b/DS_Mystery/Asia stock management/data/Загрузка справочник ШМТ.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2723" uniqueCount="1216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2746" uniqueCount="1226">
   <si>
     <t>АРТИКУЛ</t>
   </si>
@@ -3248,9 +3248,6 @@
     <t>Крышка к контейнеру 220х140х13,5 мм "OSQ" OpSalad 800, прозр., ПЭТ 50 шт/упак 400 шт/кор.</t>
   </si>
   <si>
-    <t>110640</t>
-  </si>
-  <si>
     <t>111055</t>
   </si>
   <si>
@@ -3672,6 +3669,39 @@
   </si>
   <si>
     <t>Полотенца бумажные для диспенсеров 240 х 215 мм "Focus" Economic 1-сл., Z-сложен., бел., 150 лист/уп</t>
+  </si>
+  <si>
+    <t>108184</t>
+  </si>
+  <si>
+    <t>Пакет [240+140]х280 мм с круч. ручками, крафт, бум., 300 шт/кор. (ООО Тек-Пак)</t>
+  </si>
+  <si>
+    <t>112859</t>
+  </si>
+  <si>
+    <t>Стакан одноразовый 500 мл, диз. "Факел", прозр., ПП, 50 шт/упак (ООО ПТК ЮФ )</t>
+  </si>
+  <si>
+    <t>ПТК ЮФ ООО</t>
+  </si>
+  <si>
+    <t>254106</t>
+  </si>
+  <si>
+    <t>Ланч-бокс 1-секц. 250х207х61 мм, бел., ВПС, 100 шт/кор. (ООО Мегапласт)</t>
+  </si>
+  <si>
+    <t>254108</t>
+  </si>
+  <si>
+    <t>Ланч-бокс 1-секц. 250х207х61 мм, черн., ВПС, 100 шт/кор. (ООО Мегапласт)</t>
+  </si>
+  <si>
+    <t>307975</t>
+  </si>
+  <si>
+    <t>Салфетки ажурные d 300 мм , бел., бум., 250 шт/упак (ООО Гуслица)</t>
   </si>
 </sst>
 </file>
@@ -3990,10 +4020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G455"/>
+  <dimension ref="A1:G459"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A456" sqref="A456:XFD1322"/>
+      <selection sqref="A1:G459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8761,10 +8791,10 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>323</v>
+        <v>1215</v>
       </c>
       <c r="B208" t="s">
-        <v>732</v>
+        <v>1216</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -8779,15 +8809,15 @@
         <v>167</v>
       </c>
       <c r="G208" t="s">
-        <v>324</v>
+        <v>196</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B209" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -8807,10 +8837,10 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>1056</v>
+        <v>325</v>
       </c>
       <c r="B210" t="s">
-        <v>1057</v>
+        <v>733</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -8825,15 +8855,15 @@
         <v>167</v>
       </c>
       <c r="G210" t="s">
-        <v>196</v>
+        <v>324</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B211" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -8853,102 +8883,102 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>326</v>
+        <v>1058</v>
       </c>
       <c r="B212" t="s">
-        <v>734</v>
+        <v>1059</v>
       </c>
       <c r="C212">
         <v>0</v>
       </c>
       <c r="D212" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="E212" t="s">
         <v>9</v>
       </c>
       <c r="F212" t="s">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="G212" t="s">
-        <v>279</v>
+        <v>196</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B213" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C213">
         <v>0</v>
       </c>
       <c r="D213" t="s">
-        <v>92</v>
+        <v>277</v>
       </c>
       <c r="E213" t="s">
         <v>9</v>
       </c>
       <c r="F213" t="s">
-        <v>37</v>
+        <v>278</v>
       </c>
       <c r="G213" t="s">
-        <v>328</v>
+        <v>279</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B214" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C214">
         <v>0</v>
       </c>
       <c r="D214" t="s">
-        <v>330</v>
+        <v>92</v>
       </c>
       <c r="E214" t="s">
         <v>9</v>
       </c>
       <c r="F214" t="s">
-        <v>170</v>
+        <v>37</v>
       </c>
       <c r="G214" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B215" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C215">
         <v>0</v>
       </c>
       <c r="D215" t="s">
-        <v>285</v>
+        <v>330</v>
       </c>
       <c r="E215" t="s">
         <v>9</v>
       </c>
       <c r="F215" t="s">
-        <v>319</v>
+        <v>170</v>
       </c>
       <c r="G215" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B216" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -8960,18 +8990,18 @@
         <v>9</v>
       </c>
       <c r="F216" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="G216" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B217" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -8986,15 +9016,15 @@
         <v>335</v>
       </c>
       <c r="G217" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B218" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C218">
         <v>0</v>
@@ -9014,10 +9044,10 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B219" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -9029,18 +9059,18 @@
         <v>9</v>
       </c>
       <c r="F219" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="G219" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B220" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -9060,10 +9090,10 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>1060</v>
+        <v>342</v>
       </c>
       <c r="B221" t="s">
-        <v>1061</v>
+        <v>742</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -9083,10 +9113,10 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>343</v>
+        <v>1060</v>
       </c>
       <c r="B222" t="s">
-        <v>743</v>
+        <v>1061</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -9101,15 +9131,15 @@
         <v>319</v>
       </c>
       <c r="G222" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B223" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -9129,102 +9159,102 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B224" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C224">
         <v>0</v>
       </c>
       <c r="D224" t="s">
-        <v>8</v>
+        <v>285</v>
       </c>
       <c r="E224" t="s">
         <v>9</v>
       </c>
       <c r="F224" t="s">
-        <v>10</v>
+        <v>319</v>
       </c>
       <c r="G224" t="s">
-        <v>64</v>
+        <v>333</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B225" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C225">
         <v>0</v>
       </c>
       <c r="D225" t="s">
-        <v>285</v>
+        <v>8</v>
       </c>
       <c r="E225" t="s">
         <v>9</v>
       </c>
       <c r="F225" t="s">
-        <v>335</v>
+        <v>10</v>
       </c>
       <c r="G225" t="s">
-        <v>347</v>
+        <v>64</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B226" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C226">
         <v>0</v>
       </c>
       <c r="D226" t="s">
-        <v>36</v>
+        <v>285</v>
       </c>
       <c r="E226" t="s">
         <v>9</v>
       </c>
       <c r="F226" t="s">
-        <v>34</v>
+        <v>335</v>
       </c>
       <c r="G226" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B227" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C227">
         <v>0</v>
       </c>
       <c r="D227" t="s">
-        <v>351</v>
+        <v>36</v>
       </c>
       <c r="E227" t="s">
         <v>9</v>
       </c>
       <c r="F227" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G227" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B228" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -9239,153 +9269,153 @@
         <v>48</v>
       </c>
       <c r="G228" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B229" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C229">
         <v>0</v>
       </c>
       <c r="D229" t="s">
-        <v>36</v>
+        <v>351</v>
       </c>
       <c r="E229" t="s">
         <v>9</v>
       </c>
       <c r="F229" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G229" t="s">
-        <v>38</v>
+        <v>354</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>1062</v>
+        <v>355</v>
       </c>
       <c r="B230" t="s">
-        <v>1063</v>
+        <v>750</v>
       </c>
       <c r="C230">
         <v>0</v>
       </c>
       <c r="D230" t="s">
-        <v>192</v>
+        <v>36</v>
       </c>
       <c r="E230" t="s">
         <v>9</v>
       </c>
       <c r="F230" t="s">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="G230" t="s">
-        <v>193</v>
+        <v>38</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B231" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="C231">
         <v>0</v>
       </c>
       <c r="D231" t="s">
-        <v>356</v>
+        <v>192</v>
       </c>
       <c r="E231" t="s">
         <v>9</v>
       </c>
       <c r="F231" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="G231" t="s">
-        <v>352</v>
+        <v>193</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>357</v>
+        <v>1064</v>
       </c>
       <c r="B232" t="s">
-        <v>751</v>
+        <v>1065</v>
       </c>
       <c r="C232">
         <v>0</v>
       </c>
       <c r="D232" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E232" t="s">
         <v>9</v>
       </c>
       <c r="F232" t="s">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="G232" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>1066</v>
+        <v>357</v>
       </c>
       <c r="B233" t="s">
-        <v>1067</v>
+        <v>751</v>
       </c>
       <c r="C233">
         <v>0</v>
       </c>
       <c r="D233" t="s">
-        <v>40</v>
+        <v>358</v>
       </c>
       <c r="E233" t="s">
         <v>9</v>
       </c>
       <c r="F233" t="s">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="G233" t="s">
-        <v>42</v>
+        <v>359</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>360</v>
+        <v>1066</v>
       </c>
       <c r="B234" t="s">
-        <v>752</v>
+        <v>1067</v>
       </c>
       <c r="C234">
         <v>0</v>
       </c>
       <c r="D234" t="s">
-        <v>285</v>
+        <v>40</v>
       </c>
       <c r="E234" t="s">
         <v>9</v>
       </c>
       <c r="F234" t="s">
-        <v>335</v>
+        <v>41</v>
       </c>
       <c r="G234" t="s">
-        <v>361</v>
+        <v>42</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B235" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -9400,15 +9430,15 @@
         <v>335</v>
       </c>
       <c r="G235" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B236" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -9420,70 +9450,70 @@
         <v>9</v>
       </c>
       <c r="F236" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="G236" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>1068</v>
+        <v>364</v>
       </c>
       <c r="B237" t="s">
-        <v>1069</v>
+        <v>754</v>
       </c>
       <c r="C237">
         <v>0</v>
       </c>
       <c r="D237" t="s">
-        <v>366</v>
+        <v>285</v>
       </c>
       <c r="E237" t="s">
         <v>9</v>
       </c>
       <c r="F237" t="s">
-        <v>170</v>
+        <v>319</v>
       </c>
       <c r="G237" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>368</v>
+        <v>1068</v>
       </c>
       <c r="B238" t="s">
-        <v>755</v>
+        <v>1069</v>
       </c>
       <c r="C238">
         <v>0</v>
       </c>
       <c r="D238" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E238" t="s">
         <v>9</v>
       </c>
       <c r="F238" t="s">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="G238" t="s">
-        <v>117</v>
+        <v>367</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B239" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C239">
         <v>0</v>
       </c>
       <c r="D239" t="s">
-        <v>13</v>
+        <v>369</v>
       </c>
       <c r="E239" t="s">
         <v>9</v>
@@ -9492,15 +9522,15 @@
         <v>81</v>
       </c>
       <c r="G239" t="s">
-        <v>371</v>
+        <v>117</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B240" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -9515,107 +9545,107 @@
         <v>81</v>
       </c>
       <c r="G240" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B241" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C241">
         <v>0</v>
       </c>
       <c r="D241" t="s">
-        <v>220</v>
+        <v>13</v>
       </c>
       <c r="E241" t="s">
         <v>9</v>
       </c>
       <c r="F241" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="G241" t="s">
-        <v>199</v>
+        <v>373</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>1070</v>
+        <v>374</v>
       </c>
       <c r="B242" t="s">
-        <v>1071</v>
+        <v>758</v>
       </c>
       <c r="C242">
         <v>0</v>
       </c>
       <c r="D242" t="s">
-        <v>351</v>
+        <v>220</v>
       </c>
       <c r="E242" t="s">
         <v>9</v>
       </c>
       <c r="F242" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="G242" t="s">
-        <v>66</v>
+        <v>199</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>375</v>
+        <v>1070</v>
       </c>
       <c r="B243" t="s">
-        <v>759</v>
+        <v>1071</v>
       </c>
       <c r="C243">
         <v>0</v>
       </c>
       <c r="D243" t="s">
-        <v>53</v>
+        <v>351</v>
       </c>
       <c r="E243" t="s">
         <v>9</v>
       </c>
       <c r="F243" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G243" t="s">
-        <v>376</v>
+        <v>66</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>1072</v>
+        <v>375</v>
       </c>
       <c r="B244" t="s">
-        <v>1073</v>
+        <v>759</v>
       </c>
       <c r="C244">
         <v>0</v>
       </c>
       <c r="D244" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="E244" t="s">
         <v>9</v>
       </c>
       <c r="F244" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="G244" t="s">
-        <v>118</v>
+        <v>376</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B245" t="s">
-        <v>642</v>
+        <v>1073</v>
       </c>
       <c r="C245">
         <v>0</v>
@@ -9627,10 +9657,10 @@
         <v>9</v>
       </c>
       <c r="F245" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="G245" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
@@ -9704,10 +9734,10 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B249" t="s">
         <v>1075</v>
-      </c>
-      <c r="B249" t="s">
-        <v>1076</v>
       </c>
       <c r="C249">
         <v>0</v>
@@ -9727,10 +9757,10 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B250" t="s">
         <v>1077</v>
-      </c>
-      <c r="B250" t="s">
-        <v>1078</v>
       </c>
       <c r="C250">
         <v>0</v>
@@ -9750,10 +9780,10 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B251" t="s">
         <v>1079</v>
-      </c>
-      <c r="B251" t="s">
-        <v>1080</v>
       </c>
       <c r="C251">
         <v>0</v>
@@ -10233,10 +10263,10 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B272" t="s">
         <v>1081</v>
-      </c>
-      <c r="B272" t="s">
-        <v>1082</v>
       </c>
       <c r="C272">
         <v>0</v>
@@ -10256,10 +10286,10 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B273" t="s">
         <v>1083</v>
-      </c>
-      <c r="B273" t="s">
-        <v>1084</v>
       </c>
       <c r="C273">
         <v>0</v>
@@ -10279,10 +10309,10 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B274" t="s">
         <v>1085</v>
-      </c>
-      <c r="B274" t="s">
-        <v>1086</v>
       </c>
       <c r="C274">
         <v>0</v>
@@ -10297,7 +10327,7 @@
         <v>54</v>
       </c>
       <c r="G274" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
@@ -10348,10 +10378,10 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B277" t="s">
         <v>1088</v>
-      </c>
-      <c r="B277" t="s">
-        <v>1089</v>
       </c>
       <c r="C277">
         <v>0</v>
@@ -10417,10 +10447,10 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B280" t="s">
         <v>1090</v>
-      </c>
-      <c r="B280" t="s">
-        <v>1091</v>
       </c>
       <c r="C280">
         <v>0</v>
@@ -10670,10 +10700,10 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B291" t="s">
         <v>1092</v>
-      </c>
-      <c r="B291" t="s">
-        <v>1093</v>
       </c>
       <c r="C291">
         <v>0</v>
@@ -10693,7 +10723,7 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B292" t="s">
         <v>997</v>
@@ -10739,10 +10769,10 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B294" t="s">
         <v>1095</v>
-      </c>
-      <c r="B294" t="s">
-        <v>1096</v>
       </c>
       <c r="C294">
         <v>0</v>
@@ -10762,10 +10792,10 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B295" t="s">
         <v>1097</v>
-      </c>
-      <c r="B295" t="s">
-        <v>1098</v>
       </c>
       <c r="C295">
         <v>0</v>
@@ -10831,10 +10861,10 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B298" t="s">
         <v>1099</v>
-      </c>
-      <c r="B298" t="s">
-        <v>1100</v>
       </c>
       <c r="C298">
         <v>0</v>
@@ -10877,7 +10907,7 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B300" t="s">
         <v>800</v>
@@ -11038,79 +11068,79 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>449</v>
+        <v>1217</v>
       </c>
       <c r="B307" t="s">
-        <v>805</v>
+        <v>1218</v>
       </c>
       <c r="C307">
         <v>0</v>
       </c>
       <c r="D307" t="s">
-        <v>421</v>
-      </c>
-      <c r="E307" t="s">
-        <v>9</v>
+        <v>1219</v>
+      </c>
+      <c r="E307">
+        <v>0</v>
       </c>
       <c r="F307" t="s">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="G307" t="s">
-        <v>426</v>
+        <v>254</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>1102</v>
+        <v>449</v>
       </c>
       <c r="B308" t="s">
-        <v>1103</v>
+        <v>805</v>
       </c>
       <c r="C308">
         <v>0</v>
       </c>
       <c r="D308" t="s">
-        <v>63</v>
-      </c>
-      <c r="E308">
-        <v>0</v>
+        <v>421</v>
+      </c>
+      <c r="E308" t="s">
+        <v>9</v>
       </c>
       <c r="F308" t="s">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="G308" t="s">
-        <v>227</v>
+        <v>426</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="B309" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="C309">
         <v>0</v>
       </c>
       <c r="D309" t="s">
-        <v>296</v>
+        <v>63</v>
       </c>
       <c r="E309">
         <v>0</v>
       </c>
       <c r="F309" t="s">
-        <v>297</v>
+        <v>224</v>
       </c>
       <c r="G309" t="s">
-        <v>298</v>
+        <v>227</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="B310" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="C310">
         <v>0</v>
@@ -11125,44 +11155,44 @@
         <v>297</v>
       </c>
       <c r="G310" t="s">
-        <v>1043</v>
+        <v>298</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>450</v>
+        <v>1105</v>
       </c>
       <c r="B311" t="s">
-        <v>806</v>
+        <v>1106</v>
       </c>
       <c r="C311">
         <v>0</v>
       </c>
       <c r="D311" t="s">
-        <v>20</v>
-      </c>
-      <c r="E311" t="s">
-        <v>9</v>
+        <v>296</v>
+      </c>
+      <c r="E311">
+        <v>0</v>
       </c>
       <c r="F311" t="s">
-        <v>14</v>
+        <v>297</v>
       </c>
       <c r="G311" t="s">
-        <v>95</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B312" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C312">
         <v>0</v>
       </c>
       <c r="D312" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E312" t="s">
         <v>9</v>
@@ -11171,15 +11201,15 @@
         <v>14</v>
       </c>
       <c r="G312" t="s">
-        <v>452</v>
+        <v>95</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B313" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C313">
         <v>0</v>
@@ -11194,15 +11224,15 @@
         <v>14</v>
       </c>
       <c r="G313" t="s">
-        <v>317</v>
+        <v>452</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B314" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C314">
         <v>0</v>
@@ -11222,10 +11252,10 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B315" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C315">
         <v>0</v>
@@ -11245,16 +11275,16 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B316" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C316">
         <v>0</v>
       </c>
       <c r="D316" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="E316" t="s">
         <v>9</v>
@@ -11268,10 +11298,10 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B317" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C317">
         <v>0</v>
@@ -11291,10 +11321,10 @@
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B318" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C318">
         <v>0</v>
@@ -11314,33 +11344,33 @@
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B319" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C319">
         <v>0</v>
       </c>
       <c r="D319" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="E319" t="s">
         <v>9</v>
       </c>
       <c r="F319" t="s">
-        <v>460</v>
+        <v>14</v>
       </c>
       <c r="G319" t="s">
-        <v>461</v>
+        <v>317</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B320" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C320">
         <v>0</v>
@@ -11355,15 +11385,15 @@
         <v>460</v>
       </c>
       <c r="G320" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B321" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C321">
         <v>0</v>
@@ -11378,15 +11408,15 @@
         <v>460</v>
       </c>
       <c r="G321" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B322" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C322">
         <v>0</v>
@@ -11401,15 +11431,15 @@
         <v>460</v>
       </c>
       <c r="G322" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B323" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C323">
         <v>0</v>
@@ -11421,18 +11451,18 @@
         <v>9</v>
       </c>
       <c r="F323" t="s">
-        <v>127</v>
+        <v>460</v>
       </c>
       <c r="G323" t="s">
-        <v>407</v>
+        <v>467</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B324" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C324">
         <v>0</v>
@@ -11447,15 +11477,15 @@
         <v>127</v>
       </c>
       <c r="G324" t="s">
-        <v>322</v>
+        <v>407</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>1108</v>
+        <v>469</v>
       </c>
       <c r="B325" t="s">
-        <v>1109</v>
+        <v>819</v>
       </c>
       <c r="C325">
         <v>0</v>
@@ -11470,47 +11500,47 @@
         <v>127</v>
       </c>
       <c r="G325" t="s">
-        <v>445</v>
+        <v>322</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="B326" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="C326">
         <v>0</v>
       </c>
       <c r="D326" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E326" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F326" t="s">
         <v>127</v>
       </c>
       <c r="G326" t="s">
-        <v>134</v>
+        <v>445</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>470</v>
+        <v>1109</v>
       </c>
       <c r="B327" t="s">
-        <v>820</v>
+        <v>1110</v>
       </c>
       <c r="C327">
         <v>0</v>
       </c>
       <c r="D327" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E327" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F327" t="s">
         <v>127</v>
@@ -11521,33 +11551,33 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B328" t="s">
-        <v>799</v>
+        <v>820</v>
       </c>
       <c r="C328">
         <v>0</v>
       </c>
       <c r="D328" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="E328" t="s">
         <v>9</v>
       </c>
       <c r="F328" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="G328" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B329" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C329">
         <v>0</v>
@@ -11562,21 +11592,21 @@
         <v>150</v>
       </c>
       <c r="G329" t="s">
-        <v>199</v>
+        <v>151</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>1112</v>
+        <v>472</v>
       </c>
       <c r="B330" t="s">
-        <v>1113</v>
+        <v>800</v>
       </c>
       <c r="C330">
         <v>0</v>
       </c>
       <c r="D330" t="s">
-        <v>220</v>
+        <v>72</v>
       </c>
       <c r="E330" t="s">
         <v>9</v>
@@ -11590,39 +11620,39 @@
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="B331" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="C331">
         <v>0</v>
       </c>
       <c r="D331" t="s">
-        <v>369</v>
+        <v>220</v>
       </c>
       <c r="E331" t="s">
         <v>9</v>
       </c>
       <c r="F331" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="G331" t="s">
-        <v>473</v>
+        <v>199</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>474</v>
+        <v>1113</v>
       </c>
       <c r="B332" t="s">
-        <v>821</v>
+        <v>1114</v>
       </c>
       <c r="C332">
         <v>0</v>
       </c>
       <c r="D332" t="s">
-        <v>72</v>
+        <v>369</v>
       </c>
       <c r="E332" t="s">
         <v>9</v>
@@ -11631,21 +11661,21 @@
         <v>81</v>
       </c>
       <c r="G332" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B333" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C333">
         <v>0</v>
       </c>
       <c r="D333" t="s">
-        <v>477</v>
+        <v>72</v>
       </c>
       <c r="E333" t="s">
         <v>9</v>
@@ -11659,16 +11689,16 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>1116</v>
+        <v>476</v>
       </c>
       <c r="B334" t="s">
-        <v>1117</v>
+        <v>822</v>
       </c>
       <c r="C334">
         <v>0</v>
       </c>
       <c r="D334" t="s">
-        <v>369</v>
+        <v>477</v>
       </c>
       <c r="E334" t="s">
         <v>9</v>
@@ -11677,21 +11707,21 @@
         <v>81</v>
       </c>
       <c r="G334" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>478</v>
+        <v>1115</v>
       </c>
       <c r="B335" t="s">
-        <v>823</v>
+        <v>1116</v>
       </c>
       <c r="C335">
         <v>0</v>
       </c>
       <c r="D335" t="s">
-        <v>13</v>
+        <v>369</v>
       </c>
       <c r="E335" t="s">
         <v>9</v>
@@ -11700,21 +11730,21 @@
         <v>81</v>
       </c>
       <c r="G335" t="s">
-        <v>176</v>
+        <v>473</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B336" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C336">
         <v>0</v>
       </c>
       <c r="D336" t="s">
-        <v>369</v>
+        <v>13</v>
       </c>
       <c r="E336" t="s">
         <v>9</v>
@@ -11723,21 +11753,21 @@
         <v>81</v>
       </c>
       <c r="G336" t="s">
-        <v>480</v>
+        <v>176</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B337" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C337">
         <v>0</v>
       </c>
       <c r="D337" t="s">
-        <v>13</v>
+        <v>369</v>
       </c>
       <c r="E337" t="s">
         <v>9</v>
@@ -11746,21 +11776,21 @@
         <v>81</v>
       </c>
       <c r="G337" t="s">
-        <v>176</v>
+        <v>480</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B338" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C338">
         <v>0</v>
       </c>
       <c r="D338" t="s">
-        <v>369</v>
+        <v>13</v>
       </c>
       <c r="E338" t="s">
         <v>9</v>
@@ -11769,21 +11799,21 @@
         <v>81</v>
       </c>
       <c r="G338" t="s">
-        <v>483</v>
+        <v>176</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B339" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C339">
         <v>0</v>
       </c>
       <c r="D339" t="s">
-        <v>13</v>
+        <v>369</v>
       </c>
       <c r="E339" t="s">
         <v>9</v>
@@ -11792,15 +11822,15 @@
         <v>81</v>
       </c>
       <c r="G339" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B340" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C340">
         <v>0</v>
@@ -11815,15 +11845,15 @@
         <v>81</v>
       </c>
       <c r="G340" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>1118</v>
+        <v>486</v>
       </c>
       <c r="B341" t="s">
-        <v>1119</v>
+        <v>828</v>
       </c>
       <c r="C341">
         <v>0</v>
@@ -11838,15 +11868,15 @@
         <v>81</v>
       </c>
       <c r="G341" t="s">
-        <v>1120</v>
+        <v>483</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>487</v>
+        <v>1117</v>
       </c>
       <c r="B342" t="s">
-        <v>829</v>
+        <v>1118</v>
       </c>
       <c r="C342">
         <v>0</v>
@@ -11861,15 +11891,15 @@
         <v>81</v>
       </c>
       <c r="G342" t="s">
-        <v>373</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B343" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C343">
         <v>0</v>
@@ -11889,10 +11919,10 @@
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B344" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C344">
         <v>0</v>
@@ -11907,15 +11937,15 @@
         <v>81</v>
       </c>
       <c r="G344" t="s">
-        <v>82</v>
+        <v>373</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B345" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C345">
         <v>0</v>
@@ -11930,15 +11960,15 @@
         <v>81</v>
       </c>
       <c r="G345" t="s">
-        <v>485</v>
+        <v>82</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>1121</v>
+        <v>490</v>
       </c>
       <c r="B346" t="s">
-        <v>1122</v>
+        <v>832</v>
       </c>
       <c r="C346">
         <v>0</v>
@@ -11953,21 +11983,21 @@
         <v>81</v>
       </c>
       <c r="G346" t="s">
-        <v>213</v>
+        <v>485</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="B347" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="C347">
         <v>0</v>
       </c>
       <c r="D347" t="s">
-        <v>369</v>
+        <v>13</v>
       </c>
       <c r="E347" t="s">
         <v>9</v>
@@ -11981,10 +12011,10 @@
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>491</v>
+        <v>1122</v>
       </c>
       <c r="B348" t="s">
-        <v>833</v>
+        <v>1123</v>
       </c>
       <c r="C348">
         <v>0</v>
@@ -12004,16 +12034,16 @@
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B349" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C349">
         <v>0</v>
       </c>
       <c r="D349" t="s">
-        <v>13</v>
+        <v>369</v>
       </c>
       <c r="E349" t="s">
         <v>9</v>
@@ -12022,21 +12052,21 @@
         <v>81</v>
       </c>
       <c r="G349" t="s">
-        <v>84</v>
+        <v>213</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>1125</v>
+        <v>492</v>
       </c>
       <c r="B350" t="s">
-        <v>1126</v>
+        <v>834</v>
       </c>
       <c r="C350">
         <v>0</v>
       </c>
       <c r="D350" t="s">
-        <v>369</v>
+        <v>13</v>
       </c>
       <c r="E350" t="s">
         <v>9</v>
@@ -12045,15 +12075,15 @@
         <v>81</v>
       </c>
       <c r="G350" t="s">
-        <v>197</v>
+        <v>84</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="B351" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="C351">
         <v>0</v>
@@ -12068,21 +12098,21 @@
         <v>81</v>
       </c>
       <c r="G351" t="s">
-        <v>269</v>
+        <v>197</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B352" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="C352">
         <v>0</v>
       </c>
       <c r="D352" t="s">
-        <v>13</v>
+        <v>369</v>
       </c>
       <c r="E352" t="s">
         <v>9</v>
@@ -12096,10 +12126,10 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="B353" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="C353">
         <v>0</v>
@@ -12114,15 +12144,15 @@
         <v>81</v>
       </c>
       <c r="G353" t="s">
-        <v>371</v>
+        <v>269</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>493</v>
+        <v>1130</v>
       </c>
       <c r="B354" t="s">
-        <v>835</v>
+        <v>1131</v>
       </c>
       <c r="C354">
         <v>0</v>
@@ -12142,10 +12172,10 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B355" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C355">
         <v>0</v>
@@ -12160,21 +12190,21 @@
         <v>81</v>
       </c>
       <c r="G355" t="s">
-        <v>118</v>
+        <v>371</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B356" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C356">
         <v>0</v>
       </c>
       <c r="D356" t="s">
-        <v>369</v>
+        <v>13</v>
       </c>
       <c r="E356" t="s">
         <v>9</v>
@@ -12183,21 +12213,21 @@
         <v>81</v>
       </c>
       <c r="G356" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B357" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C357">
         <v>0</v>
       </c>
       <c r="D357" t="s">
-        <v>13</v>
+        <v>369</v>
       </c>
       <c r="E357" t="s">
         <v>9</v>
@@ -12206,15 +12236,15 @@
         <v>81</v>
       </c>
       <c r="G357" t="s">
-        <v>260</v>
+        <v>117</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B358" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C358">
         <v>0</v>
@@ -12234,10 +12264,10 @@
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B359" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C359">
         <v>0</v>
@@ -12252,15 +12282,15 @@
         <v>81</v>
       </c>
       <c r="G359" t="s">
-        <v>118</v>
+        <v>260</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>1133</v>
+        <v>498</v>
       </c>
       <c r="B360" t="s">
-        <v>1134</v>
+        <v>840</v>
       </c>
       <c r="C360">
         <v>0</v>
@@ -12275,38 +12305,38 @@
         <v>81</v>
       </c>
       <c r="G360" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>499</v>
+        <v>1132</v>
       </c>
       <c r="B361" t="s">
-        <v>841</v>
+        <v>1133</v>
       </c>
       <c r="C361">
         <v>0</v>
       </c>
       <c r="D361" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="E361" t="s">
         <v>9</v>
       </c>
       <c r="F361" t="s">
-        <v>500</v>
+        <v>81</v>
       </c>
       <c r="G361" t="s">
-        <v>501</v>
+        <v>115</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B362" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C362">
         <v>0</v>
@@ -12321,15 +12351,15 @@
         <v>500</v>
       </c>
       <c r="G362" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B363" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C363">
         <v>0</v>
@@ -12349,10 +12379,10 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>1135</v>
+        <v>504</v>
       </c>
       <c r="B364" t="s">
-        <v>1136</v>
+        <v>843</v>
       </c>
       <c r="C364">
         <v>0</v>
@@ -12361,21 +12391,21 @@
         <v>137</v>
       </c>
       <c r="E364" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F364" t="s">
         <v>500</v>
       </c>
       <c r="G364" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>505</v>
+        <v>1134</v>
       </c>
       <c r="B365" t="s">
-        <v>844</v>
+        <v>1135</v>
       </c>
       <c r="C365">
         <v>0</v>
@@ -12384,7 +12414,7 @@
         <v>137</v>
       </c>
       <c r="E365" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F365" t="s">
         <v>500</v>
@@ -12395,10 +12425,10 @@
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B366" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C366">
         <v>0</v>
@@ -12418,10 +12448,10 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>1137</v>
+        <v>506</v>
       </c>
       <c r="B367" t="s">
-        <v>1138</v>
+        <v>845</v>
       </c>
       <c r="C367">
         <v>0</v>
@@ -12430,7 +12460,7 @@
         <v>137</v>
       </c>
       <c r="E367" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F367" t="s">
         <v>500</v>
@@ -12441,10 +12471,10 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="B368" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="C368">
         <v>0</v>
@@ -12459,15 +12489,15 @@
         <v>500</v>
       </c>
       <c r="G368" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>508</v>
+        <v>1138</v>
       </c>
       <c r="B369" t="s">
-        <v>846</v>
+        <v>1139</v>
       </c>
       <c r="C369">
         <v>0</v>
@@ -12476,67 +12506,67 @@
         <v>137</v>
       </c>
       <c r="E369" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F369" t="s">
         <v>500</v>
       </c>
       <c r="G369" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>1141</v>
+        <v>508</v>
       </c>
       <c r="B370" t="s">
-        <v>1142</v>
+        <v>846</v>
       </c>
       <c r="C370">
         <v>0</v>
       </c>
       <c r="D370" t="s">
-        <v>509</v>
+        <v>137</v>
       </c>
       <c r="E370" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F370" t="s">
         <v>500</v>
       </c>
       <c r="G370" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="B371" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="C371">
         <v>0</v>
       </c>
       <c r="D371" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E371" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F371" t="s">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="G371" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>513</v>
+        <v>1142</v>
       </c>
       <c r="B372" t="s">
-        <v>847</v>
+        <v>1143</v>
       </c>
       <c r="C372">
         <v>0</v>
@@ -12556,33 +12586,33 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>1145</v>
+        <v>513</v>
       </c>
       <c r="B373" t="s">
-        <v>1146</v>
+        <v>847</v>
       </c>
       <c r="C373">
         <v>0</v>
       </c>
       <c r="D373" t="s">
-        <v>72</v>
+        <v>511</v>
       </c>
       <c r="E373" t="s">
         <v>9</v>
       </c>
       <c r="F373" t="s">
-        <v>127</v>
+        <v>460</v>
       </c>
       <c r="G373" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="B374" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="C374">
         <v>0</v>
@@ -12597,15 +12627,15 @@
         <v>127</v>
       </c>
       <c r="G374" t="s">
-        <v>156</v>
+        <v>514</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="B375" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="C375">
         <v>0</v>
@@ -12620,38 +12650,38 @@
         <v>127</v>
       </c>
       <c r="G375" t="s">
-        <v>515</v>
+        <v>156</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>516</v>
+        <v>1148</v>
       </c>
       <c r="B376" t="s">
-        <v>848</v>
+        <v>1149</v>
       </c>
       <c r="C376">
         <v>0</v>
       </c>
       <c r="D376" t="s">
-        <v>511</v>
+        <v>72</v>
       </c>
       <c r="E376" t="s">
         <v>9</v>
       </c>
       <c r="F376" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="G376" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B377" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C377">
         <v>0</v>
@@ -12663,18 +12693,18 @@
         <v>9</v>
       </c>
       <c r="F377" t="s">
-        <v>519</v>
+        <v>58</v>
       </c>
       <c r="G377" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>1151</v>
+        <v>518</v>
       </c>
       <c r="B378" t="s">
-        <v>1152</v>
+        <v>849</v>
       </c>
       <c r="C378">
         <v>0</v>
@@ -12683,7 +12713,7 @@
         <v>511</v>
       </c>
       <c r="E378" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F378" t="s">
         <v>519</v>
@@ -12694,33 +12724,33 @@
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>521</v>
+        <v>1150</v>
       </c>
       <c r="B379" t="s">
-        <v>850</v>
+        <v>1151</v>
       </c>
       <c r="C379">
         <v>0</v>
       </c>
       <c r="D379" t="s">
-        <v>43</v>
+        <v>511</v>
       </c>
       <c r="E379" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F379" t="s">
-        <v>44</v>
+        <v>519</v>
       </c>
       <c r="G379" t="s">
-        <v>45</v>
+        <v>520</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>1153</v>
+        <v>521</v>
       </c>
       <c r="B380" t="s">
-        <v>1154</v>
+        <v>850</v>
       </c>
       <c r="C380">
         <v>0</v>
@@ -12740,10 +12770,10 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="B381" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="C381">
         <v>0</v>
@@ -12763,10 +12793,10 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="B382" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="C382">
         <v>0</v>
@@ -12781,15 +12811,15 @@
         <v>44</v>
       </c>
       <c r="G382" t="s">
-        <v>1159</v>
+        <v>45</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>522</v>
+        <v>1156</v>
       </c>
       <c r="B383" t="s">
-        <v>851</v>
+        <v>1157</v>
       </c>
       <c r="C383">
         <v>0</v>
@@ -12804,15 +12834,15 @@
         <v>44</v>
       </c>
       <c r="G383" t="s">
-        <v>523</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>1160</v>
+        <v>522</v>
       </c>
       <c r="B384" t="s">
-        <v>1161</v>
+        <v>851</v>
       </c>
       <c r="C384">
         <v>0</v>
@@ -12832,33 +12862,33 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>524</v>
+        <v>1159</v>
       </c>
       <c r="B385" t="s">
-        <v>852</v>
+        <v>1160</v>
       </c>
       <c r="C385">
         <v>0</v>
       </c>
       <c r="D385" t="s">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="E385" t="s">
         <v>9</v>
       </c>
       <c r="F385" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="G385" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B386" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C386">
         <v>0</v>
@@ -12873,61 +12903,61 @@
         <v>121</v>
       </c>
       <c r="G386" t="s">
-        <v>122</v>
+        <v>525</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>1162</v>
+        <v>526</v>
       </c>
       <c r="B387" t="s">
-        <v>1163</v>
+        <v>853</v>
       </c>
       <c r="C387">
         <v>0</v>
       </c>
       <c r="D387" t="s">
-        <v>527</v>
+        <v>120</v>
       </c>
       <c r="E387" t="s">
         <v>9</v>
       </c>
       <c r="F387" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="G387" t="s">
-        <v>246</v>
+        <v>122</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>528</v>
+        <v>1161</v>
       </c>
       <c r="B388" t="s">
-        <v>854</v>
+        <v>1162</v>
       </c>
       <c r="C388">
         <v>0</v>
       </c>
       <c r="D388" t="s">
-        <v>13</v>
+        <v>527</v>
       </c>
       <c r="E388" t="s">
         <v>9</v>
       </c>
       <c r="F388" t="s">
-        <v>210</v>
+        <v>58</v>
       </c>
       <c r="G388" t="s">
-        <v>529</v>
+        <v>246</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B389" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C389">
         <v>0</v>
@@ -12942,38 +12972,38 @@
         <v>210</v>
       </c>
       <c r="G389" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>1164</v>
+        <v>530</v>
       </c>
       <c r="B390" t="s">
-        <v>1165</v>
+        <v>855</v>
       </c>
       <c r="C390">
         <v>0</v>
       </c>
       <c r="D390" t="s">
-        <v>416</v>
+        <v>13</v>
       </c>
       <c r="E390" t="s">
         <v>9</v>
       </c>
       <c r="F390" t="s">
-        <v>519</v>
+        <v>210</v>
       </c>
       <c r="G390" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>1166</v>
+        <v>1220</v>
       </c>
       <c r="B391" t="s">
-        <v>1167</v>
+        <v>1221</v>
       </c>
       <c r="C391">
         <v>0</v>
@@ -12982,50 +13012,50 @@
         <v>416</v>
       </c>
       <c r="E391" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F391" t="s">
         <v>519</v>
       </c>
       <c r="G391" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>534</v>
+        <v>1222</v>
       </c>
       <c r="B392" t="s">
-        <v>856</v>
+        <v>1223</v>
       </c>
       <c r="C392">
         <v>0</v>
       </c>
       <c r="D392" t="s">
-        <v>535</v>
+        <v>416</v>
       </c>
       <c r="E392" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F392" t="s">
         <v>519</v>
       </c>
       <c r="G392" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>537</v>
+        <v>1163</v>
       </c>
       <c r="B393" t="s">
-        <v>857</v>
+        <v>1164</v>
       </c>
       <c r="C393">
         <v>0</v>
       </c>
       <c r="D393" t="s">
-        <v>535</v>
+        <v>416</v>
       </c>
       <c r="E393" t="s">
         <v>9</v>
@@ -13034,21 +13064,21 @@
         <v>519</v>
       </c>
       <c r="G393" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>539</v>
+        <v>1165</v>
       </c>
       <c r="B394" t="s">
-        <v>858</v>
+        <v>1166</v>
       </c>
       <c r="C394">
         <v>0</v>
       </c>
       <c r="D394" t="s">
-        <v>535</v>
+        <v>416</v>
       </c>
       <c r="E394" t="s">
         <v>9</v>
@@ -13057,15 +13087,15 @@
         <v>519</v>
       </c>
       <c r="G394" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="B395" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C395">
         <v>0</v>
@@ -13080,84 +13110,84 @@
         <v>519</v>
       </c>
       <c r="G395" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>1168</v>
+        <v>537</v>
       </c>
       <c r="B396" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C396">
         <v>0</v>
       </c>
       <c r="D396" t="s">
-        <v>103</v>
+        <v>535</v>
       </c>
       <c r="E396" t="s">
         <v>9</v>
       </c>
       <c r="F396" t="s">
-        <v>243</v>
+        <v>519</v>
       </c>
       <c r="G396" t="s">
-        <v>389</v>
+        <v>538</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B397" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C397">
         <v>0</v>
       </c>
       <c r="D397" t="s">
-        <v>103</v>
+        <v>535</v>
       </c>
       <c r="E397" t="s">
         <v>9</v>
       </c>
       <c r="F397" t="s">
-        <v>243</v>
+        <v>519</v>
       </c>
       <c r="G397" t="s">
-        <v>389</v>
+        <v>540</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B398" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C398">
         <v>0</v>
       </c>
       <c r="D398" t="s">
-        <v>103</v>
+        <v>535</v>
       </c>
       <c r="E398" t="s">
         <v>9</v>
       </c>
       <c r="F398" t="s">
-        <v>243</v>
+        <v>519</v>
       </c>
       <c r="G398" t="s">
-        <v>389</v>
+        <v>542</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B399" t="s">
-        <v>1170</v>
+        <v>860</v>
       </c>
       <c r="C399">
         <v>0</v>
@@ -13169,18 +13199,18 @@
         <v>9</v>
       </c>
       <c r="F399" t="s">
-        <v>184</v>
+        <v>243</v>
       </c>
       <c r="G399" t="s">
-        <v>185</v>
+        <v>389</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>1171</v>
+        <v>543</v>
       </c>
       <c r="B400" t="s">
-        <v>1172</v>
+        <v>861</v>
       </c>
       <c r="C400">
         <v>0</v>
@@ -13192,18 +13222,18 @@
         <v>9</v>
       </c>
       <c r="F400" t="s">
-        <v>159</v>
+        <v>243</v>
       </c>
       <c r="G400" t="s">
-        <v>289</v>
+        <v>389</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>1173</v>
+        <v>544</v>
       </c>
       <c r="B401" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C401">
         <v>0</v>
@@ -13215,18 +13245,18 @@
         <v>9</v>
       </c>
       <c r="F401" t="s">
-        <v>58</v>
+        <v>243</v>
       </c>
       <c r="G401" t="s">
-        <v>545</v>
+        <v>389</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="B402" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="C402">
         <v>0</v>
@@ -13238,18 +13268,18 @@
         <v>9</v>
       </c>
       <c r="F402" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="G402" t="s">
-        <v>287</v>
+        <v>185</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="B403" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="C403">
         <v>0</v>
@@ -13264,15 +13294,15 @@
         <v>159</v>
       </c>
       <c r="G403" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="B404" t="s">
-        <v>1179</v>
+        <v>863</v>
       </c>
       <c r="C404">
         <v>0</v>
@@ -13284,372 +13314,372 @@
         <v>9</v>
       </c>
       <c r="F404" t="s">
-        <v>184</v>
+        <v>58</v>
       </c>
       <c r="G404" t="s">
-        <v>190</v>
+        <v>545</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>546</v>
+        <v>1173</v>
       </c>
       <c r="B405" t="s">
-        <v>864</v>
+        <v>1174</v>
       </c>
       <c r="C405">
         <v>0</v>
       </c>
       <c r="D405" t="s">
-        <v>242</v>
+        <v>103</v>
       </c>
       <c r="E405" t="s">
         <v>9</v>
       </c>
       <c r="F405" t="s">
-        <v>297</v>
+        <v>159</v>
       </c>
       <c r="G405" t="s">
-        <v>547</v>
+        <v>287</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>548</v>
+        <v>1175</v>
       </c>
       <c r="B406" t="s">
-        <v>865</v>
+        <v>1176</v>
       </c>
       <c r="C406">
         <v>0</v>
       </c>
       <c r="D406" t="s">
-        <v>242</v>
+        <v>103</v>
       </c>
       <c r="E406" t="s">
         <v>9</v>
       </c>
       <c r="F406" t="s">
-        <v>297</v>
+        <v>159</v>
       </c>
       <c r="G406" t="s">
-        <v>549</v>
+        <v>287</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>550</v>
+        <v>1177</v>
       </c>
       <c r="B407" t="s">
-        <v>866</v>
+        <v>1178</v>
       </c>
       <c r="C407">
         <v>0</v>
       </c>
       <c r="D407" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="E407" t="s">
         <v>9</v>
       </c>
       <c r="F407" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="G407" t="s">
-        <v>551</v>
+        <v>190</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B408" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C408">
         <v>0</v>
       </c>
       <c r="D408" t="s">
-        <v>69</v>
+        <v>242</v>
       </c>
       <c r="E408" t="s">
         <v>9</v>
       </c>
       <c r="F408" t="s">
-        <v>210</v>
+        <v>297</v>
       </c>
       <c r="G408" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B409" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C409">
         <v>0</v>
       </c>
       <c r="D409" t="s">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="E409" t="s">
         <v>9</v>
       </c>
       <c r="F409" t="s">
-        <v>159</v>
+        <v>297</v>
       </c>
       <c r="G409" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>1180</v>
+        <v>550</v>
       </c>
       <c r="B410" t="s">
-        <v>1181</v>
+        <v>866</v>
       </c>
       <c r="C410">
         <v>0</v>
       </c>
       <c r="D410" t="s">
-        <v>296</v>
+        <v>69</v>
       </c>
       <c r="E410" t="s">
         <v>9</v>
       </c>
       <c r="F410" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="G410" t="s">
-        <v>160</v>
+        <v>551</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>1182</v>
+        <v>552</v>
       </c>
       <c r="B411" t="s">
-        <v>1183</v>
+        <v>867</v>
       </c>
       <c r="C411">
         <v>0</v>
       </c>
       <c r="D411" t="s">
-        <v>556</v>
+        <v>69</v>
       </c>
       <c r="E411" t="s">
         <v>9</v>
       </c>
       <c r="F411" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="G411" t="s">
-        <v>1184</v>
+        <v>553</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B412" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C412">
         <v>0</v>
       </c>
       <c r="D412" t="s">
-        <v>403</v>
+        <v>80</v>
       </c>
       <c r="E412" t="s">
         <v>9</v>
       </c>
       <c r="F412" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="G412" t="s">
-        <v>42</v>
+        <v>555</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>558</v>
+        <v>1179</v>
       </c>
       <c r="B413" t="s">
-        <v>870</v>
+        <v>1180</v>
       </c>
       <c r="C413">
         <v>0</v>
       </c>
       <c r="D413" t="s">
-        <v>403</v>
+        <v>296</v>
       </c>
       <c r="E413" t="s">
         <v>9</v>
       </c>
       <c r="F413" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="G413" t="s">
-        <v>42</v>
+        <v>160</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>559</v>
+        <v>1181</v>
       </c>
       <c r="B414" t="s">
-        <v>871</v>
+        <v>1182</v>
       </c>
       <c r="C414">
         <v>0</v>
       </c>
       <c r="D414" t="s">
-        <v>403</v>
+        <v>556</v>
       </c>
       <c r="E414" t="s">
         <v>9</v>
       </c>
       <c r="F414" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G414" t="s">
-        <v>42</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>1185</v>
+        <v>557</v>
       </c>
       <c r="B415" t="s">
-        <v>1186</v>
+        <v>869</v>
       </c>
       <c r="C415">
         <v>0</v>
       </c>
       <c r="D415" t="s">
-        <v>234</v>
+        <v>403</v>
       </c>
       <c r="E415" t="s">
         <v>9</v>
       </c>
       <c r="F415" t="s">
-        <v>235</v>
+        <v>41</v>
       </c>
       <c r="G415" t="s">
-        <v>237</v>
+        <v>42</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>1187</v>
+        <v>558</v>
       </c>
       <c r="B416" t="s">
-        <v>1188</v>
+        <v>870</v>
       </c>
       <c r="C416">
         <v>0</v>
       </c>
       <c r="D416" t="s">
-        <v>233</v>
+        <v>403</v>
       </c>
       <c r="E416" t="s">
         <v>9</v>
       </c>
       <c r="F416" t="s">
-        <v>230</v>
+        <v>41</v>
       </c>
       <c r="G416" t="s">
-        <v>560</v>
+        <v>42</v>
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>1189</v>
+        <v>559</v>
       </c>
       <c r="B417" t="s">
-        <v>1190</v>
+        <v>871</v>
       </c>
       <c r="C417">
         <v>0</v>
       </c>
       <c r="D417" t="s">
-        <v>561</v>
+        <v>403</v>
       </c>
       <c r="E417" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F417" t="s">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="G417" t="s">
-        <v>422</v>
+        <v>42</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>1191</v>
+        <v>1184</v>
       </c>
       <c r="B418" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
       <c r="C418">
         <v>0</v>
       </c>
       <c r="D418" t="s">
-        <v>561</v>
+        <v>234</v>
       </c>
       <c r="E418" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F418" t="s">
-        <v>148</v>
+        <v>235</v>
       </c>
       <c r="G418" t="s">
-        <v>1193</v>
+        <v>237</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>1194</v>
+        <v>1186</v>
       </c>
       <c r="B419" t="s">
-        <v>1195</v>
+        <v>1187</v>
       </c>
       <c r="C419">
         <v>0</v>
       </c>
       <c r="D419" t="s">
-        <v>561</v>
+        <v>233</v>
       </c>
       <c r="E419" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F419" t="s">
-        <v>148</v>
+        <v>230</v>
       </c>
       <c r="G419" t="s">
-        <v>1193</v>
+        <v>560</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>562</v>
+        <v>1188</v>
       </c>
       <c r="B420" t="s">
-        <v>872</v>
+        <v>1189</v>
       </c>
       <c r="C420">
         <v>0</v>
       </c>
       <c r="D420" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E420" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F420" t="s">
         <v>148</v>
@@ -13660,39 +13690,39 @@
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>564</v>
+        <v>1190</v>
       </c>
       <c r="B421" t="s">
-        <v>873</v>
+        <v>1191</v>
       </c>
       <c r="C421">
         <v>0</v>
       </c>
       <c r="D421" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E421" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F421" t="s">
         <v>148</v>
       </c>
       <c r="G421" t="s">
-        <v>426</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="B422" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="C422">
         <v>0</v>
       </c>
       <c r="D422" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E422" t="s">
         <v>7</v>
@@ -13701,15 +13731,15 @@
         <v>148</v>
       </c>
       <c r="G422" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>1198</v>
+        <v>562</v>
       </c>
       <c r="B423" t="s">
-        <v>1199</v>
+        <v>872</v>
       </c>
       <c r="C423">
         <v>0</v>
@@ -13718,21 +13748,21 @@
         <v>563</v>
       </c>
       <c r="E423" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F423" t="s">
         <v>148</v>
       </c>
       <c r="G423" t="s">
-        <v>149</v>
+        <v>422</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>1200</v>
+        <v>564</v>
       </c>
       <c r="B424" t="s">
-        <v>1201</v>
+        <v>873</v>
       </c>
       <c r="C424">
         <v>0</v>
@@ -13741,90 +13771,90 @@
         <v>563</v>
       </c>
       <c r="E424" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F424" t="s">
         <v>148</v>
       </c>
       <c r="G424" t="s">
-        <v>149</v>
+        <v>426</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="B425" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="C425">
         <v>0</v>
       </c>
       <c r="D425" t="s">
-        <v>220</v>
+        <v>563</v>
       </c>
       <c r="E425" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F425" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="G425" t="s">
-        <v>55</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="B426" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="C426">
         <v>0</v>
       </c>
       <c r="D426" t="s">
-        <v>220</v>
+        <v>563</v>
       </c>
       <c r="E426" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F426" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="G426" t="s">
-        <v>295</v>
+        <v>149</v>
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="B427" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="C427">
         <v>0</v>
       </c>
       <c r="D427" t="s">
-        <v>220</v>
+        <v>563</v>
       </c>
       <c r="E427" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F427" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="G427" t="s">
-        <v>294</v>
+        <v>149</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>565</v>
+        <v>1201</v>
       </c>
       <c r="B428" t="s">
-        <v>874</v>
+        <v>1202</v>
       </c>
       <c r="C428">
         <v>0</v>
@@ -13839,21 +13869,21 @@
         <v>54</v>
       </c>
       <c r="G428" t="s">
-        <v>566</v>
+        <v>55</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>567</v>
+        <v>1203</v>
       </c>
       <c r="B429" t="s">
-        <v>875</v>
+        <v>1204</v>
       </c>
       <c r="C429">
         <v>0</v>
       </c>
       <c r="D429" t="s">
-        <v>72</v>
+        <v>220</v>
       </c>
       <c r="E429" t="s">
         <v>9</v>
@@ -13862,21 +13892,21 @@
         <v>54</v>
       </c>
       <c r="G429" t="s">
-        <v>566</v>
+        <v>295</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="B430" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="C430">
         <v>0</v>
       </c>
       <c r="D430" t="s">
-        <v>72</v>
+        <v>220</v>
       </c>
       <c r="E430" t="s">
         <v>9</v>
@@ -13885,245 +13915,245 @@
         <v>54</v>
       </c>
       <c r="G430" t="s">
-        <v>990</v>
+        <v>294</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B431" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C431">
         <v>0</v>
       </c>
       <c r="D431" t="s">
-        <v>285</v>
+        <v>220</v>
       </c>
       <c r="E431" t="s">
         <v>9</v>
       </c>
       <c r="F431" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="G431" t="s">
-        <v>154</v>
+        <v>566</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>1210</v>
+        <v>567</v>
       </c>
       <c r="B432" t="s">
-        <v>1211</v>
+        <v>875</v>
       </c>
       <c r="C432">
         <v>0</v>
       </c>
       <c r="D432" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="E432" t="s">
         <v>9</v>
       </c>
       <c r="F432" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="G432" t="s">
-        <v>18</v>
+        <v>566</v>
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>569</v>
+        <v>1207</v>
       </c>
       <c r="B433" t="s">
-        <v>877</v>
+        <v>1208</v>
       </c>
       <c r="C433">
         <v>0</v>
       </c>
       <c r="D433" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="E433" t="s">
         <v>9</v>
       </c>
       <c r="F433" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="G433" t="s">
-        <v>18</v>
+        <v>990</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>1212</v>
+        <v>568</v>
       </c>
       <c r="B434" t="s">
-        <v>1213</v>
+        <v>876</v>
       </c>
       <c r="C434">
         <v>0</v>
       </c>
       <c r="D434" t="s">
-        <v>16</v>
+        <v>285</v>
       </c>
       <c r="E434" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F434" t="s">
         <v>17</v>
       </c>
       <c r="G434" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>570</v>
+        <v>1209</v>
       </c>
       <c r="B435" t="s">
-        <v>878</v>
+        <v>1210</v>
       </c>
       <c r="C435">
         <v>0</v>
       </c>
       <c r="D435" t="s">
-        <v>571</v>
+        <v>16</v>
       </c>
       <c r="E435" t="s">
         <v>9</v>
       </c>
       <c r="F435" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G435" t="s">
-        <v>435</v>
+        <v>18</v>
       </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B436" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C436">
         <v>0</v>
       </c>
       <c r="D436" t="s">
-        <v>571</v>
+        <v>16</v>
       </c>
       <c r="E436" t="s">
         <v>9</v>
       </c>
       <c r="F436" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G436" t="s">
-        <v>435</v>
+        <v>18</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>573</v>
+        <v>1211</v>
       </c>
       <c r="B437" t="s">
-        <v>880</v>
+        <v>1212</v>
       </c>
       <c r="C437">
         <v>0</v>
       </c>
       <c r="D437" t="s">
-        <v>285</v>
+        <v>16</v>
       </c>
       <c r="E437" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F437" t="s">
-        <v>319</v>
+        <v>17</v>
       </c>
       <c r="G437" t="s">
-        <v>365</v>
+        <v>18</v>
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>574</v>
+        <v>1224</v>
       </c>
       <c r="B438" t="s">
-        <v>881</v>
+        <v>1225</v>
       </c>
       <c r="C438">
         <v>0</v>
       </c>
       <c r="D438" t="s">
-        <v>285</v>
+        <v>16</v>
       </c>
       <c r="E438" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F438" t="s">
-        <v>319</v>
+        <v>17</v>
       </c>
       <c r="G438" t="s">
-        <v>365</v>
+        <v>18</v>
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B439" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="C439">
         <v>0</v>
       </c>
       <c r="D439" t="s">
-        <v>285</v>
+        <v>571</v>
       </c>
       <c r="E439" t="s">
         <v>9</v>
       </c>
       <c r="F439" t="s">
-        <v>319</v>
+        <v>34</v>
       </c>
       <c r="G439" t="s">
-        <v>365</v>
+        <v>435</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B440" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="C440">
         <v>0</v>
       </c>
       <c r="D440" t="s">
-        <v>285</v>
+        <v>571</v>
       </c>
       <c r="E440" t="s">
         <v>9</v>
       </c>
       <c r="F440" t="s">
-        <v>319</v>
+        <v>34</v>
       </c>
       <c r="G440" t="s">
-        <v>577</v>
+        <v>435</v>
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B441" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="C441">
         <v>0</v>
@@ -14135,18 +14165,18 @@
         <v>9</v>
       </c>
       <c r="F441" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="G441" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B442" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="C442">
         <v>0</v>
@@ -14158,18 +14188,18 @@
         <v>9</v>
       </c>
       <c r="F442" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="G442" t="s">
-        <v>580</v>
+        <v>365</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B443" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="C443">
         <v>0</v>
@@ -14181,18 +14211,18 @@
         <v>9</v>
       </c>
       <c r="F443" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="G443" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B444" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="C444">
         <v>0</v>
@@ -14204,18 +14234,18 @@
         <v>9</v>
       </c>
       <c r="F444" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="G444" t="s">
-        <v>409</v>
+        <v>577</v>
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B445" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="C445">
         <v>0</v>
@@ -14230,15 +14260,15 @@
         <v>335</v>
       </c>
       <c r="G445" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B446" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="C446">
         <v>0</v>
@@ -14253,15 +14283,15 @@
         <v>335</v>
       </c>
       <c r="G446" t="s">
-        <v>431</v>
+        <v>580</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B447" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="C447">
         <v>0</v>
@@ -14276,15 +14306,15 @@
         <v>335</v>
       </c>
       <c r="G447" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>1214</v>
+        <v>582</v>
       </c>
       <c r="B448" t="s">
-        <v>1215</v>
+        <v>887</v>
       </c>
       <c r="C448">
         <v>0</v>
@@ -14299,15 +14329,15 @@
         <v>335</v>
       </c>
       <c r="G448" t="s">
-        <v>586</v>
+        <v>409</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B449" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C449">
         <v>0</v>
@@ -14322,15 +14352,15 @@
         <v>335</v>
       </c>
       <c r="G449" t="s">
-        <v>586</v>
+        <v>361</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B450" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C450">
         <v>0</v>
@@ -14342,18 +14372,18 @@
         <v>9</v>
       </c>
       <c r="F450" t="s">
-        <v>17</v>
+        <v>335</v>
       </c>
       <c r="G450" t="s">
-        <v>286</v>
+        <v>431</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B451" t="s">
-        <v>738</v>
+        <v>890</v>
       </c>
       <c r="C451">
         <v>0</v>
@@ -14368,15 +14398,15 @@
         <v>335</v>
       </c>
       <c r="G451" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>590</v>
+        <v>1213</v>
       </c>
       <c r="B452" t="s">
-        <v>893</v>
+        <v>1214</v>
       </c>
       <c r="C452">
         <v>0</v>
@@ -14391,75 +14421,167 @@
         <v>335</v>
       </c>
       <c r="G452" t="s">
-        <v>336</v>
+        <v>586</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B453" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="C453">
         <v>0</v>
       </c>
       <c r="D453" t="s">
-        <v>72</v>
+        <v>285</v>
       </c>
       <c r="E453" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F453" t="s">
-        <v>34</v>
+        <v>335</v>
       </c>
       <c r="G453" t="s">
-        <v>433</v>
+        <v>586</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B454" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C454">
         <v>0</v>
       </c>
       <c r="D454" t="s">
-        <v>593</v>
+        <v>285</v>
       </c>
       <c r="E454" t="s">
         <v>9</v>
       </c>
       <c r="F454" t="s">
-        <v>594</v>
+        <v>17</v>
       </c>
       <c r="G454" t="s">
-        <v>595</v>
+        <v>286</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
+        <v>589</v>
+      </c>
+      <c r="B455" t="s">
+        <v>738</v>
+      </c>
+      <c r="C455">
+        <v>0</v>
+      </c>
+      <c r="D455" t="s">
+        <v>285</v>
+      </c>
+      <c r="E455" t="s">
+        <v>9</v>
+      </c>
+      <c r="F455" t="s">
+        <v>335</v>
+      </c>
+      <c r="G455" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>590</v>
+      </c>
+      <c r="B456" t="s">
+        <v>893</v>
+      </c>
+      <c r="C456">
+        <v>0</v>
+      </c>
+      <c r="D456" t="s">
+        <v>285</v>
+      </c>
+      <c r="E456" t="s">
+        <v>9</v>
+      </c>
+      <c r="F456" t="s">
+        <v>335</v>
+      </c>
+      <c r="G456" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>591</v>
+      </c>
+      <c r="B457" t="s">
+        <v>894</v>
+      </c>
+      <c r="C457">
+        <v>0</v>
+      </c>
+      <c r="D457" t="s">
+        <v>72</v>
+      </c>
+      <c r="E457" t="s">
+        <v>7</v>
+      </c>
+      <c r="F457" t="s">
+        <v>34</v>
+      </c>
+      <c r="G457" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>592</v>
+      </c>
+      <c r="B458" t="s">
+        <v>895</v>
+      </c>
+      <c r="C458">
+        <v>0</v>
+      </c>
+      <c r="D458" t="s">
+        <v>593</v>
+      </c>
+      <c r="E458" t="s">
+        <v>9</v>
+      </c>
+      <c r="F458" t="s">
+        <v>594</v>
+      </c>
+      <c r="G458" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
         <v>596</v>
       </c>
-      <c r="B455" t="s">
+      <c r="B459" t="s">
         <v>896</v>
       </c>
-      <c r="C455">
-        <v>0</v>
-      </c>
-      <c r="D455" t="s">
+      <c r="C459">
+        <v>0</v>
+      </c>
+      <c r="D459" t="s">
         <v>597</v>
       </c>
-      <c r="E455" t="s">
-        <v>9</v>
-      </c>
-      <c r="F455" t="s">
+      <c r="E459" t="s">
+        <v>9</v>
+      </c>
+      <c r="F459" t="s">
         <v>594</v>
       </c>
-      <c r="G455" t="s">
+      <c r="G459" t="s">
         <v>595</v>
       </c>
     </row>

--- a/DS_Mystery/Asia stock management/data/Загрузка справочник ШМТ.xlsx
+++ b/DS_Mystery/Asia stock management/data/Загрузка справочник ШМТ.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3699" uniqueCount="1241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3699" uniqueCount="1244">
   <si>
     <t>АРТИКУЛ</t>
   </si>
@@ -2720,12 +2720,6 @@
     <t>Фольга алюминиевая 29см х100м х 9мкм Супер эконом МП-М</t>
   </si>
   <si>
-    <t>101293</t>
-  </si>
-  <si>
-    <t>Мешок для мусора 120 л, [50+20]x110 см 55 мкм , черн., ПВД, 50 шт/упак</t>
-  </si>
-  <si>
     <t>101294</t>
   </si>
   <si>
@@ -3747,6 +3741,21 @@
   </si>
   <si>
     <t>Форма для выпечки d185хh35 мм "Кантри", коричн., бум., 300 шт/кор</t>
+  </si>
+  <si>
+    <t>Вилки пластиковые белые от 165 мм</t>
+  </si>
+  <si>
+    <t>111930</t>
+  </si>
+  <si>
+    <t>Салфетки влажные "МИСТЕРИЯ" Лимон, саше</t>
+  </si>
+  <si>
+    <t>Гигиенические товары</t>
+  </si>
+  <si>
+    <t>Салфетки влажные в индивидуальной упаковке</t>
   </si>
 </sst>
 </file>
@@ -4068,7 +4077,7 @@
   <dimension ref="A1:H463"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A464" sqref="A464:XFD465"/>
+      <selection sqref="A1:H463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4081,7 +4090,7 @@
         <v>593</v>
       </c>
       <c r="C1" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -4107,7 +4116,7 @@
         <v>594</v>
       </c>
       <c r="C2" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -4133,7 +4142,7 @@
         <v>595</v>
       </c>
       <c r="C3" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -4159,7 +4168,7 @@
         <v>891</v>
       </c>
       <c r="C4" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -4185,7 +4194,7 @@
         <v>596</v>
       </c>
       <c r="C5" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -4211,7 +4220,7 @@
         <v>597</v>
       </c>
       <c r="C6" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -4237,7 +4246,7 @@
         <v>893</v>
       </c>
       <c r="C7" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -4263,7 +4272,7 @@
         <v>598</v>
       </c>
       <c r="C8" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -4289,7 +4298,7 @@
         <v>599</v>
       </c>
       <c r="C9" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -4315,7 +4324,7 @@
         <v>600</v>
       </c>
       <c r="C10" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -4335,13 +4344,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="B11" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C11" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -4353,10 +4362,10 @@
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="H11" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -4367,7 +4376,7 @@
         <v>895</v>
       </c>
       <c r="C12" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -4393,7 +4402,7 @@
         <v>601</v>
       </c>
       <c r="C13" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -4419,7 +4428,7 @@
         <v>897</v>
       </c>
       <c r="C14" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -4445,7 +4454,7 @@
         <v>602</v>
       </c>
       <c r="C15" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -4471,7 +4480,7 @@
         <v>899</v>
       </c>
       <c r="C16" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -4480,24 +4489,24 @@
         <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G16" t="s">
         <v>48</v>
       </c>
       <c r="H16" t="s">
-        <v>49</v>
+        <v>900</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B17" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C17" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -4512,7 +4521,7 @@
         <v>48</v>
       </c>
       <c r="H17" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -4523,7 +4532,7 @@
         <v>904</v>
       </c>
       <c r="C18" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -4538,18 +4547,18 @@
         <v>48</v>
       </c>
       <c r="H18" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B19" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C19" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -4564,7 +4573,7 @@
         <v>48</v>
       </c>
       <c r="H19" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -4575,7 +4584,7 @@
         <v>909</v>
       </c>
       <c r="C20" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -4584,24 +4593,24 @@
         <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G20" t="s">
         <v>48</v>
       </c>
       <c r="H20" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>910</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>911</v>
+        <v>603</v>
       </c>
       <c r="C21" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -4610,258 +4619,258 @@
         <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G21" t="s">
         <v>48</v>
       </c>
       <c r="H21" t="s">
-        <v>912</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>1191</v>
       </c>
       <c r="B22" t="s">
-        <v>603</v>
+        <v>1192</v>
       </c>
       <c r="C22" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>1193</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>48</v>
+        <v>1194</v>
       </c>
       <c r="H22" t="s">
-        <v>51</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
         <v>1193</v>
       </c>
-      <c r="B23" t="s">
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
         <v>1194</v>
       </c>
-      <c r="C23" t="s">
-        <v>1186</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1195</v>
-      </c>
-      <c r="F23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" t="s">
-        <v>1196</v>
-      </c>
       <c r="H23" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B24" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="C24" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
       </c>
       <c r="G24" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="H24" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B25" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="C25" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
       </c>
       <c r="G25" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="H25" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>1204</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>1205</v>
+        <v>604</v>
       </c>
       <c r="C26" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>1195</v>
+        <v>53</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>1196</v>
+        <v>54</v>
       </c>
       <c r="H26" t="s">
-        <v>1206</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C27" t="s">
-        <v>1186</v>
+        <v>1190</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H27" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>911</v>
       </c>
       <c r="B28" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C28" t="s">
-        <v>1192</v>
+        <v>1183</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
       </c>
       <c r="G28" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="H28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>912</v>
+      </c>
+      <c r="B29" t="s">
         <v>913</v>
       </c>
-      <c r="B29" t="s">
-        <v>606</v>
-      </c>
       <c r="C29" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H29" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>914</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>915</v>
+        <v>607</v>
       </c>
       <c r="C30" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C31" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
@@ -4876,50 +4885,50 @@
         <v>48</v>
       </c>
       <c r="H31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>914</v>
       </c>
       <c r="B32" t="s">
-        <v>608</v>
+        <v>915</v>
       </c>
       <c r="C32" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
       </c>
       <c r="G32" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>916</v>
+        <v>70</v>
       </c>
       <c r="B33" t="s">
-        <v>917</v>
+        <v>609</v>
       </c>
       <c r="C33" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -4928,18 +4937,18 @@
         <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B34" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C34" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
@@ -4959,13 +4968,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>916</v>
       </c>
       <c r="B35" t="s">
-        <v>610</v>
+        <v>917</v>
       </c>
       <c r="C35" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
@@ -4985,13 +4994,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>918</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>919</v>
+        <v>611</v>
       </c>
       <c r="C36" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
@@ -5011,19 +5020,19 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C37" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
@@ -5032,18 +5041,18 @@
         <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C38" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
@@ -5058,18 +5067,18 @@
         <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C39" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -5089,16 +5098,16 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>918</v>
       </c>
       <c r="B40" t="s">
-        <v>614</v>
+        <v>919</v>
       </c>
       <c r="C40" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E40" t="s">
         <v>68</v>
@@ -5110,7 +5119,7 @@
         <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -5118,42 +5127,42 @@
         <v>920</v>
       </c>
       <c r="B41" t="s">
-        <v>921</v>
+        <v>615</v>
       </c>
       <c r="C41" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
       </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>922</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C42" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
@@ -5162,44 +5171,44 @@
         <v>80</v>
       </c>
       <c r="H42" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B43" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C43" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="F43" t="s">
         <v>9</v>
       </c>
       <c r="G43" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B44" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C44" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
@@ -5219,13 +5228,13 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B45" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C45" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
@@ -5245,13 +5254,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B46" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C46" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
@@ -5271,71 +5280,71 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>921</v>
       </c>
       <c r="B47" t="s">
-        <v>620</v>
+        <v>922</v>
       </c>
       <c r="C47" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
       </c>
       <c r="E47" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F47" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G47" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>923</v>
+        <v>92</v>
       </c>
       <c r="B48" t="s">
-        <v>924</v>
+        <v>621</v>
       </c>
       <c r="C48" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
       </c>
       <c r="E48" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G48" t="s">
         <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B49" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C49" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
       </c>
       <c r="E49" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -5344,18 +5353,18 @@
         <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B50" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C50" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D50" t="s">
         <v>7</v>
@@ -5370,18 +5379,18 @@
         <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B51" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C51" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D51" t="s">
         <v>7</v>
@@ -5401,123 +5410,123 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B52" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C52" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D52" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="F52" t="s">
         <v>9</v>
       </c>
       <c r="G52" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>888</v>
       </c>
       <c r="B53" t="s">
-        <v>625</v>
+        <v>889</v>
       </c>
       <c r="C53" t="s">
-        <v>1186</v>
+        <v>1190</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E53" t="s">
-        <v>53</v>
+        <v>239</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
       </c>
       <c r="G53" t="s">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="H53" t="s">
-        <v>81</v>
+        <v>241</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>888</v>
+        <v>101</v>
       </c>
       <c r="B54" t="s">
-        <v>889</v>
+        <v>626</v>
       </c>
       <c r="C54" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
       </c>
       <c r="E54" t="s">
-        <v>239</v>
+        <v>102</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
       </c>
       <c r="G54" t="s">
-        <v>240</v>
+        <v>58</v>
       </c>
       <c r="H54" t="s">
-        <v>241</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B55" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C55" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
       <c r="D55" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
         <v>9</v>
       </c>
       <c r="G55" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B56" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C56" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E56" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
         <v>9</v>
@@ -5526,18 +5535,18 @@
         <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B57" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C57" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
@@ -5557,19 +5566,19 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B58" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C58" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E58" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F58" t="s">
         <v>9</v>
@@ -5578,44 +5587,44 @@
         <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B59" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C59" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E59" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="F59" t="s">
         <v>9</v>
       </c>
       <c r="G59" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="H59" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B60" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C60" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
@@ -5630,18 +5639,18 @@
         <v>80</v>
       </c>
       <c r="H60" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B61" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C61" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D61" t="s">
         <v>7</v>
@@ -5656,24 +5665,24 @@
         <v>80</v>
       </c>
       <c r="H61" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>115</v>
+        <v>923</v>
       </c>
       <c r="B62" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C62" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
       </c>
       <c r="E62" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="F62" t="s">
         <v>9</v>
@@ -5682,102 +5691,102 @@
         <v>80</v>
       </c>
       <c r="H62" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>924</v>
+      </c>
+      <c r="B63" t="s">
         <v>925</v>
       </c>
-      <c r="B63" t="s">
-        <v>634</v>
-      </c>
       <c r="C63" t="s">
-        <v>1186</v>
+        <v>1190</v>
       </c>
       <c r="D63" t="s">
         <v>7</v>
       </c>
       <c r="E63" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F63" t="s">
         <v>9</v>
       </c>
       <c r="G63" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>926</v>
+        <v>118</v>
       </c>
       <c r="B64" t="s">
-        <v>927</v>
+        <v>635</v>
       </c>
       <c r="C64" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
       </c>
       <c r="E64" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="F64" t="s">
         <v>9</v>
       </c>
       <c r="G64" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="H64" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>118</v>
+        <v>926</v>
       </c>
       <c r="B65" t="s">
-        <v>635</v>
+        <v>927</v>
       </c>
       <c r="C65" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="F65" t="s">
         <v>9</v>
       </c>
       <c r="G65" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>928</v>
+        <v>123</v>
       </c>
       <c r="B66" t="s">
-        <v>929</v>
+        <v>636</v>
       </c>
       <c r="C66" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D66" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E66" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="F66" t="s">
         <v>9</v>
@@ -5786,50 +5795,50 @@
         <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B67" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C67" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="F67" t="s">
         <v>9</v>
       </c>
       <c r="G67" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="H67" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>124</v>
+        <v>928</v>
       </c>
       <c r="B68" t="s">
-        <v>637</v>
+        <v>929</v>
       </c>
       <c r="C68" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="F68" t="s">
         <v>9</v>
@@ -5838,7 +5847,7 @@
         <v>126</v>
       </c>
       <c r="H68" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -5849,7 +5858,7 @@
         <v>931</v>
       </c>
       <c r="C69" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D69" t="s">
         <v>7</v>
@@ -5864,18 +5873,18 @@
         <v>126</v>
       </c>
       <c r="H69" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>932</v>
+        <v>130</v>
       </c>
       <c r="B70" t="s">
-        <v>933</v>
+        <v>638</v>
       </c>
       <c r="C70" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
@@ -5890,24 +5899,24 @@
         <v>126</v>
       </c>
       <c r="H70" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B71" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C71" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F71" t="s">
         <v>9</v>
@@ -5916,18 +5925,18 @@
         <v>126</v>
       </c>
       <c r="H71" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B72" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C72" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
@@ -5942,59 +5951,59 @@
         <v>126</v>
       </c>
       <c r="H72" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>134</v>
+        <v>932</v>
       </c>
       <c r="B73" t="s">
-        <v>640</v>
+        <v>933</v>
       </c>
       <c r="C73" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="F73" t="s">
         <v>9</v>
       </c>
       <c r="G73" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>934</v>
+        <v>1205</v>
       </c>
       <c r="B74" t="s">
-        <v>935</v>
+        <v>1206</v>
       </c>
       <c r="C74" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
       </c>
       <c r="E74" t="s">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="F74" t="s">
         <v>9</v>
       </c>
       <c r="G74" t="s">
-        <v>14</v>
+        <v>1188</v>
       </c>
       <c r="H74" t="s">
-        <v>94</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -6005,7 +6014,7 @@
         <v>1208</v>
       </c>
       <c r="C75" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
@@ -6017,21 +6026,21 @@
         <v>9</v>
       </c>
       <c r="G75" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="H75" t="s">
-        <v>1191</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>1209</v>
+        <v>137</v>
       </c>
       <c r="B76" t="s">
-        <v>1210</v>
+        <v>641</v>
       </c>
       <c r="C76" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
@@ -6043,21 +6052,21 @@
         <v>9</v>
       </c>
       <c r="G76" t="s">
-        <v>1190</v>
+        <v>126</v>
       </c>
       <c r="H76" t="s">
-        <v>1211</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>137</v>
+        <v>934</v>
       </c>
       <c r="B77" t="s">
-        <v>641</v>
+        <v>935</v>
       </c>
       <c r="C77" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
@@ -6072,18 +6081,18 @@
         <v>126</v>
       </c>
       <c r="H77" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>936</v>
+        <v>140</v>
       </c>
       <c r="B78" t="s">
-        <v>937</v>
+        <v>642</v>
       </c>
       <c r="C78" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
@@ -6098,18 +6107,18 @@
         <v>126</v>
       </c>
       <c r="H78" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>140</v>
+        <v>936</v>
       </c>
       <c r="B79" t="s">
-        <v>642</v>
+        <v>937</v>
       </c>
       <c r="C79" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
@@ -6124,7 +6133,7 @@
         <v>126</v>
       </c>
       <c r="H79" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -6135,7 +6144,7 @@
         <v>939</v>
       </c>
       <c r="C80" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
@@ -6150,122 +6159,122 @@
         <v>126</v>
       </c>
       <c r="H80" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>940</v>
+        <v>144</v>
       </c>
       <c r="B81" t="s">
-        <v>941</v>
+        <v>643</v>
       </c>
       <c r="C81" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D81" t="s">
         <v>7</v>
       </c>
       <c r="E81" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="F81" t="s">
         <v>9</v>
       </c>
       <c r="G81" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="H81" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B82" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C82" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
       </c>
       <c r="E82" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F82" t="s">
         <v>9</v>
       </c>
       <c r="G82" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H82" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B83" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C83" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D83" t="s">
         <v>7</v>
       </c>
       <c r="E83" t="s">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="F83" t="s">
         <v>9</v>
       </c>
       <c r="G83" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="H83" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B84" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C84" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
       </c>
       <c r="E84" t="s">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="F84" t="s">
         <v>9</v>
       </c>
       <c r="G84" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="H84" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B85" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C85" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D85" t="s">
         <v>7</v>
@@ -6285,13 +6294,13 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>159</v>
+        <v>940</v>
       </c>
       <c r="B86" t="s">
-        <v>647</v>
+        <v>941</v>
       </c>
       <c r="C86" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D86" t="s">
         <v>7</v>
@@ -6306,18 +6315,18 @@
         <v>157</v>
       </c>
       <c r="H86" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>942</v>
+        <v>161</v>
       </c>
       <c r="B87" t="s">
-        <v>943</v>
+        <v>648</v>
       </c>
       <c r="C87" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D87" t="s">
         <v>7</v>
@@ -6332,18 +6341,18 @@
         <v>157</v>
       </c>
       <c r="H87" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>161</v>
+        <v>942</v>
       </c>
       <c r="B88" t="s">
-        <v>648</v>
+        <v>943</v>
       </c>
       <c r="C88" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -6358,7 +6367,7 @@
         <v>157</v>
       </c>
       <c r="H88" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -6369,7 +6378,7 @@
         <v>945</v>
       </c>
       <c r="C89" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D89" t="s">
         <v>7</v>
@@ -6384,41 +6393,41 @@
         <v>157</v>
       </c>
       <c r="H89" t="s">
-        <v>160</v>
+        <v>946</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>946</v>
+        <v>163</v>
       </c>
       <c r="B90" t="s">
-        <v>947</v>
+        <v>649</v>
       </c>
       <c r="C90" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="D90" t="s">
         <v>7</v>
       </c>
       <c r="E90" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="F90" t="s">
         <v>9</v>
       </c>
       <c r="G90" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="H90" t="s">
-        <v>948</v>
+        <v>166</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>163</v>
+        <v>947</v>
       </c>
       <c r="B91" t="s">
-        <v>649</v>
+        <v>948</v>
       </c>
       <c r="C91" t="s">
         <v>1185</v>
@@ -6427,59 +6436,59 @@
         <v>7</v>
       </c>
       <c r="E91" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F91" t="s">
         <v>9</v>
       </c>
       <c r="G91" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H91" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>949</v>
+        <v>170</v>
       </c>
       <c r="B92" t="s">
-        <v>950</v>
+        <v>650</v>
       </c>
       <c r="C92" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="D92" t="s">
         <v>7</v>
       </c>
       <c r="E92" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="F92" t="s">
         <v>9</v>
       </c>
       <c r="G92" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B93" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C93" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D93" t="s">
         <v>7</v>
       </c>
       <c r="E93" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="F93" t="s">
         <v>9</v>
@@ -6493,39 +6502,39 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>172</v>
+        <v>949</v>
       </c>
       <c r="B94" t="s">
-        <v>651</v>
+        <v>950</v>
       </c>
       <c r="C94" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D94" t="s">
         <v>7</v>
       </c>
       <c r="E94" t="s">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="F94" t="s">
         <v>9</v>
       </c>
       <c r="G94" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="H94" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>951</v>
+        <v>175</v>
       </c>
       <c r="B95" t="s">
-        <v>952</v>
+        <v>652</v>
       </c>
       <c r="C95" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
@@ -6545,117 +6554,117 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B96" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C96" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D96" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E96" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="F96" t="s">
         <v>9</v>
       </c>
       <c r="G96" t="s">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="H96" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B97" t="s">
-        <v>653</v>
+        <v>606</v>
       </c>
       <c r="C97" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E97" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F97" t="s">
         <v>9</v>
       </c>
       <c r="G97" t="s">
-        <v>157</v>
+        <v>34</v>
       </c>
       <c r="H97" t="s">
-        <v>162</v>
+        <v>61</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B98" t="s">
-        <v>606</v>
+        <v>654</v>
       </c>
       <c r="C98" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D98" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E98" t="s">
-        <v>60</v>
+        <v>179</v>
       </c>
       <c r="F98" t="s">
         <v>9</v>
       </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B99" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C99" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D99" t="s">
         <v>9</v>
       </c>
       <c r="E99" t="s">
-        <v>179</v>
+        <v>102</v>
       </c>
       <c r="F99" t="s">
         <v>9</v>
       </c>
       <c r="G99" t="s">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="H99" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B100" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C100" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D100" t="s">
         <v>9</v>
@@ -6670,24 +6679,24 @@
         <v>182</v>
       </c>
       <c r="H100" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>184</v>
+        <v>951</v>
       </c>
       <c r="B101" t="s">
-        <v>656</v>
+        <v>952</v>
       </c>
       <c r="C101" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E101" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="F101" t="s">
         <v>9</v>
@@ -6696,7 +6705,7 @@
         <v>182</v>
       </c>
       <c r="H101" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
@@ -6707,13 +6716,13 @@
         <v>954</v>
       </c>
       <c r="C102" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
       </c>
       <c r="E102" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="F102" t="s">
         <v>9</v>
@@ -6722,18 +6731,18 @@
         <v>182</v>
       </c>
       <c r="H102" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>955</v>
+        <v>187</v>
       </c>
       <c r="B103" t="s">
-        <v>956</v>
+        <v>657</v>
       </c>
       <c r="C103" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
@@ -6748,18 +6757,18 @@
         <v>182</v>
       </c>
       <c r="H103" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>187</v>
+        <v>955</v>
       </c>
       <c r="B104" t="s">
-        <v>657</v>
+        <v>956</v>
       </c>
       <c r="C104" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D104" t="s">
         <v>7</v>
@@ -6774,7 +6783,7 @@
         <v>182</v>
       </c>
       <c r="H104" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
@@ -6785,7 +6794,7 @@
         <v>958</v>
       </c>
       <c r="C105" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D105" t="s">
         <v>7</v>
@@ -6800,7 +6809,7 @@
         <v>182</v>
       </c>
       <c r="H105" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
@@ -6811,7 +6820,7 @@
         <v>960</v>
       </c>
       <c r="C106" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D106" t="s">
         <v>7</v>
@@ -6837,7 +6846,7 @@
         <v>962</v>
       </c>
       <c r="C107" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D107" t="s">
         <v>7</v>
@@ -6852,7 +6861,7 @@
         <v>182</v>
       </c>
       <c r="H107" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
@@ -6863,111 +6872,111 @@
         <v>964</v>
       </c>
       <c r="C108" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="D108" t="s">
         <v>7</v>
       </c>
       <c r="E108" t="s">
-        <v>102</v>
+        <v>190</v>
       </c>
       <c r="F108" t="s">
         <v>9</v>
       </c>
       <c r="G108" t="s">
-        <v>182</v>
+        <v>120</v>
       </c>
       <c r="H108" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>965</v>
+        <v>192</v>
       </c>
       <c r="B109" t="s">
-        <v>966</v>
+        <v>658</v>
       </c>
       <c r="C109" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D109" t="s">
         <v>7</v>
       </c>
       <c r="E109" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F109" t="s">
         <v>9</v>
       </c>
       <c r="G109" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="H109" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>192</v>
+        <v>965</v>
       </c>
       <c r="B110" t="s">
-        <v>658</v>
+        <v>966</v>
       </c>
       <c r="C110" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D110" t="s">
         <v>7</v>
       </c>
       <c r="E110" t="s">
-        <v>193</v>
+        <v>13</v>
       </c>
       <c r="F110" t="s">
         <v>9</v>
       </c>
       <c r="G110" t="s">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="H110" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>967</v>
+        <v>196</v>
       </c>
       <c r="B111" t="s">
-        <v>968</v>
+        <v>659</v>
       </c>
       <c r="C111" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="D111" t="s">
         <v>7</v>
       </c>
       <c r="E111" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F111" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G111" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="H111" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B112" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C112" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D112" t="s">
         <v>7</v>
@@ -6976,7 +6985,7 @@
         <v>71</v>
       </c>
       <c r="F112" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G112" t="s">
         <v>148</v>
@@ -6987,65 +6996,65 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B113" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C113" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D113" t="s">
         <v>7</v>
       </c>
       <c r="E113" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="F113" t="s">
         <v>9</v>
       </c>
       <c r="G113" t="s">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="H113" t="s">
-        <v>197</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B114" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C114" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D114" t="s">
         <v>7</v>
       </c>
       <c r="E114" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="F114" t="s">
         <v>9</v>
       </c>
       <c r="G114" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>114</v>
+        <v>201</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B115" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C115" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D115" t="s">
         <v>7</v>
@@ -7060,18 +7069,18 @@
         <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>201</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B116" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C116" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D116" t="s">
         <v>7</v>
@@ -7091,19 +7100,19 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B117" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C117" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D117" t="s">
         <v>7</v>
       </c>
       <c r="E117" t="s">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="F117" t="s">
         <v>9</v>
@@ -7112,59 +7121,59 @@
         <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>31</v>
+        <v>205</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B118" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C118" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D118" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E118" t="s">
-        <v>173</v>
+        <v>53</v>
       </c>
       <c r="F118" t="s">
         <v>9</v>
       </c>
       <c r="G118" t="s">
-        <v>14</v>
+        <v>207</v>
       </c>
       <c r="H118" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>206</v>
+        <v>967</v>
       </c>
       <c r="B119" t="s">
-        <v>666</v>
+        <v>968</v>
       </c>
       <c r="C119" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E119" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="F119" t="s">
         <v>9</v>
       </c>
       <c r="G119" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="H119" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
@@ -7172,10 +7181,10 @@
         <v>969</v>
       </c>
       <c r="B120" t="s">
-        <v>970</v>
+        <v>667</v>
       </c>
       <c r="C120" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D120" t="s">
         <v>7</v>
@@ -7195,39 +7204,39 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>971</v>
+        <v>209</v>
       </c>
       <c r="B121" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C121" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D121" t="s">
         <v>7</v>
       </c>
       <c r="E121" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="F121" t="s">
         <v>9</v>
       </c>
       <c r="G121" t="s">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="H121" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>209</v>
+        <v>970</v>
       </c>
       <c r="B122" t="s">
-        <v>668</v>
+        <v>971</v>
       </c>
       <c r="C122" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D122" t="s">
         <v>7</v>
@@ -7242,24 +7251,24 @@
         <v>80</v>
       </c>
       <c r="H122" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>972</v>
+        <v>212</v>
       </c>
       <c r="B123" t="s">
-        <v>973</v>
+        <v>669</v>
       </c>
       <c r="C123" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D123" t="s">
         <v>7</v>
       </c>
       <c r="E123" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="F123" t="s">
         <v>9</v>
@@ -7268,44 +7277,44 @@
         <v>80</v>
       </c>
       <c r="H123" t="s">
-        <v>211</v>
+        <v>117</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B124" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C124" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D124" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E124" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="F124" t="s">
         <v>9</v>
       </c>
       <c r="G124" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="H124" t="s">
-        <v>117</v>
+        <v>197</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B125" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C125" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D125" t="s">
         <v>9</v>
@@ -7317,21 +7326,21 @@
         <v>9</v>
       </c>
       <c r="G125" t="s">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="H125" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B126" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C126" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D126" t="s">
         <v>9</v>
@@ -7346,50 +7355,50 @@
         <v>80</v>
       </c>
       <c r="H126" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>216</v>
+        <v>972</v>
       </c>
       <c r="B127" t="s">
-        <v>672</v>
+        <v>973</v>
       </c>
       <c r="C127" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E127" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="F127" t="s">
         <v>9</v>
       </c>
       <c r="G127" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="H127" t="s">
-        <v>211</v>
+        <v>974</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>974</v>
+        <v>218</v>
       </c>
       <c r="B128" t="s">
-        <v>975</v>
+        <v>673</v>
       </c>
       <c r="C128" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D128" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E128" t="s">
-        <v>217</v>
+        <v>53</v>
       </c>
       <c r="F128" t="s">
         <v>9</v>
@@ -7398,44 +7407,44 @@
         <v>54</v>
       </c>
       <c r="H128" t="s">
-        <v>976</v>
+        <v>219</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>218</v>
+        <v>975</v>
       </c>
       <c r="B129" t="s">
-        <v>673</v>
+        <v>976</v>
       </c>
       <c r="C129" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E129" t="s">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="F129" t="s">
         <v>9</v>
       </c>
       <c r="G129" t="s">
-        <v>54</v>
+        <v>221</v>
       </c>
       <c r="H129" t="s">
-        <v>219</v>
+        <v>977</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B130" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C130" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D130" t="s">
         <v>7</v>
@@ -7450,7 +7459,7 @@
         <v>221</v>
       </c>
       <c r="H130" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
@@ -7461,13 +7470,13 @@
         <v>981</v>
       </c>
       <c r="C131" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D131" t="s">
         <v>7</v>
       </c>
       <c r="E131" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F131" t="s">
         <v>9</v>
@@ -7476,24 +7485,24 @@
         <v>221</v>
       </c>
       <c r="H131" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>982</v>
+        <v>223</v>
       </c>
       <c r="B132" t="s">
-        <v>983</v>
+        <v>674</v>
       </c>
       <c r="C132" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D132" t="s">
         <v>7</v>
       </c>
       <c r="E132" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F132" t="s">
         <v>9</v>
@@ -7502,50 +7511,50 @@
         <v>221</v>
       </c>
       <c r="H132" t="s">
-        <v>979</v>
+        <v>224</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B133" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C133" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D133" t="s">
         <v>7</v>
       </c>
       <c r="E133" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="F133" t="s">
         <v>9</v>
       </c>
       <c r="G133" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="H133" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B134" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C134" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D134" t="s">
         <v>7</v>
       </c>
       <c r="E134" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F134" t="s">
         <v>9</v>
@@ -7559,39 +7568,39 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>229</v>
+        <v>982</v>
       </c>
       <c r="B135" t="s">
-        <v>676</v>
+        <v>983</v>
       </c>
       <c r="C135" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="D135" t="s">
         <v>7</v>
       </c>
       <c r="E135" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F135" t="s">
         <v>9</v>
       </c>
       <c r="G135" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="H135" t="s">
-        <v>228</v>
+        <v>984</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>984</v>
+        <v>233</v>
       </c>
       <c r="B136" t="s">
-        <v>985</v>
+        <v>677</v>
       </c>
       <c r="C136" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D136" t="s">
         <v>7</v>
@@ -7606,18 +7615,18 @@
         <v>232</v>
       </c>
       <c r="H136" t="s">
-        <v>986</v>
+        <v>234</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>233</v>
+        <v>985</v>
       </c>
       <c r="B137" t="s">
-        <v>677</v>
+        <v>986</v>
       </c>
       <c r="C137" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D137" t="s">
         <v>7</v>
@@ -7637,19 +7646,19 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>987</v>
+        <v>235</v>
       </c>
       <c r="B138" t="s">
-        <v>988</v>
+        <v>678</v>
       </c>
       <c r="C138" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D138" t="s">
         <v>7</v>
       </c>
       <c r="E138" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="F138" t="s">
         <v>9</v>
@@ -7663,28 +7672,28 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>235</v>
+        <v>987</v>
       </c>
       <c r="B139" t="s">
-        <v>678</v>
+        <v>988</v>
       </c>
       <c r="C139" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="D139" t="s">
         <v>7</v>
       </c>
       <c r="E139" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F139" t="s">
         <v>9</v>
       </c>
       <c r="G139" t="s">
-        <v>232</v>
+        <v>120</v>
       </c>
       <c r="H139" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
@@ -7695,7 +7704,7 @@
         <v>990</v>
       </c>
       <c r="C140" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D140" t="s">
         <v>7</v>
@@ -7715,39 +7724,39 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>991</v>
+        <v>236</v>
       </c>
       <c r="B141" t="s">
-        <v>992</v>
+        <v>679</v>
       </c>
       <c r="C141" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D141" t="s">
         <v>7</v>
       </c>
       <c r="E141" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="F141" t="s">
         <v>9</v>
       </c>
       <c r="G141" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="H141" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B142" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C142" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D142" t="s">
         <v>7</v>
@@ -7762,18 +7771,18 @@
         <v>54</v>
       </c>
       <c r="H142" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>237</v>
+        <v>991</v>
       </c>
       <c r="B143" t="s">
-        <v>680</v>
+        <v>992</v>
       </c>
       <c r="C143" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D143" t="s">
         <v>7</v>
@@ -7799,22 +7808,22 @@
         <v>994</v>
       </c>
       <c r="C144" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D144" t="s">
         <v>7</v>
       </c>
       <c r="E144" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="F144" t="s">
         <v>9</v>
       </c>
       <c r="G144" t="s">
-        <v>54</v>
+        <v>240</v>
       </c>
       <c r="H144" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
@@ -7825,22 +7834,22 @@
         <v>996</v>
       </c>
       <c r="C145" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D145" t="s">
         <v>7</v>
       </c>
       <c r="E145" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F145" t="s">
         <v>9</v>
       </c>
       <c r="G145" t="s">
-        <v>240</v>
+        <v>58</v>
       </c>
       <c r="H145" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
@@ -7851,13 +7860,13 @@
         <v>998</v>
       </c>
       <c r="C146" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D146" t="s">
         <v>7</v>
       </c>
       <c r="E146" t="s">
-        <v>231</v>
+        <v>57</v>
       </c>
       <c r="F146" t="s">
         <v>9</v>
@@ -7866,18 +7875,18 @@
         <v>58</v>
       </c>
       <c r="H146" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>999</v>
+        <v>244</v>
       </c>
       <c r="B147" t="s">
-        <v>1000</v>
+        <v>681</v>
       </c>
       <c r="C147" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D147" t="s">
         <v>7</v>
@@ -7892,18 +7901,18 @@
         <v>58</v>
       </c>
       <c r="H147" t="s">
-        <v>243</v>
+        <v>59</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B148" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C148" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D148" t="s">
         <v>7</v>
@@ -7918,18 +7927,18 @@
         <v>58</v>
       </c>
       <c r="H148" t="s">
-        <v>59</v>
+        <v>243</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>245</v>
+        <v>999</v>
       </c>
       <c r="B149" t="s">
-        <v>682</v>
+        <v>1000</v>
       </c>
       <c r="C149" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D149" t="s">
         <v>7</v>
@@ -7944,24 +7953,24 @@
         <v>58</v>
       </c>
       <c r="H149" t="s">
-        <v>243</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>1001</v>
+        <v>246</v>
       </c>
       <c r="B150" t="s">
-        <v>1002</v>
+        <v>683</v>
       </c>
       <c r="C150" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D150" t="s">
         <v>7</v>
       </c>
       <c r="E150" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="F150" t="s">
         <v>9</v>
@@ -7970,18 +7979,18 @@
         <v>58</v>
       </c>
       <c r="H150" t="s">
-        <v>1003</v>
+        <v>247</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B151" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C151" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D151" t="s">
         <v>7</v>
@@ -8001,65 +8010,65 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B152" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C152" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D152" t="s">
         <v>7</v>
       </c>
       <c r="E152" t="s">
-        <v>102</v>
+        <v>250</v>
       </c>
       <c r="F152" t="s">
         <v>9</v>
       </c>
       <c r="G152" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B153" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C153" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D153" t="s">
         <v>7</v>
       </c>
       <c r="E153" t="s">
-        <v>250</v>
+        <v>102</v>
       </c>
       <c r="F153" t="s">
         <v>9</v>
       </c>
       <c r="G153" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="H153" t="s">
-        <v>251</v>
+        <v>103</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>252</v>
+        <v>1002</v>
       </c>
       <c r="B154" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C154" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D154" t="s">
         <v>7</v>
@@ -8074,21 +8083,21 @@
         <v>58</v>
       </c>
       <c r="H154" t="s">
-        <v>103</v>
+        <v>253</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>1004</v>
+        <v>254</v>
       </c>
       <c r="B155" t="s">
-        <v>687</v>
+        <v>634</v>
       </c>
       <c r="C155" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D155" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E155" t="s">
         <v>102</v>
@@ -8097,27 +8106,27 @@
         <v>9</v>
       </c>
       <c r="G155" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="H155" t="s">
-        <v>253</v>
+        <v>117</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B156" t="s">
-        <v>634</v>
+        <v>688</v>
       </c>
       <c r="C156" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D156" t="s">
         <v>9</v>
       </c>
       <c r="E156" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="F156" t="s">
         <v>9</v>
@@ -8126,18 +8135,18 @@
         <v>80</v>
       </c>
       <c r="H156" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B157" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C157" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D157" t="s">
         <v>9</v>
@@ -8152,18 +8161,18 @@
         <v>80</v>
       </c>
       <c r="H157" t="s">
-        <v>116</v>
+        <v>257</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B158" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C158" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D158" t="s">
         <v>9</v>
@@ -8178,18 +8187,18 @@
         <v>80</v>
       </c>
       <c r="H158" t="s">
-        <v>257</v>
+        <v>174</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B159" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C159" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D159" t="s">
         <v>9</v>
@@ -8209,13 +8218,13 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B160" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C160" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D160" t="s">
         <v>9</v>
@@ -8230,18 +8239,18 @@
         <v>80</v>
       </c>
       <c r="H160" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B161" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C161" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D161" t="s">
         <v>9</v>
@@ -8256,18 +8265,18 @@
         <v>80</v>
       </c>
       <c r="H161" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B162" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C162" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D162" t="s">
         <v>9</v>
@@ -8282,18 +8291,18 @@
         <v>80</v>
       </c>
       <c r="H162" t="s">
-        <v>262</v>
+        <v>195</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B163" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C163" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D163" t="s">
         <v>9</v>
@@ -8308,18 +8317,18 @@
         <v>80</v>
       </c>
       <c r="H163" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B164" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C164" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D164" t="s">
         <v>9</v>
@@ -8334,18 +8343,18 @@
         <v>80</v>
       </c>
       <c r="H164" t="s">
-        <v>211</v>
+        <v>266</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B165" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C165" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D165" t="s">
         <v>9</v>
@@ -8360,70 +8369,70 @@
         <v>80</v>
       </c>
       <c r="H165" t="s">
-        <v>266</v>
+        <v>83</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B166" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C166" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E166" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="F166" t="s">
         <v>9</v>
       </c>
       <c r="G166" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="H166" t="s">
-        <v>83</v>
+        <v>269</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B167" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C167" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D167" t="s">
         <v>7</v>
       </c>
       <c r="E167" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="F167" t="s">
         <v>9</v>
       </c>
       <c r="G167" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="H167" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>270</v>
+        <v>1003</v>
       </c>
       <c r="B168" t="s">
-        <v>699</v>
+        <v>1004</v>
       </c>
       <c r="C168" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D168" t="s">
         <v>7</v>
@@ -8443,13 +8452,13 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>1005</v>
+        <v>272</v>
       </c>
       <c r="B169" t="s">
-        <v>1006</v>
+        <v>700</v>
       </c>
       <c r="C169" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D169" t="s">
         <v>7</v>
@@ -8464,33 +8473,33 @@
         <v>34</v>
       </c>
       <c r="H169" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>272</v>
+        <v>1005</v>
       </c>
       <c r="B170" t="s">
-        <v>700</v>
+        <v>1006</v>
       </c>
       <c r="C170" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="D170" t="s">
         <v>7</v>
       </c>
       <c r="E170" t="s">
-        <v>36</v>
+        <v>274</v>
       </c>
       <c r="F170" t="s">
         <v>9</v>
       </c>
       <c r="G170" t="s">
-        <v>34</v>
+        <v>275</v>
       </c>
       <c r="H170" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
@@ -8501,65 +8510,65 @@
         <v>1008</v>
       </c>
       <c r="C171" t="s">
-        <v>1185</v>
+        <v>1190</v>
       </c>
       <c r="D171" t="s">
         <v>7</v>
       </c>
       <c r="E171" t="s">
-        <v>274</v>
+        <v>13</v>
       </c>
       <c r="F171" t="s">
         <v>9</v>
       </c>
       <c r="G171" t="s">
-        <v>275</v>
+        <v>14</v>
       </c>
       <c r="H171" t="s">
-        <v>276</v>
+        <v>122</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>1009</v>
+        <v>277</v>
       </c>
       <c r="B172" t="s">
-        <v>1010</v>
+        <v>701</v>
       </c>
       <c r="C172" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
       <c r="D172" t="s">
         <v>7</v>
       </c>
       <c r="E172" t="s">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="F172" t="s">
         <v>9</v>
       </c>
       <c r="G172" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="H172" t="s">
-        <v>122</v>
+        <v>197</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B173" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C173" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D173" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E173" t="s">
-        <v>217</v>
+        <v>53</v>
       </c>
       <c r="F173" t="s">
         <v>9</v>
@@ -8568,18 +8577,18 @@
         <v>148</v>
       </c>
       <c r="H173" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B174" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C174" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D174" t="s">
         <v>9</v>
@@ -8594,73 +8603,73 @@
         <v>148</v>
       </c>
       <c r="H174" t="s">
-        <v>149</v>
+        <v>280</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B175" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C175" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E175" t="s">
-        <v>53</v>
+        <v>282</v>
       </c>
       <c r="F175" t="s">
         <v>9</v>
       </c>
       <c r="G175" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="H175" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>281</v>
+        <v>1009</v>
       </c>
       <c r="B176" t="s">
-        <v>704</v>
+        <v>1010</v>
       </c>
       <c r="C176" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D176" t="s">
         <v>7</v>
       </c>
       <c r="E176" t="s">
-        <v>282</v>
+        <v>102</v>
       </c>
       <c r="F176" t="s">
         <v>9</v>
       </c>
       <c r="G176" t="s">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="H176" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>1011</v>
+        <v>285</v>
       </c>
       <c r="B177" t="s">
-        <v>1012</v>
+        <v>705</v>
       </c>
       <c r="C177" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D177" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E177" t="s">
         <v>102</v>
@@ -8672,44 +8681,44 @@
         <v>157</v>
       </c>
       <c r="H177" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B178" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C178" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D178" t="s">
         <v>9</v>
       </c>
       <c r="E178" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="F178" t="s">
         <v>9</v>
       </c>
       <c r="G178" t="s">
-        <v>157</v>
+        <v>54</v>
       </c>
       <c r="H178" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B179" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C179" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D179" t="s">
         <v>9</v>
@@ -8729,19 +8738,19 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B180" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C180" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E180" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="F180" t="s">
         <v>9</v>
@@ -8750,18 +8759,18 @@
         <v>54</v>
       </c>
       <c r="H180" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>290</v>
+        <v>1011</v>
       </c>
       <c r="B181" t="s">
-        <v>708</v>
+        <v>1012</v>
       </c>
       <c r="C181" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D181" t="s">
         <v>7</v>
@@ -8776,7 +8785,7 @@
         <v>54</v>
       </c>
       <c r="H181" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
@@ -8787,59 +8796,59 @@
         <v>1014</v>
       </c>
       <c r="C182" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D182" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E182" t="s">
-        <v>217</v>
+        <v>293</v>
       </c>
       <c r="F182" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G182" t="s">
-        <v>54</v>
+        <v>294</v>
       </c>
       <c r="H182" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>1015</v>
+        <v>296</v>
       </c>
       <c r="B183" t="s">
-        <v>1016</v>
+        <v>709</v>
       </c>
       <c r="C183" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E183" t="s">
-        <v>293</v>
+        <v>13</v>
       </c>
       <c r="F183" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G183" t="s">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="H183" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B184" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C184" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D184" t="s">
         <v>7</v>
@@ -8854,18 +8863,18 @@
         <v>80</v>
       </c>
       <c r="H184" t="s">
-        <v>297</v>
+        <v>211</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>298</v>
+        <v>1015</v>
       </c>
       <c r="B185" t="s">
-        <v>710</v>
+        <v>1016</v>
       </c>
       <c r="C185" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D185" t="s">
         <v>7</v>
@@ -8888,10 +8897,10 @@
         <v>1017</v>
       </c>
       <c r="B186" t="s">
-        <v>1018</v>
+        <v>711</v>
       </c>
       <c r="C186" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D186" t="s">
         <v>7</v>
@@ -8911,71 +8920,71 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>1019</v>
+        <v>1210</v>
       </c>
       <c r="B187" t="s">
-        <v>711</v>
+        <v>1211</v>
       </c>
       <c r="C187" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D187" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E187" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="F187" t="s">
         <v>9</v>
       </c>
       <c r="G187" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="H187" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>1212</v>
+        <v>299</v>
       </c>
       <c r="B188" t="s">
-        <v>1213</v>
+        <v>712</v>
       </c>
       <c r="C188" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E188" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="F188" t="s">
         <v>9</v>
       </c>
       <c r="G188" t="s">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="H188" t="s">
-        <v>185</v>
+        <v>72</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>299</v>
+        <v>1018</v>
       </c>
       <c r="B189" t="s">
-        <v>712</v>
+        <v>1019</v>
       </c>
       <c r="C189" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D189" t="s">
         <v>7</v>
       </c>
       <c r="E189" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F189" t="s">
         <v>9</v>
@@ -8984,7 +8993,7 @@
         <v>14</v>
       </c>
       <c r="H189" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
@@ -8992,10 +9001,10 @@
         <v>1020</v>
       </c>
       <c r="B190" t="s">
-        <v>1021</v>
+        <v>613</v>
       </c>
       <c r="C190" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D190" t="s">
         <v>7</v>
@@ -9010,18 +9019,18 @@
         <v>14</v>
       </c>
       <c r="H190" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>1022</v>
+        <v>300</v>
       </c>
       <c r="B191" t="s">
-        <v>613</v>
+        <v>713</v>
       </c>
       <c r="C191" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D191" t="s">
         <v>7</v>
@@ -9033,47 +9042,47 @@
         <v>9</v>
       </c>
       <c r="G191" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="H191" t="s">
-        <v>69</v>
+        <v>301</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B192" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C192" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D192" t="s">
         <v>7</v>
       </c>
       <c r="E192" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="F192" t="s">
         <v>9</v>
       </c>
       <c r="G192" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="H192" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>302</v>
+        <v>1021</v>
       </c>
       <c r="B193" t="s">
-        <v>714</v>
+        <v>1022</v>
       </c>
       <c r="C193" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D193" t="s">
         <v>7</v>
@@ -9099,7 +9108,7 @@
         <v>1024</v>
       </c>
       <c r="C194" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D194" t="s">
         <v>7</v>
@@ -9114,18 +9123,18 @@
         <v>14</v>
       </c>
       <c r="H194" t="s">
-        <v>303</v>
+        <v>122</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>1025</v>
+        <v>304</v>
       </c>
       <c r="B195" t="s">
-        <v>1026</v>
+        <v>715</v>
       </c>
       <c r="C195" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D195" t="s">
         <v>7</v>
@@ -9145,19 +9154,19 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B196" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C196" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D196" t="s">
         <v>7</v>
       </c>
       <c r="E196" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="F196" t="s">
         <v>9</v>
@@ -9166,18 +9175,18 @@
         <v>14</v>
       </c>
       <c r="H196" t="s">
-        <v>122</v>
+        <v>303</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B197" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C197" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D197" t="s">
         <v>7</v>
@@ -9197,19 +9206,19 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B198" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C198" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D198" t="s">
         <v>7</v>
       </c>
       <c r="E198" t="s">
-        <v>79</v>
+        <v>308</v>
       </c>
       <c r="F198" t="s">
         <v>9</v>
@@ -9218,24 +9227,24 @@
         <v>14</v>
       </c>
       <c r="H198" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B199" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C199" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D199" t="s">
         <v>7</v>
       </c>
       <c r="E199" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F199" t="s">
         <v>9</v>
@@ -9249,65 +9258,65 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>310</v>
+        <v>1025</v>
       </c>
       <c r="B200" t="s">
-        <v>719</v>
+        <v>1026</v>
       </c>
       <c r="C200" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D200" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E200" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="F200" t="s">
         <v>9</v>
       </c>
       <c r="G200" t="s">
-        <v>14</v>
+        <v>294</v>
       </c>
       <c r="H200" t="s">
-        <v>309</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>1027</v>
+        <v>312</v>
       </c>
       <c r="B201" t="s">
-        <v>1028</v>
+        <v>720</v>
       </c>
       <c r="C201" t="s">
-        <v>1186</v>
+        <v>1190</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E201" t="s">
-        <v>293</v>
+        <v>79</v>
       </c>
       <c r="F201" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G201" t="s">
-        <v>294</v>
+        <v>14</v>
       </c>
       <c r="H201" t="s">
-        <v>1029</v>
+        <v>303</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B202" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C202" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D202" t="s">
         <v>7</v>
@@ -9322,44 +9331,44 @@
         <v>14</v>
       </c>
       <c r="H202" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>313</v>
+        <v>1028</v>
       </c>
       <c r="B203" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C203" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
       <c r="D203" t="s">
         <v>7</v>
       </c>
       <c r="E203" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="F203" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G203" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="H203" t="s">
-        <v>314</v>
+        <v>117</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B204" t="s">
         <v>1030</v>
       </c>
-      <c r="B204" t="s">
-        <v>722</v>
-      </c>
       <c r="C204" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D204" t="s">
         <v>7</v>
@@ -9379,71 +9388,71 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>1031</v>
+        <v>315</v>
       </c>
       <c r="B205" t="s">
-        <v>1032</v>
+        <v>723</v>
       </c>
       <c r="C205" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="D205" t="s">
         <v>7</v>
       </c>
       <c r="E205" t="s">
-        <v>102</v>
+        <v>282</v>
       </c>
       <c r="F205" t="s">
         <v>9</v>
       </c>
       <c r="G205" t="s">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="H205" t="s">
-        <v>117</v>
+        <v>317</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>315</v>
+        <v>1031</v>
       </c>
       <c r="B206" t="s">
-        <v>723</v>
+        <v>1032</v>
       </c>
       <c r="C206" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D206" t="s">
         <v>7</v>
       </c>
       <c r="E206" t="s">
-        <v>282</v>
+        <v>222</v>
       </c>
       <c r="F206" t="s">
         <v>9</v>
       </c>
       <c r="G206" t="s">
-        <v>316</v>
+        <v>221</v>
       </c>
       <c r="H206" t="s">
-        <v>317</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B207" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="C207" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D207" t="s">
         <v>7</v>
       </c>
       <c r="E207" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F207" t="s">
         <v>9</v>
@@ -9452,7 +9461,7 @@
         <v>221</v>
       </c>
       <c r="H207" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
@@ -9463,7 +9472,7 @@
         <v>1037</v>
       </c>
       <c r="C208" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D208" t="s">
         <v>7</v>
@@ -9478,70 +9487,70 @@
         <v>221</v>
       </c>
       <c r="H208" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>1038</v>
+        <v>318</v>
       </c>
       <c r="B209" t="s">
-        <v>1039</v>
+        <v>724</v>
       </c>
       <c r="C209" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D209" t="s">
         <v>7</v>
       </c>
       <c r="E209" t="s">
-        <v>220</v>
+        <v>136</v>
       </c>
       <c r="F209" t="s">
         <v>9</v>
       </c>
       <c r="G209" t="s">
-        <v>221</v>
+        <v>126</v>
       </c>
       <c r="H209" t="s">
-        <v>1035</v>
+        <v>319</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>318</v>
+        <v>1038</v>
       </c>
       <c r="B210" t="s">
-        <v>724</v>
+        <v>1039</v>
       </c>
       <c r="C210" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D210" t="s">
         <v>7</v>
       </c>
       <c r="E210" t="s">
-        <v>136</v>
+        <v>231</v>
       </c>
       <c r="F210" t="s">
         <v>9</v>
       </c>
       <c r="G210" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="H210" t="s">
-        <v>319</v>
+        <v>194</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>1040</v>
+        <v>1212</v>
       </c>
       <c r="B211" t="s">
-        <v>1041</v>
+        <v>1213</v>
       </c>
       <c r="C211" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D211" t="s">
         <v>7</v>
@@ -9561,13 +9570,13 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>1214</v>
+        <v>320</v>
       </c>
       <c r="B212" t="s">
-        <v>1215</v>
+        <v>725</v>
       </c>
       <c r="C212" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D212" t="s">
         <v>7</v>
@@ -9582,18 +9591,18 @@
         <v>165</v>
       </c>
       <c r="H212" t="s">
-        <v>194</v>
+        <v>321</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B213" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C213" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D213" t="s">
         <v>7</v>
@@ -9613,13 +9622,13 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>322</v>
+        <v>1040</v>
       </c>
       <c r="B214" t="s">
-        <v>726</v>
+        <v>1041</v>
       </c>
       <c r="C214" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D214" t="s">
         <v>7</v>
@@ -9634,7 +9643,7 @@
         <v>165</v>
       </c>
       <c r="H214" t="s">
-        <v>321</v>
+        <v>194</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
@@ -9645,7 +9654,7 @@
         <v>1043</v>
       </c>
       <c r="C215" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D215" t="s">
         <v>7</v>
@@ -9665,117 +9674,117 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>1044</v>
+        <v>323</v>
       </c>
       <c r="B216" t="s">
-        <v>1045</v>
+        <v>727</v>
       </c>
       <c r="C216" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="D216" t="s">
         <v>7</v>
       </c>
       <c r="E216" t="s">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="F216" t="s">
         <v>9</v>
       </c>
       <c r="G216" t="s">
-        <v>165</v>
+        <v>275</v>
       </c>
       <c r="H216" t="s">
-        <v>194</v>
+        <v>276</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B217" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C217" t="s">
-        <v>1185</v>
+        <v>1190</v>
       </c>
       <c r="D217" t="s">
         <v>7</v>
       </c>
       <c r="E217" t="s">
-        <v>274</v>
+        <v>91</v>
       </c>
       <c r="F217" t="s">
         <v>9</v>
       </c>
       <c r="G217" t="s">
-        <v>275</v>
+        <v>37</v>
       </c>
       <c r="H217" t="s">
-        <v>276</v>
+        <v>325</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B218" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C218" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
       <c r="D218" t="s">
         <v>7</v>
       </c>
       <c r="E218" t="s">
-        <v>91</v>
+        <v>327</v>
       </c>
       <c r="F218" t="s">
         <v>9</v>
       </c>
       <c r="G218" t="s">
-        <v>37</v>
+        <v>168</v>
       </c>
       <c r="H218" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B219" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C219" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D219" t="s">
         <v>7</v>
       </c>
       <c r="E219" t="s">
-        <v>327</v>
+        <v>282</v>
       </c>
       <c r="F219" t="s">
         <v>9</v>
       </c>
       <c r="G219" t="s">
-        <v>168</v>
+        <v>316</v>
       </c>
       <c r="H219" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B220" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C220" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="D220" t="s">
         <v>7</v>
@@ -9787,21 +9796,21 @@
         <v>9</v>
       </c>
       <c r="G220" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="H220" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B221" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C221" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D221" t="s">
         <v>7</v>
@@ -9816,18 +9825,18 @@
         <v>332</v>
       </c>
       <c r="H221" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B222" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C222" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D222" t="s">
         <v>7</v>
@@ -9847,10 +9856,10 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B223" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C223" t="s">
         <v>1185</v>
@@ -9865,21 +9874,21 @@
         <v>9</v>
       </c>
       <c r="G223" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="H223" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B224" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C224" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D224" t="s">
         <v>7</v>
@@ -9899,13 +9908,13 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>339</v>
+        <v>1044</v>
       </c>
       <c r="B225" t="s">
-        <v>735</v>
+        <v>1045</v>
       </c>
       <c r="C225" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D225" t="s">
         <v>7</v>
@@ -9925,13 +9934,13 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>1046</v>
+        <v>340</v>
       </c>
       <c r="B226" t="s">
-        <v>1047</v>
+        <v>736</v>
       </c>
       <c r="C226" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D226" t="s">
         <v>7</v>
@@ -9946,18 +9955,18 @@
         <v>316</v>
       </c>
       <c r="H226" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B227" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C227" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D227" t="s">
         <v>7</v>
@@ -9977,88 +9986,88 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B228" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C228" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="D228" t="s">
         <v>7</v>
       </c>
       <c r="E228" t="s">
-        <v>282</v>
+        <v>8</v>
       </c>
       <c r="F228" t="s">
         <v>9</v>
       </c>
       <c r="G228" t="s">
-        <v>316</v>
+        <v>10</v>
       </c>
       <c r="H228" t="s">
-        <v>330</v>
+        <v>63</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B229" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C229" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D229" t="s">
         <v>7</v>
       </c>
       <c r="E229" t="s">
-        <v>8</v>
+        <v>282</v>
       </c>
       <c r="F229" t="s">
         <v>9</v>
       </c>
       <c r="G229" t="s">
-        <v>10</v>
+        <v>332</v>
       </c>
       <c r="H229" t="s">
-        <v>63</v>
+        <v>344</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B230" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C230" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D230" t="s">
         <v>7</v>
       </c>
       <c r="E230" t="s">
-        <v>282</v>
+        <v>36</v>
       </c>
       <c r="F230" t="s">
         <v>9</v>
       </c>
       <c r="G230" t="s">
-        <v>332</v>
+        <v>34</v>
       </c>
       <c r="H230" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B231" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C231" t="s">
         <v>1185</v>
@@ -10067,27 +10076,27 @@
         <v>7</v>
       </c>
       <c r="E231" t="s">
-        <v>36</v>
+        <v>348</v>
       </c>
       <c r="F231" t="s">
         <v>9</v>
       </c>
       <c r="G231" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H231" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B232" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C232" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D232" t="s">
         <v>7</v>
@@ -10102,85 +10111,85 @@
         <v>48</v>
       </c>
       <c r="H232" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B233" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C233" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="D233" t="s">
         <v>7</v>
       </c>
       <c r="E233" t="s">
-        <v>348</v>
+        <v>36</v>
       </c>
       <c r="F233" t="s">
         <v>9</v>
       </c>
       <c r="G233" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H233" t="s">
-        <v>351</v>
+        <v>38</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>352</v>
+        <v>1214</v>
       </c>
       <c r="B234" t="s">
-        <v>743</v>
+        <v>1215</v>
       </c>
       <c r="C234" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D234" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E234" t="s">
-        <v>36</v>
+        <v>1193</v>
       </c>
       <c r="F234" t="s">
         <v>9</v>
       </c>
       <c r="G234" t="s">
-        <v>37</v>
+        <v>1194</v>
       </c>
       <c r="H234" t="s">
-        <v>38</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>1216</v>
+        <v>1046</v>
       </c>
       <c r="B235" t="s">
-        <v>1217</v>
+        <v>1047</v>
       </c>
       <c r="C235" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="D235" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E235" t="s">
-        <v>1195</v>
+        <v>190</v>
       </c>
       <c r="F235" t="s">
         <v>9</v>
       </c>
       <c r="G235" t="s">
-        <v>1196</v>
+        <v>120</v>
       </c>
       <c r="H235" t="s">
-        <v>1218</v>
+        <v>191</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
@@ -10197,105 +10206,105 @@
         <v>7</v>
       </c>
       <c r="E236" t="s">
-        <v>190</v>
+        <v>353</v>
       </c>
       <c r="F236" t="s">
         <v>9</v>
       </c>
       <c r="G236" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="H236" t="s">
-        <v>191</v>
+        <v>349</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>1050</v>
+        <v>354</v>
       </c>
       <c r="B237" t="s">
-        <v>1051</v>
+        <v>744</v>
       </c>
       <c r="C237" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D237" t="s">
         <v>7</v>
       </c>
       <c r="E237" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F237" t="s">
         <v>9</v>
       </c>
       <c r="G237" t="s">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="H237" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>354</v>
+        <v>1050</v>
       </c>
       <c r="B238" t="s">
-        <v>744</v>
+        <v>1051</v>
       </c>
       <c r="C238" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D238" t="s">
         <v>7</v>
       </c>
       <c r="E238" t="s">
-        <v>355</v>
+        <v>40</v>
       </c>
       <c r="F238" t="s">
         <v>9</v>
       </c>
       <c r="G238" t="s">
-        <v>165</v>
+        <v>41</v>
       </c>
       <c r="H238" t="s">
-        <v>356</v>
+        <v>42</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>1052</v>
+        <v>357</v>
       </c>
       <c r="B239" t="s">
-        <v>1053</v>
+        <v>745</v>
       </c>
       <c r="C239" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="D239" t="s">
         <v>7</v>
       </c>
       <c r="E239" t="s">
-        <v>40</v>
+        <v>282</v>
       </c>
       <c r="F239" t="s">
         <v>9</v>
       </c>
       <c r="G239" t="s">
-        <v>41</v>
+        <v>332</v>
       </c>
       <c r="H239" t="s">
-        <v>42</v>
+        <v>358</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B240" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C240" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D240" t="s">
         <v>7</v>
@@ -10310,18 +10319,18 @@
         <v>332</v>
       </c>
       <c r="H240" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B241" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C241" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D241" t="s">
         <v>7</v>
@@ -10333,18 +10342,18 @@
         <v>9</v>
       </c>
       <c r="G241" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="H241" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>361</v>
+        <v>1052</v>
       </c>
       <c r="B242" t="s">
-        <v>747</v>
+        <v>1053</v>
       </c>
       <c r="C242" t="s">
         <v>1185</v>
@@ -10353,59 +10362,59 @@
         <v>7</v>
       </c>
       <c r="E242" t="s">
-        <v>282</v>
+        <v>363</v>
       </c>
       <c r="F242" t="s">
         <v>9</v>
       </c>
       <c r="G242" t="s">
-        <v>316</v>
+        <v>168</v>
       </c>
       <c r="H242" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>1054</v>
+        <v>365</v>
       </c>
       <c r="B243" t="s">
-        <v>1055</v>
+        <v>748</v>
       </c>
       <c r="C243" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="D243" t="s">
         <v>7</v>
       </c>
       <c r="E243" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="F243" t="s">
         <v>9</v>
       </c>
       <c r="G243" t="s">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="H243" t="s">
-        <v>364</v>
+        <v>116</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B244" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C244" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D244" t="s">
         <v>7</v>
       </c>
       <c r="E244" t="s">
-        <v>366</v>
+        <v>13</v>
       </c>
       <c r="F244" t="s">
         <v>9</v>
@@ -10414,18 +10423,18 @@
         <v>80</v>
       </c>
       <c r="H244" t="s">
-        <v>116</v>
+        <v>368</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B245" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C245" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D245" t="s">
         <v>7</v>
@@ -10440,174 +10449,174 @@
         <v>80</v>
       </c>
       <c r="H245" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B246" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C246" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D246" t="s">
         <v>7</v>
       </c>
       <c r="E246" t="s">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="F246" t="s">
         <v>9</v>
       </c>
       <c r="G246" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="H246" t="s">
-        <v>370</v>
+        <v>197</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>371</v>
+        <v>1054</v>
       </c>
       <c r="B247" t="s">
-        <v>751</v>
+        <v>1055</v>
       </c>
       <c r="C247" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
       <c r="D247" t="s">
         <v>7</v>
       </c>
       <c r="E247" t="s">
-        <v>217</v>
+        <v>348</v>
       </c>
       <c r="F247" t="s">
         <v>9</v>
       </c>
       <c r="G247" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
       <c r="H247" t="s">
-        <v>197</v>
+        <v>65</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>1056</v>
+        <v>1217</v>
       </c>
       <c r="B248" t="s">
-        <v>1057</v>
+        <v>1218</v>
       </c>
       <c r="C248" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="D248" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E248" t="s">
-        <v>348</v>
+        <v>1193</v>
       </c>
       <c r="F248" t="s">
         <v>9</v>
       </c>
       <c r="G248" t="s">
-        <v>48</v>
+        <v>1194</v>
       </c>
       <c r="H248" t="s">
-        <v>65</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>1219</v>
+        <v>372</v>
       </c>
       <c r="B249" t="s">
-        <v>1220</v>
+        <v>752</v>
       </c>
       <c r="C249" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D249" t="s">
         <v>9</v>
       </c>
       <c r="E249" t="s">
-        <v>1195</v>
+        <v>53</v>
       </c>
       <c r="F249" t="s">
         <v>9</v>
       </c>
       <c r="G249" t="s">
-        <v>1196</v>
+        <v>54</v>
       </c>
       <c r="H249" t="s">
-        <v>1221</v>
+        <v>373</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>372</v>
+        <v>1056</v>
       </c>
       <c r="B250" t="s">
-        <v>752</v>
+        <v>1057</v>
       </c>
       <c r="C250" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D250" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E250" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="F250" t="s">
         <v>9</v>
       </c>
       <c r="G250" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="H250" t="s">
-        <v>373</v>
+        <v>117</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>1058</v>
+        <v>374</v>
       </c>
       <c r="B251" t="s">
-        <v>1059</v>
+        <v>753</v>
       </c>
       <c r="C251" t="s">
-        <v>1186</v>
+        <v>1190</v>
       </c>
       <c r="D251" t="s">
         <v>7</v>
       </c>
       <c r="E251" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="F251" t="s">
         <v>9</v>
       </c>
       <c r="G251" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="H251" t="s">
-        <v>117</v>
+        <v>314</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B252" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C252" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D252" t="s">
         <v>7</v>
@@ -10627,54 +10636,54 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B253" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C253" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
       <c r="D253" t="s">
         <v>7</v>
       </c>
       <c r="E253" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="F253" t="s">
         <v>9</v>
       </c>
       <c r="G253" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="H253" t="s">
-        <v>314</v>
+        <v>377</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>376</v>
+        <v>1058</v>
       </c>
       <c r="B254" t="s">
-        <v>755</v>
+        <v>1059</v>
       </c>
       <c r="C254" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D254" t="s">
         <v>7</v>
       </c>
       <c r="E254" t="s">
-        <v>57</v>
+        <v>366</v>
       </c>
       <c r="F254" t="s">
         <v>9</v>
       </c>
       <c r="G254" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="H254" t="s">
-        <v>377</v>
+        <v>114</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
@@ -10685,22 +10694,22 @@
         <v>1061</v>
       </c>
       <c r="C255" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D255" t="s">
         <v>7</v>
       </c>
       <c r="E255" t="s">
-        <v>366</v>
+        <v>239</v>
       </c>
       <c r="F255" t="s">
         <v>9</v>
       </c>
       <c r="G255" t="s">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="H255" t="s">
-        <v>114</v>
+        <v>241</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
@@ -10711,111 +10720,111 @@
         <v>1063</v>
       </c>
       <c r="C256" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D256" t="s">
         <v>7</v>
       </c>
       <c r="E256" t="s">
-        <v>239</v>
+        <v>20</v>
       </c>
       <c r="F256" t="s">
         <v>9</v>
       </c>
       <c r="G256" t="s">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="H256" t="s">
-        <v>241</v>
+        <v>368</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>1064</v>
+        <v>378</v>
       </c>
       <c r="B257" t="s">
-        <v>1065</v>
+        <v>756</v>
       </c>
       <c r="C257" t="s">
-        <v>1186</v>
+        <v>1190</v>
       </c>
       <c r="D257" t="s">
         <v>7</v>
       </c>
       <c r="E257" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="F257" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G257" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="H257" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B258" t="s">
-        <v>756</v>
+        <v>711</v>
       </c>
       <c r="C258" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
       <c r="D258" t="s">
         <v>7</v>
       </c>
       <c r="E258" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="F258" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G258" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="H258" t="s">
-        <v>377</v>
+        <v>211</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B259" t="s">
-        <v>711</v>
+        <v>757</v>
       </c>
       <c r="C259" t="s">
-        <v>1186</v>
+        <v>1190</v>
       </c>
       <c r="D259" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E259" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F259" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G259" t="s">
         <v>80</v>
       </c>
       <c r="H259" t="s">
-        <v>211</v>
+        <v>266</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B260" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C260" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D260" t="s">
         <v>9</v>
@@ -10824,24 +10833,24 @@
         <v>53</v>
       </c>
       <c r="F260" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G260" t="s">
         <v>80</v>
       </c>
       <c r="H260" t="s">
-        <v>266</v>
+        <v>81</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B261" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C261" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D261" t="s">
         <v>9</v>
@@ -10856,18 +10865,18 @@
         <v>80</v>
       </c>
       <c r="H261" t="s">
-        <v>81</v>
+        <v>215</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B262" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C262" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D262" t="s">
         <v>9</v>
@@ -10882,18 +10891,18 @@
         <v>80</v>
       </c>
       <c r="H262" t="s">
-        <v>215</v>
+        <v>83</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B263" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C263" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D263" t="s">
         <v>9</v>
@@ -10908,44 +10917,44 @@
         <v>80</v>
       </c>
       <c r="H263" t="s">
-        <v>83</v>
+        <v>210</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B264" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C264" t="s">
-        <v>1192</v>
+        <v>1183</v>
       </c>
       <c r="D264" t="s">
         <v>9</v>
       </c>
       <c r="E264" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="F264" t="s">
         <v>9</v>
       </c>
       <c r="G264" t="s">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="H264" t="s">
-        <v>210</v>
+        <v>386</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B265" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C265" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D265" t="s">
         <v>9</v>
@@ -10957,21 +10966,21 @@
         <v>9</v>
       </c>
       <c r="G265" t="s">
-        <v>240</v>
+        <v>157</v>
       </c>
       <c r="H265" t="s">
-        <v>386</v>
+        <v>284</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B266" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C266" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D266" t="s">
         <v>9</v>
@@ -10980,7 +10989,7 @@
         <v>102</v>
       </c>
       <c r="F266" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G266" t="s">
         <v>157</v>
@@ -10991,13 +11000,13 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B267" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C267" t="s">
-        <v>1185</v>
+        <v>1190</v>
       </c>
       <c r="D267" t="s">
         <v>9</v>
@@ -11006,128 +11015,128 @@
         <v>102</v>
       </c>
       <c r="F267" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G267" t="s">
-        <v>157</v>
+        <v>58</v>
       </c>
       <c r="H267" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>389</v>
+        <v>1220</v>
       </c>
       <c r="B268" t="s">
-        <v>765</v>
+        <v>1221</v>
       </c>
       <c r="C268" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D268" t="s">
         <v>9</v>
       </c>
       <c r="E268" t="s">
-        <v>102</v>
+        <v>293</v>
       </c>
       <c r="F268" t="s">
         <v>9</v>
       </c>
       <c r="G268" t="s">
-        <v>58</v>
+        <v>294</v>
       </c>
       <c r="H268" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>1222</v>
+        <v>390</v>
       </c>
       <c r="B269" t="s">
-        <v>1223</v>
+        <v>766</v>
       </c>
       <c r="C269" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D269" t="s">
         <v>9</v>
       </c>
       <c r="E269" t="s">
-        <v>293</v>
+        <v>68</v>
       </c>
       <c r="F269" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G269" t="s">
-        <v>294</v>
+        <v>14</v>
       </c>
       <c r="H269" t="s">
-        <v>295</v>
+        <v>69</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B270" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C270" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D270" t="s">
         <v>9</v>
       </c>
       <c r="E270" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F270" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G270" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="H270" t="s">
-        <v>69</v>
+        <v>257</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B271" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C271" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
       <c r="D271" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E271" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="F271" t="s">
         <v>9</v>
       </c>
       <c r="G271" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="H271" t="s">
-        <v>257</v>
+        <v>319</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B272" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C272" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D272" t="s">
         <v>7</v>
@@ -11142,70 +11151,70 @@
         <v>126</v>
       </c>
       <c r="H272" t="s">
-        <v>319</v>
+        <v>133</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B273" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C273" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D273" t="s">
         <v>7</v>
       </c>
       <c r="E273" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F273" t="s">
         <v>9</v>
       </c>
       <c r="G273" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="H273" t="s">
-        <v>133</v>
+        <v>395</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B274" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C274" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D274" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E274" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="F274" t="s">
         <v>9</v>
       </c>
       <c r="G274" t="s">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="H274" t="s">
-        <v>395</v>
+        <v>189</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B275" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C275" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D275" t="s">
         <v>9</v>
@@ -11217,21 +11226,21 @@
         <v>9</v>
       </c>
       <c r="G275" t="s">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="H275" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>397</v>
+        <v>1222</v>
       </c>
       <c r="B276" t="s">
-        <v>772</v>
+        <v>1223</v>
       </c>
       <c r="C276" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D276" t="s">
         <v>9</v>
@@ -11251,16 +11260,16 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>1224</v>
+        <v>398</v>
       </c>
       <c r="B277" t="s">
-        <v>1225</v>
+        <v>773</v>
       </c>
       <c r="C277" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D277" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E277" t="s">
         <v>102</v>
@@ -11269,21 +11278,21 @@
         <v>9</v>
       </c>
       <c r="G277" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="H277" t="s">
-        <v>117</v>
+        <v>188</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B278" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C278" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D278" t="s">
         <v>7</v>
@@ -11295,36 +11304,36 @@
         <v>9</v>
       </c>
       <c r="G278" t="s">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="H278" t="s">
-        <v>188</v>
+        <v>117</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>399</v>
+        <v>1064</v>
       </c>
       <c r="B279" t="s">
-        <v>774</v>
+        <v>1065</v>
       </c>
       <c r="C279" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D279" t="s">
         <v>7</v>
       </c>
       <c r="E279" t="s">
-        <v>102</v>
+        <v>400</v>
       </c>
       <c r="F279" t="s">
         <v>9</v>
       </c>
       <c r="G279" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="H279" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.3">
@@ -11335,22 +11344,22 @@
         <v>1067</v>
       </c>
       <c r="C280" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="D280" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E280" t="s">
-        <v>400</v>
+        <v>53</v>
       </c>
       <c r="F280" t="s">
         <v>9</v>
       </c>
       <c r="G280" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H280" t="s">
-        <v>42</v>
+        <v>401</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.3">
@@ -11361,7 +11370,7 @@
         <v>1069</v>
       </c>
       <c r="C281" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D281" t="s">
         <v>9</v>
@@ -11376,18 +11385,18 @@
         <v>54</v>
       </c>
       <c r="H281" t="s">
-        <v>401</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>1070</v>
+        <v>402</v>
       </c>
       <c r="B282" t="s">
-        <v>1071</v>
+        <v>775</v>
       </c>
       <c r="C282" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D282" t="s">
         <v>9</v>
@@ -11399,47 +11408,47 @@
         <v>9</v>
       </c>
       <c r="G282" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="H282" t="s">
-        <v>1072</v>
+        <v>266</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B283" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C283" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D283" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E283" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="F283" t="s">
         <v>9</v>
       </c>
       <c r="G283" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="H283" t="s">
-        <v>266</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>403</v>
+        <v>1071</v>
       </c>
       <c r="B284" t="s">
-        <v>776</v>
+        <v>1072</v>
       </c>
       <c r="C284" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D284" t="s">
         <v>7</v>
@@ -11454,96 +11463,96 @@
         <v>126</v>
       </c>
       <c r="H284" t="s">
-        <v>404</v>
+        <v>319</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>1073</v>
+        <v>405</v>
       </c>
       <c r="B285" t="s">
-        <v>1074</v>
+        <v>777</v>
       </c>
       <c r="C285" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="D285" t="s">
         <v>7</v>
       </c>
       <c r="E285" t="s">
-        <v>71</v>
+        <v>282</v>
       </c>
       <c r="F285" t="s">
         <v>9</v>
       </c>
       <c r="G285" t="s">
-        <v>126</v>
+        <v>332</v>
       </c>
       <c r="H285" t="s">
-        <v>319</v>
+        <v>406</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B286" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C286" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D286" t="s">
         <v>7</v>
       </c>
       <c r="E286" t="s">
-        <v>282</v>
+        <v>408</v>
       </c>
       <c r="F286" t="s">
         <v>9</v>
       </c>
       <c r="G286" t="s">
-        <v>332</v>
+        <v>221</v>
       </c>
       <c r="H286" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>407</v>
+        <v>1240</v>
       </c>
       <c r="B287" t="s">
-        <v>778</v>
+        <v>1241</v>
       </c>
       <c r="C287" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D287" t="s">
         <v>7</v>
       </c>
       <c r="E287" t="s">
-        <v>408</v>
+        <v>71</v>
       </c>
       <c r="F287" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G287" t="s">
-        <v>221</v>
+        <v>1242</v>
       </c>
       <c r="H287" t="s">
-        <v>409</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B288" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C288" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D288" t="s">
         <v>7</v>
@@ -11569,7 +11578,7 @@
         <v>779</v>
       </c>
       <c r="C289" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D289" t="s">
         <v>9</v>
@@ -11595,7 +11604,7 @@
         <v>780</v>
       </c>
       <c r="C290" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D290" t="s">
         <v>9</v>
@@ -11621,7 +11630,7 @@
         <v>781</v>
       </c>
       <c r="C291" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D291" t="s">
         <v>9</v>
@@ -11647,7 +11656,7 @@
         <v>782</v>
       </c>
       <c r="C292" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D292" t="s">
         <v>9</v>
@@ -11673,7 +11682,7 @@
         <v>783</v>
       </c>
       <c r="C293" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D293" t="s">
         <v>9</v>
@@ -11699,7 +11708,7 @@
         <v>784</v>
       </c>
       <c r="C294" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D294" t="s">
         <v>9</v>
@@ -11725,7 +11734,7 @@
         <v>785</v>
       </c>
       <c r="C295" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D295" t="s">
         <v>9</v>
@@ -11751,7 +11760,7 @@
         <v>786</v>
       </c>
       <c r="C296" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D296" t="s">
         <v>7</v>
@@ -11777,7 +11786,7 @@
         <v>787</v>
       </c>
       <c r="C297" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D297" t="s">
         <v>7</v>
@@ -11803,7 +11812,7 @@
         <v>788</v>
       </c>
       <c r="C298" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D298" t="s">
         <v>7</v>
@@ -11823,13 +11832,13 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B299" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C299" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D299" t="s">
         <v>7</v>
@@ -11849,13 +11858,13 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B300" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C300" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D300" t="s">
         <v>7</v>
@@ -11870,7 +11879,7 @@
         <v>221</v>
       </c>
       <c r="H300" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.3">
@@ -11881,7 +11890,7 @@
         <v>789</v>
       </c>
       <c r="C301" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D301" t="s">
         <v>7</v>
@@ -11901,13 +11910,13 @@
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B302" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C302" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D302" t="s">
         <v>7</v>
@@ -11927,13 +11936,13 @@
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B303" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C303" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D303" t="s">
         <v>7</v>
@@ -11959,7 +11968,7 @@
         <v>790</v>
       </c>
       <c r="C304" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D304" t="s">
         <v>9</v>
@@ -11985,7 +11994,7 @@
         <v>791</v>
       </c>
       <c r="C305" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D305" t="s">
         <v>9</v>
@@ -12005,13 +12014,13 @@
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B306" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C306" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D306" t="s">
         <v>7</v>
@@ -12037,7 +12046,7 @@
         <v>792</v>
       </c>
       <c r="C307" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D307" t="s">
         <v>9</v>
@@ -12057,13 +12066,13 @@
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B308" t="s">
         <v>793</v>
       </c>
       <c r="C308" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D308" t="s">
         <v>9</v>
@@ -12089,7 +12098,7 @@
         <v>794</v>
       </c>
       <c r="C309" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D309" t="s">
         <v>9</v>
@@ -12115,7 +12124,7 @@
         <v>795</v>
       </c>
       <c r="C310" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D310" t="s">
         <v>9</v>
@@ -12141,7 +12150,7 @@
         <v>768</v>
       </c>
       <c r="C311" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D311" t="s">
         <v>9</v>
@@ -12167,7 +12176,7 @@
         <v>796</v>
       </c>
       <c r="C312" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D312" t="s">
         <v>9</v>
@@ -12193,7 +12202,7 @@
         <v>609</v>
       </c>
       <c r="C313" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D313" t="s">
         <v>9</v>
@@ -12219,7 +12228,7 @@
         <v>797</v>
       </c>
       <c r="C314" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D314" t="s">
         <v>7</v>
@@ -12239,19 +12248,19 @@
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D315" t="s">
+        <v>7</v>
+      </c>
+      <c r="E315" t="s">
         <v>1226</v>
-      </c>
-      <c r="B315" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C315" t="s">
-        <v>1186</v>
-      </c>
-      <c r="D315" t="s">
-        <v>7</v>
-      </c>
-      <c r="E315" t="s">
-        <v>1228</v>
       </c>
       <c r="F315" t="s">
         <v>9</v>
@@ -12271,7 +12280,7 @@
         <v>798</v>
       </c>
       <c r="C316" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D316" t="s">
         <v>9</v>
@@ -12291,13 +12300,13 @@
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B317" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="C317" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D317" t="s">
         <v>7</v>
@@ -12317,13 +12326,13 @@
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B318" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C318" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D318" t="s">
         <v>9</v>
@@ -12343,13 +12352,13 @@
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B319" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C319" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D319" t="s">
         <v>9</v>
@@ -12364,18 +12373,18 @@
         <v>294</v>
       </c>
       <c r="H319" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B320" t="s">
         <v>801</v>
       </c>
       <c r="C320" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D320" t="s">
         <v>9</v>
@@ -12395,13 +12404,13 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B321" t="s">
         <v>802</v>
       </c>
       <c r="C321" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D321" t="s">
         <v>9</v>
@@ -12421,13 +12430,13 @@
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B322" t="s">
         <v>803</v>
       </c>
       <c r="C322" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D322" t="s">
         <v>9</v>
@@ -12447,13 +12456,13 @@
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B323" t="s">
         <v>716</v>
       </c>
       <c r="C323" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D323" t="s">
         <v>9</v>
@@ -12479,7 +12488,7 @@
         <v>799</v>
       </c>
       <c r="C324" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D324" t="s">
         <v>7</v>
@@ -12505,7 +12514,7 @@
         <v>800</v>
       </c>
       <c r="C325" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D325" t="s">
         <v>7</v>
@@ -12531,7 +12540,7 @@
         <v>801</v>
       </c>
       <c r="C326" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D326" t="s">
         <v>7</v>
@@ -12557,7 +12566,7 @@
         <v>802</v>
       </c>
       <c r="C327" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D327" t="s">
         <v>7</v>
@@ -12583,7 +12592,7 @@
         <v>803</v>
       </c>
       <c r="C328" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D328" t="s">
         <v>7</v>
@@ -12609,7 +12618,7 @@
         <v>804</v>
       </c>
       <c r="C329" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D329" t="s">
         <v>7</v>
@@ -12635,7 +12644,7 @@
         <v>805</v>
       </c>
       <c r="C330" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D330" t="s">
         <v>7</v>
@@ -12661,7 +12670,7 @@
         <v>806</v>
       </c>
       <c r="C331" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D331" t="s">
         <v>7</v>
@@ -12687,7 +12696,7 @@
         <v>807</v>
       </c>
       <c r="C332" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D332" t="s">
         <v>7</v>
@@ -12713,7 +12722,7 @@
         <v>808</v>
       </c>
       <c r="C333" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D333" t="s">
         <v>7</v>
@@ -12739,7 +12748,7 @@
         <v>809</v>
       </c>
       <c r="C334" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D334" t="s">
         <v>7</v>
@@ -12765,7 +12774,7 @@
         <v>810</v>
       </c>
       <c r="C335" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D335" t="s">
         <v>7</v>
@@ -12791,7 +12800,7 @@
         <v>811</v>
       </c>
       <c r="C336" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D336" t="s">
         <v>7</v>
@@ -12817,7 +12826,7 @@
         <v>812</v>
       </c>
       <c r="C337" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D337" t="s">
         <v>7</v>
@@ -12837,13 +12846,13 @@
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B338" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="C338" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D338" t="s">
         <v>7</v>
@@ -12863,13 +12872,13 @@
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B339" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="C339" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D339" t="s">
         <v>7</v>
@@ -12895,7 +12904,7 @@
         <v>813</v>
       </c>
       <c r="C340" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D340" t="s">
         <v>7</v>
@@ -12921,7 +12930,7 @@
         <v>792</v>
       </c>
       <c r="C341" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D341" t="s">
         <v>7</v>
@@ -12947,7 +12956,7 @@
         <v>793</v>
       </c>
       <c r="C342" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D342" t="s">
         <v>7</v>
@@ -12967,13 +12976,13 @@
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B343" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="C343" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D343" t="s">
         <v>7</v>
@@ -12993,13 +13002,13 @@
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B344" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="C344" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D344" t="s">
         <v>7</v>
@@ -13025,7 +13034,7 @@
         <v>814</v>
       </c>
       <c r="C345" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D345" t="s">
         <v>7</v>
@@ -13051,7 +13060,7 @@
         <v>815</v>
       </c>
       <c r="C346" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D346" t="s">
         <v>7</v>
@@ -13071,13 +13080,13 @@
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="B347" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="C347" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D347" t="s">
         <v>7</v>
@@ -13103,7 +13112,7 @@
         <v>816</v>
       </c>
       <c r="C348" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D348" t="s">
         <v>7</v>
@@ -13129,7 +13138,7 @@
         <v>817</v>
       </c>
       <c r="C349" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D349" t="s">
         <v>7</v>
@@ -13155,7 +13164,7 @@
         <v>818</v>
       </c>
       <c r="C350" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D350" t="s">
         <v>7</v>
@@ -13181,7 +13190,7 @@
         <v>819</v>
       </c>
       <c r="C351" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D351" t="s">
         <v>7</v>
@@ -13207,7 +13216,7 @@
         <v>820</v>
       </c>
       <c r="C352" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D352" t="s">
         <v>7</v>
@@ -13233,7 +13242,7 @@
         <v>821</v>
       </c>
       <c r="C353" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D353" t="s">
         <v>7</v>
@@ -13253,13 +13262,13 @@
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="B354" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="C354" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D354" t="s">
         <v>7</v>
@@ -13274,7 +13283,7 @@
         <v>80</v>
       </c>
       <c r="H354" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.3">
@@ -13285,7 +13294,7 @@
         <v>822</v>
       </c>
       <c r="C355" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D355" t="s">
         <v>7</v>
@@ -13311,7 +13320,7 @@
         <v>823</v>
       </c>
       <c r="C356" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D356" t="s">
         <v>7</v>
@@ -13337,7 +13346,7 @@
         <v>824</v>
       </c>
       <c r="C357" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D357" t="s">
         <v>7</v>
@@ -13357,13 +13366,13 @@
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B358" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="C358" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D358" t="s">
         <v>7</v>
@@ -13383,13 +13392,13 @@
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B359" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C359" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D359" t="s">
         <v>7</v>
@@ -13415,7 +13424,7 @@
         <v>825</v>
       </c>
       <c r="C360" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D360" t="s">
         <v>7</v>
@@ -13441,7 +13450,7 @@
         <v>826</v>
       </c>
       <c r="C361" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D361" t="s">
         <v>7</v>
@@ -13461,13 +13470,13 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B362" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C362" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D362" t="s">
         <v>7</v>
@@ -13487,13 +13496,13 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B363" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C363" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D363" t="s">
         <v>7</v>
@@ -13513,13 +13522,13 @@
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B364" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C364" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D364" t="s">
         <v>7</v>
@@ -13539,13 +13548,13 @@
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="B365" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C365" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D365" t="s">
         <v>7</v>
@@ -13571,7 +13580,7 @@
         <v>827</v>
       </c>
       <c r="C366" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D366" t="s">
         <v>7</v>
@@ -13597,7 +13606,7 @@
         <v>828</v>
       </c>
       <c r="C367" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D367" t="s">
         <v>7</v>
@@ -13623,7 +13632,7 @@
         <v>829</v>
       </c>
       <c r="C368" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D368" t="s">
         <v>7</v>
@@ -13649,7 +13658,7 @@
         <v>830</v>
       </c>
       <c r="C369" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D369" t="s">
         <v>7</v>
@@ -13675,7 +13684,7 @@
         <v>831</v>
       </c>
       <c r="C370" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D370" t="s">
         <v>7</v>
@@ -13701,7 +13710,7 @@
         <v>832</v>
       </c>
       <c r="C371" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D371" t="s">
         <v>7</v>
@@ -13727,7 +13736,7 @@
         <v>833</v>
       </c>
       <c r="C372" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D372" t="s">
         <v>7</v>
@@ -13753,7 +13762,7 @@
         <v>834</v>
       </c>
       <c r="C373" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D373" t="s">
         <v>7</v>
@@ -13779,7 +13788,7 @@
         <v>835</v>
       </c>
       <c r="C374" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D374" t="s">
         <v>7</v>
@@ -13799,13 +13808,13 @@
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B375" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="C375" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D375" t="s">
         <v>7</v>
@@ -13831,7 +13840,7 @@
         <v>836</v>
       </c>
       <c r="C376" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D376" t="s">
         <v>7</v>
@@ -13857,7 +13866,7 @@
         <v>837</v>
       </c>
       <c r="C377" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D377" t="s">
         <v>7</v>
@@ -13877,13 +13886,13 @@
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="B378" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="C378" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D378" t="s">
         <v>7</v>
@@ -13903,13 +13912,13 @@
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="B379" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="C379" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D379" t="s">
         <v>7</v>
@@ -13935,7 +13944,7 @@
         <v>838</v>
       </c>
       <c r="C380" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D380" t="s">
         <v>7</v>
@@ -13955,13 +13964,13 @@
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="B381" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="C381" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D381" t="s">
         <v>7</v>
@@ -13981,13 +13990,13 @@
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B382" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="C382" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D382" t="s">
         <v>7</v>
@@ -14013,7 +14022,7 @@
         <v>839</v>
       </c>
       <c r="C383" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D383" t="s">
         <v>7</v>
@@ -14033,13 +14042,13 @@
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B384" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="C384" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D384" t="s">
         <v>7</v>
@@ -14059,13 +14068,13 @@
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B385" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="C385" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D385" t="s">
         <v>7</v>
@@ -14085,13 +14094,13 @@
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="B386" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="C386" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D386" t="s">
         <v>7</v>
@@ -14117,7 +14126,7 @@
         <v>840</v>
       </c>
       <c r="C387" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D387" t="s">
         <v>7</v>
@@ -14143,7 +14152,7 @@
         <v>841</v>
       </c>
       <c r="C388" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D388" t="s">
         <v>7</v>
@@ -14163,13 +14172,13 @@
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="B389" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="C389" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D389" t="s">
         <v>7</v>
@@ -14195,7 +14204,7 @@
         <v>842</v>
       </c>
       <c r="C390" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D390" t="s">
         <v>7</v>
@@ -14215,13 +14224,13 @@
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="B391" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="C391" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D391" t="s">
         <v>7</v>
@@ -14241,13 +14250,13 @@
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="B392" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="C392" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D392" t="s">
         <v>7</v>
@@ -14262,7 +14271,7 @@
         <v>44</v>
       </c>
       <c r="H392" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.3">
@@ -14273,7 +14282,7 @@
         <v>843</v>
       </c>
       <c r="C393" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D393" t="s">
         <v>7</v>
@@ -14293,13 +14302,13 @@
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B394" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C394" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D394" t="s">
         <v>7</v>
@@ -14325,7 +14334,7 @@
         <v>844</v>
       </c>
       <c r="C395" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D395" t="s">
         <v>7</v>
@@ -14351,7 +14360,7 @@
         <v>845</v>
       </c>
       <c r="C396" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D396" t="s">
         <v>7</v>
@@ -14371,13 +14380,13 @@
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B397" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="C397" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D397" t="s">
         <v>7</v>
@@ -14403,7 +14412,7 @@
         <v>846</v>
       </c>
       <c r="C398" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D398" t="s">
         <v>7</v>
@@ -14429,7 +14438,7 @@
         <v>847</v>
       </c>
       <c r="C399" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D399" t="s">
         <v>7</v>
@@ -14449,13 +14458,13 @@
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B400" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C400" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D400" t="s">
         <v>7</v>
@@ -14475,13 +14484,13 @@
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="B401" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="C401" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D401" t="s">
         <v>7</v>
@@ -14501,13 +14510,13 @@
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B402" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C402" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D402" t="s">
         <v>7</v>
@@ -14527,13 +14536,13 @@
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B403" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C403" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D403" t="s">
         <v>7</v>
@@ -14559,7 +14568,7 @@
         <v>848</v>
       </c>
       <c r="C404" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D404" t="s">
         <v>7</v>
@@ -14585,7 +14594,7 @@
         <v>849</v>
       </c>
       <c r="C405" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D405" t="s">
         <v>7</v>
@@ -14611,7 +14620,7 @@
         <v>850</v>
       </c>
       <c r="C406" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D406" t="s">
         <v>7</v>
@@ -14637,7 +14646,7 @@
         <v>851</v>
       </c>
       <c r="C407" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D407" t="s">
         <v>7</v>
@@ -14657,13 +14666,13 @@
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B408" t="s">
         <v>852</v>
       </c>
       <c r="C408" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D408" t="s">
         <v>7</v>
@@ -14689,7 +14698,7 @@
         <v>853</v>
       </c>
       <c r="C409" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D409" t="s">
         <v>7</v>
@@ -14715,7 +14724,7 @@
         <v>854</v>
       </c>
       <c r="C410" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D410" t="s">
         <v>7</v>
@@ -14735,13 +14744,13 @@
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="B411" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="C411" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D411" t="s">
         <v>7</v>
@@ -14761,13 +14770,13 @@
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="B412" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="C412" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D412" t="s">
         <v>7</v>
@@ -14787,13 +14796,13 @@
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="B413" t="s">
         <v>855</v>
       </c>
       <c r="C413" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D413" t="s">
         <v>7</v>
@@ -14813,13 +14822,13 @@
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B414" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C414" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D414" t="s">
         <v>7</v>
@@ -14839,13 +14848,13 @@
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="B415" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C415" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D415" t="s">
         <v>7</v>
@@ -14865,13 +14874,13 @@
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B416" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="C416" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D416" t="s">
         <v>7</v>
@@ -14897,7 +14906,7 @@
         <v>856</v>
       </c>
       <c r="C417" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D417" t="s">
         <v>7</v>
@@ -14923,7 +14932,7 @@
         <v>857</v>
       </c>
       <c r="C418" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D418" t="s">
         <v>7</v>
@@ -14949,7 +14958,7 @@
         <v>858</v>
       </c>
       <c r="C419" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D419" t="s">
         <v>7</v>
@@ -14975,7 +14984,7 @@
         <v>859</v>
       </c>
       <c r="C420" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D420" t="s">
         <v>7</v>
@@ -15001,7 +15010,7 @@
         <v>860</v>
       </c>
       <c r="C421" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D421" t="s">
         <v>7</v>
@@ -15021,13 +15030,13 @@
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B422" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="C422" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D422" t="s">
         <v>7</v>
@@ -15047,13 +15056,13 @@
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B423" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="C423" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D423" t="s">
         <v>7</v>
@@ -15079,7 +15088,7 @@
         <v>861</v>
       </c>
       <c r="C424" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D424" t="s">
         <v>7</v>
@@ -15105,7 +15114,7 @@
         <v>862</v>
       </c>
       <c r="C425" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D425" t="s">
         <v>7</v>
@@ -15131,7 +15140,7 @@
         <v>863</v>
       </c>
       <c r="C426" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D426" t="s">
         <v>7</v>
@@ -15151,13 +15160,13 @@
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B427" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="C427" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D427" t="s">
         <v>7</v>
@@ -15177,13 +15186,13 @@
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="B428" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="C428" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D428" t="s">
         <v>7</v>
@@ -15203,13 +15212,13 @@
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B429" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="C429" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D429" t="s">
         <v>7</v>
@@ -15235,7 +15244,7 @@
         <v>864</v>
       </c>
       <c r="C430" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D430" t="s">
         <v>7</v>
@@ -15261,7 +15270,7 @@
         <v>865</v>
       </c>
       <c r="C431" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D431" t="s">
         <v>7</v>
@@ -15281,13 +15290,13 @@
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="B432" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="C432" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D432" t="s">
         <v>7</v>
@@ -15307,13 +15316,13 @@
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="B433" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="C433" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D433" t="s">
         <v>7</v>
@@ -15333,13 +15342,13 @@
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B434" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="C434" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D434" t="s">
         <v>7</v>
@@ -15365,7 +15374,7 @@
         <v>866</v>
       </c>
       <c r="C435" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D435" t="s">
         <v>7</v>
@@ -15391,7 +15400,7 @@
         <v>867</v>
       </c>
       <c r="C436" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D436" t="s">
         <v>7</v>
@@ -15411,13 +15420,13 @@
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B437" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="C437" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D437" t="s">
         <v>7</v>
@@ -15432,7 +15441,7 @@
         <v>54</v>
       </c>
       <c r="H437" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.3">
@@ -15443,7 +15452,7 @@
         <v>868</v>
       </c>
       <c r="C438" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D438" t="s">
         <v>7</v>
@@ -15463,13 +15472,13 @@
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="B439" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="C439" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D439" t="s">
         <v>7</v>
@@ -15495,7 +15504,7 @@
         <v>869</v>
       </c>
       <c r="C440" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D440" t="s">
         <v>7</v>
@@ -15515,13 +15524,13 @@
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B441" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="C441" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D441" t="s">
         <v>7</v>
@@ -15541,13 +15550,13 @@
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="B442" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="C442" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D442" t="s">
         <v>7</v>
@@ -15573,7 +15582,7 @@
         <v>870</v>
       </c>
       <c r="C443" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D443" t="s">
         <v>7</v>
@@ -15599,7 +15608,7 @@
         <v>871</v>
       </c>
       <c r="C444" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D444" t="s">
         <v>7</v>
@@ -15625,7 +15634,7 @@
         <v>872</v>
       </c>
       <c r="C445" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D445" t="s">
         <v>7</v>
@@ -15651,7 +15660,7 @@
         <v>873</v>
       </c>
       <c r="C446" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D446" t="s">
         <v>7</v>
@@ -15677,7 +15686,7 @@
         <v>874</v>
       </c>
       <c r="C447" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D447" t="s">
         <v>7</v>
@@ -15703,7 +15712,7 @@
         <v>875</v>
       </c>
       <c r="C448" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D448" t="s">
         <v>7</v>
@@ -15729,7 +15738,7 @@
         <v>876</v>
       </c>
       <c r="C449" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D449" t="s">
         <v>7</v>
@@ -15755,7 +15764,7 @@
         <v>877</v>
       </c>
       <c r="C450" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D450" t="s">
         <v>7</v>
@@ -15781,7 +15790,7 @@
         <v>878</v>
       </c>
       <c r="C451" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D451" t="s">
         <v>7</v>
@@ -15807,7 +15816,7 @@
         <v>879</v>
       </c>
       <c r="C452" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D452" t="s">
         <v>7</v>
@@ -15833,7 +15842,7 @@
         <v>880</v>
       </c>
       <c r="C453" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D453" t="s">
         <v>7</v>
@@ -15859,7 +15868,7 @@
         <v>881</v>
       </c>
       <c r="C454" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D454" t="s">
         <v>7</v>
@@ -15882,10 +15891,10 @@
         <v>580</v>
       </c>
       <c r="B455" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C455" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D455" t="s">
         <v>7</v>
@@ -15905,13 +15914,13 @@
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="B456" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C456" t="s">
         <v>1183</v>
-      </c>
-      <c r="C456" t="s">
-        <v>1185</v>
       </c>
       <c r="D456" t="s">
         <v>7</v>
@@ -15937,7 +15946,7 @@
         <v>882</v>
       </c>
       <c r="C457" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D457" t="s">
         <v>7</v>
@@ -15963,7 +15972,7 @@
         <v>883</v>
       </c>
       <c r="C458" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D458" t="s">
         <v>7</v>
@@ -15989,7 +15998,7 @@
         <v>731</v>
       </c>
       <c r="C459" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D459" t="s">
         <v>7</v>
@@ -16015,7 +16024,7 @@
         <v>884</v>
       </c>
       <c r="C460" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D460" t="s">
         <v>7</v>
@@ -16041,7 +16050,7 @@
         <v>885</v>
       </c>
       <c r="C461" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D461" t="s">
         <v>7</v>
@@ -16067,7 +16076,7 @@
         <v>886</v>
       </c>
       <c r="C462" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D462" t="s">
         <v>7</v>
@@ -16093,7 +16102,7 @@
         <v>887</v>
       </c>
       <c r="C463" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D463" t="s">
         <v>7</v>

--- a/DS_Mystery/Asia stock management/data/Загрузка справочник ШМТ.xlsx
+++ b/DS_Mystery/Asia stock management/data/Загрузка справочник ШМТ.xlsx
@@ -4077,7 +4077,7 @@
   <dimension ref="A1:H463"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H463"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/DS_Mystery/Asia stock management/data/Загрузка справочник ШМТ.xlsx
+++ b/DS_Mystery/Asia stock management/data/Загрузка справочник ШМТ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="1193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="1199">
   <si>
     <t>Артикул</t>
   </si>
@@ -376,7 +376,7 @@
     <t>105654</t>
   </si>
   <si>
-    <t>Чековая лента 80мм х 50м, d12 мм, бел., термобум.</t>
+    <t>Чековая лента 80мм х 50м, d12 мм, бел., термобум. (ООО НБК Трейд)</t>
   </si>
   <si>
     <t>НБК ТРЕЙД ООО</t>
@@ -388,7 +388,7 @@
     <t>105676</t>
   </si>
   <si>
-    <t>Чековая лента 80мм х 38м, d12 мм, бел., термобум. (ООО Алита)</t>
+    <t>Чековая лента 80мм х 38м, d12 мм, бел., термобум., 8 рул/упак (ООО Пэйпер скай)</t>
   </si>
   <si>
     <t>110475</t>
@@ -3073,15 +3073,21 @@
     <t>Бутылка ПЭТ 500 мл, квадр., прозр., горло d 38 мм, крышка в компл., 200 шт/кор (ИП PET Service)</t>
   </si>
   <si>
+    <t>112172</t>
+  </si>
+  <si>
+    <t>Бутылка ПЭТ 1000 мл, квадр., прозр., горло d 38 мм, крышка в компл., 100 шт/кор (ИП PET Service)</t>
+  </si>
+  <si>
+    <t>Бутылки ПЭТ 1.0-1.5 л широкое горло прозрачные</t>
+  </si>
+  <si>
     <t>112173</t>
   </si>
   <si>
     <t>Бутылка ПЭТ 1000 мл, прозр., горло d 38 мм, крышка в компл., 100 шт/кор (ИП PET Service)</t>
   </si>
   <si>
-    <t>Бутылки ПЭТ 1.0-1.5 л широкое горло прозрачные</t>
-  </si>
-  <si>
     <t>112214</t>
   </si>
   <si>
@@ -3115,6 +3121,12 @@
     <t>Трубочки для коктейлей 210 мм, d8 мм, черн., пласт. прямые в инд. упаковке (ООО Экстралайн)</t>
   </si>
   <si>
+    <t>112306</t>
+  </si>
+  <si>
+    <t>Пакет вакуум. 200х300 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
+  </si>
+  <si>
     <t>112413</t>
   </si>
   <si>
@@ -3158,6 +3170,12 @@
   </si>
   <si>
     <t>Бумага для выпечки силикон. в рулоне 380мм х 50м "Nordic EBG", бел.</t>
+  </si>
+  <si>
+    <t>112707</t>
+  </si>
+  <si>
+    <t>112713</t>
   </si>
   <si>
     <t>112725</t>
@@ -3724,7 +3742,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H441"/>
+  <dimension ref="H445"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -4520,7 +4538,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" ht="22" customHeight="true">
+    <row r="31" ht="33" customHeight="true">
       <c r="A31" s="3" t="s">
         <v>120</v>
       </c>
@@ -13134,65 +13152,65 @@
         <v>1020</v>
       </c>
       <c r="C362" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D362" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E362" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F362" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G362" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="H362" s="3" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="363" ht="33" customHeight="true">
+      <c r="A363" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C363" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D362" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E362" s="3" t="s">
+      <c r="D363" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E363" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F362" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G362" s="3" t="s">
+      <c r="F363" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G363" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="H362" s="3" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="363" ht="22" customHeight="true">
-      <c r="A363" s="3" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B363" s="3" t="s">
+      <c r="H363" s="3" t="s">
         <v>1023</v>
-      </c>
-      <c r="C363" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D363" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E363" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F363" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G363" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H363" s="3" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="364" ht="22" customHeight="true">
       <c r="A364" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B364" s="3" t="s">
         <v>1025</v>
       </c>
-      <c r="B364" s="3" t="s">
-        <v>1026</v>
-      </c>
       <c r="C364" s="3" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="D364" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E364" s="3" t="s">
-        <v>496</v>
+        <v>26</v>
       </c>
       <c r="F364" s="3" t="s">
         <v>13</v>
@@ -13201,15 +13219,15 @@
         <v>131</v>
       </c>
       <c r="H364" s="3" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="365" ht="22" customHeight="true">
+      <c r="A365" s="3" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="365" ht="33" customHeight="true">
-      <c r="A365" s="3" t="s">
+      <c r="B365" s="3" t="s">
         <v>1028</v>
-      </c>
-      <c r="B365" s="3" t="s">
-        <v>1029</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>18</v>
@@ -13227,7 +13245,7 @@
         <v>131</v>
       </c>
       <c r="H365" s="3" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="366" ht="33" customHeight="true">
@@ -13238,25 +13256,25 @@
         <v>1031</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="D366" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E366" s="3" t="s">
-        <v>807</v>
+        <v>496</v>
       </c>
       <c r="F366" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G366" s="3" t="s">
-        <v>808</v>
+        <v>131</v>
       </c>
       <c r="H366" s="3" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="367" ht="22" customHeight="true">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="367" ht="33" customHeight="true">
       <c r="A367" s="3" t="s">
         <v>1032</v>
       </c>
@@ -13270,19 +13288,19 @@
         <v>11</v>
       </c>
       <c r="E367" s="3" t="s">
-        <v>244</v>
+        <v>999</v>
       </c>
       <c r="F367" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G367" s="3" t="s">
-        <v>803</v>
+        <v>14</v>
       </c>
       <c r="H367" s="3" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="368" ht="22" customHeight="true">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="368" ht="33" customHeight="true">
       <c r="A368" s="3" t="s">
         <v>1034</v>
       </c>
@@ -13290,22 +13308,22 @@
         <v>1035</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="D368" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E368" s="3" t="s">
-        <v>249</v>
+        <v>807</v>
       </c>
       <c r="F368" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G368" s="3" t="s">
-        <v>238</v>
+        <v>808</v>
       </c>
       <c r="H368" s="3" t="s">
-        <v>239</v>
+        <v>817</v>
       </c>
     </row>
     <row r="369" ht="22" customHeight="true">
@@ -13316,25 +13334,25 @@
         <v>1037</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D369" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E369" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F369" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G369" s="3" t="s">
-        <v>238</v>
+        <v>803</v>
       </c>
       <c r="H369" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="370" ht="33" customHeight="true">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="370" ht="22" customHeight="true">
       <c r="A370" s="3" t="s">
         <v>1038</v>
       </c>
@@ -13342,25 +13360,25 @@
         <v>1039</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="D370" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E370" s="3" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="F370" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G370" s="3" t="s">
-        <v>472</v>
+        <v>238</v>
       </c>
       <c r="H370" s="3" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="371" ht="33" customHeight="true">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="371" ht="22" customHeight="true">
       <c r="A371" s="3" t="s">
         <v>1040</v>
       </c>
@@ -13368,184 +13386,184 @@
         <v>1041</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="D371" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E371" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F371" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G371" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H371" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="372" ht="33" customHeight="true">
+      <c r="A372" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D372" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E372" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="F371" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G371" s="3" t="s">
+      <c r="F372" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G372" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="H371" s="3" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="372" ht="22" customHeight="true">
-      <c r="A372" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B372" s="3" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C372" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D372" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E372" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="F372" s="3" t="e"/>
-      <c r="G372" s="3" t="s">
-        <v>238</v>
-      </c>
       <c r="H372" s="3" t="s">
-        <v>239</v>
+        <v>977</v>
       </c>
     </row>
     <row r="373" ht="33" customHeight="true">
       <c r="A373" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B373" s="3" t="s">
         <v>1045</v>
       </c>
-      <c r="B373" s="3" t="s">
-        <v>884</v>
-      </c>
       <c r="C373" s="3" t="s">
         <v>140</v>
       </c>
       <c r="D373" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E373" s="3" t="s">
-        <v>81</v>
+        <v>219</v>
       </c>
       <c r="F373" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G373" s="3" t="s">
-        <v>131</v>
+        <v>472</v>
       </c>
       <c r="H373" s="3" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="374" ht="33" customHeight="true">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="374" ht="22" customHeight="true">
       <c r="A374" s="3" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>656</v>
+        <v>1048</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="D374" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E374" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F374" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="F374" s="3" t="e"/>
       <c r="G374" s="3" t="s">
-        <v>136</v>
+        <v>238</v>
       </c>
       <c r="H374" s="3" t="s">
-        <v>657</v>
+        <v>239</v>
       </c>
     </row>
     <row r="375" ht="33" customHeight="true">
       <c r="A375" s="3" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>659</v>
+        <v>582</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>140</v>
       </c>
       <c r="D375" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E375" s="3" t="s">
-        <v>26</v>
+        <v>344</v>
       </c>
       <c r="F375" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G375" s="3" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="H375" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="376" ht="33" customHeight="true">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="376" ht="22" customHeight="true">
       <c r="A376" s="3" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>1049</v>
+        <v>886</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>140</v>
       </c>
       <c r="D376" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E376" s="3" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="F376" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G376" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H376" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="377" ht="22" customHeight="true">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="377" ht="33" customHeight="true">
       <c r="A377" s="3" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>1051</v>
+        <v>884</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>140</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E377" s="3" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="F377" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G377" s="3" t="s">
-        <v>181</v>
+        <v>131</v>
       </c>
       <c r="H377" s="3" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="378" ht="22" customHeight="true">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="378" ht="33" customHeight="true">
       <c r="A378" s="3" t="s">
         <v>1052</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>960</v>
+        <v>656</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>140</v>
@@ -13560,18 +13578,18 @@
         <v>13</v>
       </c>
       <c r="G378" s="3" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="H378" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="379" ht="22" customHeight="true">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="379" ht="33" customHeight="true">
       <c r="A379" s="3" t="s">
         <v>1053</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>1054</v>
+        <v>659</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>140</v>
@@ -13586,18 +13604,18 @@
         <v>13</v>
       </c>
       <c r="G379" s="3" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="H379" s="3" t="s">
-        <v>445</v>
+        <v>137</v>
       </c>
     </row>
     <row r="380" ht="33" customHeight="true">
       <c r="A380" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B380" s="3" t="s">
         <v>1055</v>
-      </c>
-      <c r="B380" s="3" t="s">
-        <v>275</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>140</v>
@@ -13612,13 +13630,13 @@
         <v>13</v>
       </c>
       <c r="G380" s="3" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="H380" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="381" ht="33" customHeight="true">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="381" ht="22" customHeight="true">
       <c r="A381" s="3" t="s">
         <v>1056</v>
       </c>
@@ -13632,16 +13650,16 @@
         <v>13</v>
       </c>
       <c r="E381" s="3" t="s">
-        <v>1009</v>
+        <v>26</v>
       </c>
       <c r="F381" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G381" s="3" t="s">
-        <v>452</v>
+        <v>181</v>
       </c>
       <c r="H381" s="3" t="s">
-        <v>453</v>
+        <v>401</v>
       </c>
     </row>
     <row r="382" ht="22" customHeight="true">
@@ -13649,83 +13667,85 @@
         <v>1058</v>
       </c>
       <c r="B382" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="C382" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D382" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E382" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F382" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G382" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H382" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="383" ht="22" customHeight="true">
+      <c r="A383" s="3" t="s">
         <v>1059</v>
       </c>
-      <c r="C382" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D382" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E382" s="3" t="s">
+      <c r="B383" s="3" t="s">
         <v>1060</v>
       </c>
-      <c r="F382" s="3" t="e"/>
-      <c r="G382" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H382" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="383" ht="33" customHeight="true">
-      <c r="A383" s="3" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B383" s="3" t="s">
-        <v>1062</v>
-      </c>
       <c r="C383" s="3" t="s">
         <v>140</v>
       </c>
       <c r="D383" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E383" s="3" t="s">
-        <v>1063</v>
+        <v>26</v>
       </c>
       <c r="F383" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G383" s="3" t="s">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="H383" s="3" t="s">
-        <v>326</v>
+        <v>445</v>
       </c>
     </row>
     <row r="384" ht="33" customHeight="true">
       <c r="A384" s="3" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>1065</v>
+        <v>275</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>140</v>
       </c>
       <c r="D384" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E384" s="3" t="s">
-        <v>1066</v>
+        <v>26</v>
       </c>
       <c r="F384" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G384" s="3" t="s">
-        <v>808</v>
+        <v>43</v>
       </c>
       <c r="H384" s="3" t="s">
-        <v>822</v>
+        <v>276</v>
       </c>
     </row>
     <row r="385" ht="33" customHeight="true">
       <c r="A385" s="3" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>140</v>
@@ -13734,55 +13754,57 @@
         <v>13</v>
       </c>
       <c r="E385" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="F385" s="3" t="e"/>
+        <v>1009</v>
+      </c>
+      <c r="F385" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="G385" s="3" t="s">
-        <v>695</v>
+        <v>452</v>
       </c>
       <c r="H385" s="3" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="386" ht="33" customHeight="true">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="386" ht="22" customHeight="true">
       <c r="A386" s="3" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>140</v>
       </c>
       <c r="D386" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E386" s="3" t="s">
-        <v>689</v>
+        <v>1066</v>
       </c>
       <c r="F386" s="3" t="e"/>
       <c r="G386" s="3" t="s">
-        <v>695</v>
+        <v>38</v>
       </c>
       <c r="H386" s="3" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="387" ht="22" customHeight="true">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="387" ht="33" customHeight="true">
       <c r="A387" s="3" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>379</v>
+        <v>1068</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>140</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E387" s="3" t="s">
-        <v>292</v>
+        <v>1069</v>
       </c>
       <c r="F387" s="3" t="s">
         <v>13</v>
@@ -13791,41 +13813,41 @@
         <v>38</v>
       </c>
       <c r="H387" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="388" ht="22" customHeight="true">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="388" ht="33" customHeight="true">
       <c r="A388" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B388" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C388" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D388" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E388" s="3" t="s">
         <v>1072</v>
       </c>
-      <c r="B388" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="C388" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D388" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E388" s="3" t="s">
-        <v>292</v>
-      </c>
       <c r="F388" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G388" s="3" t="s">
-        <v>38</v>
+        <v>808</v>
       </c>
       <c r="H388" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="389" ht="22" customHeight="true">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="389" ht="33" customHeight="true">
       <c r="A389" s="3" t="s">
         <v>1073</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>383</v>
+        <v>1074</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>140</v>
@@ -13834,24 +13856,22 @@
         <v>13</v>
       </c>
       <c r="E389" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F389" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v>689</v>
+      </c>
+      <c r="F389" s="3" t="e"/>
       <c r="G389" s="3" t="s">
-        <v>38</v>
+        <v>695</v>
       </c>
       <c r="H389" s="3" t="s">
-        <v>377</v>
+        <v>705</v>
       </c>
     </row>
     <row r="390" ht="33" customHeight="true">
       <c r="A390" s="3" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>291</v>
+        <v>1076</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>140</v>
@@ -13860,48 +13880,48 @@
         <v>13</v>
       </c>
       <c r="E390" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="F390" s="3" t="e"/>
+      <c r="G390" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="H390" s="3" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="391" ht="22" customHeight="true">
+      <c r="A391" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B391" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C391" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D391" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E391" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="F390" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G390" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H390" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="391" ht="33" customHeight="true">
-      <c r="A391" s="3" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B391" s="3" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C391" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D391" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E391" s="3" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F391" s="3" t="e"/>
+      <c r="F391" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="G391" s="3" t="s">
-        <v>452</v>
+        <v>38</v>
       </c>
       <c r="H391" s="3" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="392" ht="33" customHeight="true">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="392" ht="22" customHeight="true">
       <c r="A392" s="3" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>1078</v>
+        <v>381</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>140</v>
@@ -13910,178 +13930,176 @@
         <v>13</v>
       </c>
       <c r="E392" s="3" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F392" s="3" t="e"/>
+        <v>292</v>
+      </c>
+      <c r="F392" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="G392" s="3" t="s">
-        <v>452</v>
+        <v>38</v>
       </c>
       <c r="H392" s="3" t="s">
-        <v>1079</v>
+        <v>377</v>
       </c>
     </row>
     <row r="393" ht="22" customHeight="true">
       <c r="A393" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B393" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C393" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D393" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E393" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F393" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G393" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H393" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="394" ht="33" customHeight="true">
+      <c r="A394" s="3" t="s">
         <v>1080</v>
       </c>
-      <c r="B393" s="3" t="s">
-        <v>962</v>
-      </c>
-      <c r="C393" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D393" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E393" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F393" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G393" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="H393" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="394" ht="22" customHeight="true">
-      <c r="A394" s="3" t="s">
-        <v>1081</v>
-      </c>
       <c r="B394" s="3" t="s">
-        <v>1082</v>
+        <v>291</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="D394" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E394" s="3" t="s">
-        <v>249</v>
+        <v>292</v>
       </c>
       <c r="F394" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G394" s="3" t="s">
-        <v>238</v>
+        <v>43</v>
       </c>
       <c r="H394" s="3" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
     </row>
     <row r="395" ht="33" customHeight="true">
       <c r="A395" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B395" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C395" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D395" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E395" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F395" s="3" t="e"/>
+      <c r="G395" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="H395" s="3" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="396" ht="33" customHeight="true">
+      <c r="A396" s="3" t="s">
         <v>1083</v>
       </c>
-      <c r="B395" s="3" t="s">
+      <c r="B396" s="3" t="s">
         <v>1084</v>
       </c>
-      <c r="C395" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D395" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E395" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F395" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G395" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H395" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="396" ht="22" customHeight="true">
-      <c r="A396" s="3" t="s">
+      <c r="C396" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D396" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E396" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F396" s="3" t="e"/>
+      <c r="G396" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="H396" s="3" t="s">
         <v>1085</v>
-      </c>
-      <c r="B396" s="3" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C396" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D396" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E396" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F396" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G396" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H396" s="3" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="397" ht="22" customHeight="true">
       <c r="A397" s="3" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>1089</v>
+        <v>962</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="D397" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E397" s="3" t="s">
-        <v>292</v>
+        <v>26</v>
       </c>
       <c r="F397" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G397" s="3" t="s">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="H397" s="3" t="s">
-        <v>1087</v>
+        <v>413</v>
       </c>
     </row>
     <row r="398" ht="22" customHeight="true">
       <c r="A398" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C398" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D398" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E398" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F398" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G398" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H398" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="399" ht="33" customHeight="true">
+      <c r="A399" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B399" s="3" t="s">
         <v>1090</v>
-      </c>
-      <c r="B398" s="3" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C398" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D398" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E398" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F398" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G398" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H398" s="3" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="399" ht="22" customHeight="true">
-      <c r="A399" s="3" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B399" s="3" t="s">
-        <v>1093</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>36</v>
@@ -14090,111 +14108,111 @@
         <v>11</v>
       </c>
       <c r="E399" s="3" t="s">
-        <v>505</v>
+        <v>292</v>
       </c>
       <c r="F399" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G399" s="3" t="s">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="H399" s="3" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="400" ht="33" customHeight="true">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="400" ht="22" customHeight="true">
       <c r="A400" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C400" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D400" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E400" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F400" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G400" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H400" s="3" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="401" ht="22" customHeight="true">
+      <c r="A401" s="3" t="s">
         <v>1094</v>
       </c>
-      <c r="B400" s="3" t="s">
+      <c r="B401" s="3" t="s">
         <v>1095</v>
       </c>
-      <c r="C400" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D400" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E400" s="3" t="s">
+      <c r="C401" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D401" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E401" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F401" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G401" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H401" s="3" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="402" ht="22" customHeight="true">
+      <c r="A402" s="3" t="s">
         <v>1096</v>
       </c>
-      <c r="F400" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G400" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="H400" s="3" t="s">
+      <c r="B402" s="3" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="401" ht="33" customHeight="true">
-      <c r="A401" s="3" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B401" s="3" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C401" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D401" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E401" s="3" t="s">
-        <v>1096</v>
-      </c>
-      <c r="F401" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G401" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="H401" s="3" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="402" ht="33" customHeight="true">
-      <c r="A402" s="3" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B402" s="3" t="s">
-        <v>1102</v>
-      </c>
       <c r="C402" s="3" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D402" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E402" s="3" t="s">
-        <v>1096</v>
+        <v>292</v>
       </c>
       <c r="F402" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G402" s="3" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="H402" s="3" t="s">
-        <v>175</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="403" ht="22" customHeight="true">
       <c r="A403" s="3" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D403" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E403" s="3" t="s">
-        <v>219</v>
+        <v>505</v>
       </c>
       <c r="F403" s="3" t="s">
         <v>13</v>
@@ -14203,67 +14221,67 @@
         <v>124</v>
       </c>
       <c r="H403" s="3" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="404" ht="33" customHeight="true">
       <c r="A404" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B404" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C404" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D404" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E404" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F404" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G404" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H404" s="3" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="405" ht="33" customHeight="true">
+      <c r="A405" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B405" s="3" t="s">
         <v>1105</v>
       </c>
-      <c r="B404" s="3" t="s">
+      <c r="C405" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D405" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E405" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F405" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G405" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H405" s="3" t="s">
         <v>1106</v>
-      </c>
-      <c r="C404" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D404" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E404" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F404" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G404" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H404" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="405" ht="22" customHeight="true">
-      <c r="A405" s="3" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B405" s="3" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C405" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D405" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E405" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F405" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G405" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H405" s="3" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="406" ht="33" customHeight="true">
       <c r="A406" s="3" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>10</v>
@@ -14272,7 +14290,7 @@
         <v>11</v>
       </c>
       <c r="E406" s="3" t="s">
-        <v>1111</v>
+        <v>1102</v>
       </c>
       <c r="F406" s="3" t="s">
         <v>13</v>
@@ -14281,15 +14299,15 @@
         <v>158</v>
       </c>
       <c r="H406" s="3" t="s">
-        <v>1097</v>
+        <v>175</v>
       </c>
     </row>
     <row r="407" ht="22" customHeight="true">
       <c r="A407" s="3" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>36</v>
@@ -14307,15 +14325,15 @@
         <v>124</v>
       </c>
       <c r="H407" s="3" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
     </row>
     <row r="408" ht="33" customHeight="true">
       <c r="A408" s="3" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>18</v>
@@ -14324,102 +14342,102 @@
         <v>11</v>
       </c>
       <c r="E408" s="3" t="s">
-        <v>244</v>
+        <v>81</v>
       </c>
       <c r="F408" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G408" s="3" t="s">
-        <v>245</v>
+        <v>82</v>
       </c>
       <c r="H408" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="409" ht="22" customHeight="true">
+      <c r="A409" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B409" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C409" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D409" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E409" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F409" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G409" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H409" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="410" ht="33" customHeight="true">
+      <c r="A410" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B410" s="3" t="s">
         <v>1116</v>
       </c>
-    </row>
-    <row r="409" ht="33" customHeight="true">
-      <c r="A409" s="3" t="s">
+      <c r="C410" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D410" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E410" s="3" t="s">
         <v>1117</v>
       </c>
-      <c r="B409" s="3" t="s">
+      <c r="F410" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G410" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H410" s="3" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="411" ht="22" customHeight="true">
+      <c r="A411" s="3" t="s">
         <v>1118</v>
       </c>
-      <c r="C409" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D409" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E409" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="F409" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G409" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="H409" s="3" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="410" ht="22" customHeight="true">
-      <c r="A410" s="3" t="s">
+      <c r="B411" s="3" t="s">
         <v>1119</v>
       </c>
-      <c r="B410" s="3" t="s">
+      <c r="C411" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D411" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E411" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F411" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G411" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H411" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="412" ht="33" customHeight="true">
+      <c r="A412" s="3" t="s">
         <v>1120</v>
       </c>
-      <c r="C410" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D410" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E410" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="F410" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G410" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="H410" s="3" t="s">
+      <c r="B412" s="3" t="s">
         <v>1121</v>
-      </c>
-    </row>
-    <row r="411" ht="33" customHeight="true">
-      <c r="A411" s="3" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B411" s="3" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C411" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D411" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E411" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="F411" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G411" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="H411" s="3" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="412" ht="22" customHeight="true">
-      <c r="A412" s="3" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B412" s="3" t="s">
-        <v>1124</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>18</v>
@@ -14434,18 +14452,18 @@
         <v>13</v>
       </c>
       <c r="G412" s="3" t="s">
-        <v>803</v>
+        <v>245</v>
       </c>
       <c r="H412" s="3" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="413" ht="22" customHeight="true">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="413" ht="33" customHeight="true">
       <c r="A413" s="3" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>18</v>
@@ -14460,18 +14478,18 @@
         <v>13</v>
       </c>
       <c r="G413" s="3" t="s">
-        <v>803</v>
+        <v>245</v>
       </c>
       <c r="H413" s="3" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="414" ht="33" customHeight="true">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="414" ht="22" customHeight="true">
       <c r="A414" s="3" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>18</v>
@@ -14486,18 +14504,18 @@
         <v>13</v>
       </c>
       <c r="G414" s="3" t="s">
-        <v>245</v>
+        <v>803</v>
       </c>
       <c r="H414" s="3" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="415" ht="22" customHeight="true">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="415" ht="33" customHeight="true">
       <c r="A415" s="3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>1131</v>
+        <v>1022</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>18</v>
@@ -14512,18 +14530,18 @@
         <v>13</v>
       </c>
       <c r="G415" s="3" t="s">
-        <v>803</v>
+        <v>245</v>
       </c>
       <c r="H415" s="3" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="416" ht="33" customHeight="true">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="416" ht="22" customHeight="true">
       <c r="A416" s="3" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>18</v>
@@ -14541,44 +14559,44 @@
         <v>803</v>
       </c>
       <c r="H416" s="3" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="417" ht="22" customHeight="true">
       <c r="A417" s="3" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D417" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E417" s="3" t="s">
-        <v>1137</v>
+        <v>244</v>
       </c>
       <c r="F417" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G417" s="3" t="s">
-        <v>92</v>
+        <v>803</v>
       </c>
       <c r="H417" s="3" t="s">
-        <v>1138</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="418" ht="33" customHeight="true">
       <c r="A418" s="3" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D418" s="3" t="s">
         <v>11</v>
@@ -14590,21 +14608,21 @@
         <v>13</v>
       </c>
       <c r="G418" s="3" t="s">
-        <v>803</v>
+        <v>245</v>
       </c>
       <c r="H418" s="3" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="419" ht="33" customHeight="true">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="419" ht="22" customHeight="true">
       <c r="A419" s="3" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D419" s="3" t="s">
         <v>11</v>
@@ -14616,21 +14634,21 @@
         <v>13</v>
       </c>
       <c r="G419" s="3" t="s">
-        <v>245</v>
+        <v>803</v>
       </c>
       <c r="H419" s="3" t="s">
-        <v>246</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="420" ht="33" customHeight="true">
       <c r="A420" s="3" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D420" s="3" t="s">
         <v>11</v>
@@ -14642,47 +14660,47 @@
         <v>13</v>
       </c>
       <c r="G420" s="3" t="s">
-        <v>245</v>
+        <v>803</v>
       </c>
       <c r="H420" s="3" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="421" ht="22" customHeight="true">
       <c r="A421" s="3" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D421" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E421" s="3" t="s">
-        <v>244</v>
+        <v>1143</v>
       </c>
       <c r="F421" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G421" s="3" t="s">
-        <v>245</v>
+        <v>92</v>
       </c>
       <c r="H421" s="3" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="422" ht="22" customHeight="true">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="422" ht="33" customHeight="true">
       <c r="A422" s="3" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D422" s="3" t="s">
         <v>11</v>
@@ -14694,21 +14712,21 @@
         <v>13</v>
       </c>
       <c r="G422" s="3" t="s">
-        <v>245</v>
+        <v>803</v>
       </c>
       <c r="H422" s="3" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="423" ht="33" customHeight="true">
+      <c r="A423" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B423" s="3" t="s">
         <v>1149</v>
       </c>
-    </row>
-    <row r="423" ht="22" customHeight="true">
-      <c r="A423" s="3" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B423" s="3" t="s">
-        <v>1152</v>
-      </c>
       <c r="C423" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D423" s="3" t="s">
         <v>11</v>
@@ -14723,18 +14741,18 @@
         <v>245</v>
       </c>
       <c r="H423" s="3" t="s">
-        <v>1149</v>
+        <v>246</v>
       </c>
     </row>
     <row r="424" ht="33" customHeight="true">
       <c r="A424" s="3" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D424" s="3" t="s">
         <v>11</v>
@@ -14749,15 +14767,15 @@
         <v>245</v>
       </c>
       <c r="H424" s="3" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="425" ht="33" customHeight="true">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="425" ht="22" customHeight="true">
       <c r="A425" s="3" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>18</v>
@@ -14778,12 +14796,12 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="426" ht="33" customHeight="true">
+    <row r="426" ht="22" customHeight="true">
       <c r="A426" s="3" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>18</v>
@@ -14804,12 +14822,12 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="427" ht="33" customHeight="true">
+    <row r="427" ht="22" customHeight="true">
       <c r="A427" s="3" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>18</v>
@@ -14827,15 +14845,15 @@
         <v>245</v>
       </c>
       <c r="H427" s="3" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="428" ht="33" customHeight="true">
       <c r="A428" s="3" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>18</v>
@@ -14853,67 +14871,67 @@
         <v>245</v>
       </c>
       <c r="H428" s="3" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="429" ht="33" customHeight="true">
       <c r="A429" s="3" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D429" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E429" s="3" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="F429" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G429" s="3" t="s">
-        <v>124</v>
+        <v>245</v>
       </c>
       <c r="H429" s="3" t="s">
-        <v>529</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="430" ht="33" customHeight="true">
       <c r="A430" s="3" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D430" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E430" s="3" t="s">
-        <v>689</v>
+        <v>244</v>
       </c>
       <c r="F430" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G430" s="3" t="s">
-        <v>695</v>
+        <v>245</v>
       </c>
       <c r="H430" s="3" t="s">
-        <v>705</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="431" ht="33" customHeight="true">
       <c r="A431" s="3" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>18</v>
@@ -14928,21 +14946,21 @@
         <v>13</v>
       </c>
       <c r="G431" s="3" t="s">
-        <v>87</v>
+        <v>245</v>
       </c>
       <c r="H431" s="3" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="432" ht="22" customHeight="true">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="432" ht="33" customHeight="true">
       <c r="A432" s="3" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D432" s="3" t="s">
         <v>11</v>
@@ -14954,73 +14972,73 @@
         <v>13</v>
       </c>
       <c r="G432" s="3" t="s">
-        <v>803</v>
+        <v>245</v>
       </c>
       <c r="H432" s="3" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="433" ht="33" customHeight="true">
+      <c r="A433" s="3" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C433" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D433" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E433" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F433" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G433" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H433" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="434" ht="33" customHeight="true">
+      <c r="A434" s="3" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="433" ht="22" customHeight="true">
-      <c r="A433" s="3" t="s">
+      <c r="B434" s="3" t="s">
         <v>1174</v>
       </c>
-      <c r="B433" s="3" t="s">
+      <c r="C434" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D434" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E434" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="F434" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G434" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="H434" s="3" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="435" ht="33" customHeight="true">
+      <c r="A435" s="3" t="s">
         <v>1175</v>
       </c>
-      <c r="C433" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D433" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E433" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="F433" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G433" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="H433" s="3" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="434" ht="22" customHeight="true">
-      <c r="A434" s="3" t="s">
+      <c r="B435" s="3" t="s">
         <v>1176</v>
       </c>
-      <c r="B434" s="3" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C434" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D434" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E434" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="F434" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G434" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="H434" s="3" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="435" ht="22" customHeight="true">
-      <c r="A435" s="3" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B435" s="3" t="s">
-        <v>1179</v>
-      </c>
       <c r="C435" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D435" s="3" t="s">
         <v>11</v>
@@ -15032,18 +15050,18 @@
         <v>13</v>
       </c>
       <c r="G435" s="3" t="s">
-        <v>803</v>
+        <v>87</v>
       </c>
       <c r="H435" s="3" t="s">
-        <v>1141</v>
+        <v>845</v>
       </c>
     </row>
     <row r="436" ht="22" customHeight="true">
       <c r="A436" s="3" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>10</v>
@@ -15061,44 +15079,44 @@
         <v>803</v>
       </c>
       <c r="H436" s="3" t="s">
-        <v>1141</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="437" ht="22" customHeight="true">
       <c r="A437" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B437" s="3" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C437" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D437" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E437" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F437" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G437" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="H437" s="3" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="438" ht="22" customHeight="true">
+      <c r="A438" s="3" t="s">
         <v>1182</v>
       </c>
-      <c r="B437" s="3" t="s">
+      <c r="B438" s="3" t="s">
         <v>1183</v>
       </c>
-      <c r="C437" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D437" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E437" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F437" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G437" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H437" s="3" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="438" ht="33" customHeight="true">
-      <c r="A438" s="3" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B438" s="3" t="s">
-        <v>1185</v>
-      </c>
       <c r="C438" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D438" s="3" t="s">
         <v>11</v>
@@ -15110,21 +15128,21 @@
         <v>13</v>
       </c>
       <c r="G438" s="3" t="s">
-        <v>245</v>
+        <v>803</v>
       </c>
       <c r="H438" s="3" t="s">
-        <v>246</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="439" ht="22" customHeight="true">
       <c r="A439" s="3" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D439" s="3" t="s">
         <v>11</v>
@@ -15136,62 +15154,166 @@
         <v>13</v>
       </c>
       <c r="G439" s="3" t="s">
-        <v>87</v>
+        <v>803</v>
       </c>
       <c r="H439" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="440" ht="33" customHeight="true">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="440" ht="22" customHeight="true">
       <c r="A440" s="3" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D440" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E440" s="3" t="s">
-        <v>185</v>
+        <v>244</v>
       </c>
       <c r="F440" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G440" s="3" t="s">
-        <v>186</v>
+        <v>803</v>
       </c>
       <c r="H440" s="3" t="s">
-        <v>771</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="441" ht="22" customHeight="true">
       <c r="A441" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B441" s="3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C441" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D441" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E441" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F441" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G441" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H441" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="442" ht="33" customHeight="true">
+      <c r="A442" s="3" t="s">
         <v>1190</v>
       </c>
-      <c r="B441" s="3" t="s">
+      <c r="B442" s="3" t="s">
         <v>1191</v>
       </c>
-      <c r="C441" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D441" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E441" s="3" t="s">
+      <c r="C442" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D442" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E442" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F442" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G442" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="H442" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="443" ht="22" customHeight="true">
+      <c r="A443" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B443" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C443" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D443" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E443" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F443" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G443" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H443" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="444" ht="33" customHeight="true">
+      <c r="A444" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B444" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C444" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D444" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E444" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F444" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G444" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H444" s="3" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="445" ht="22" customHeight="true">
+      <c r="A445" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B445" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C445" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D445" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E445" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="F441" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G441" s="3" t="s">
+      <c r="F445" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G445" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="H441" s="3" t="s">
-        <v>1192</v>
+      <c r="H445" s="3" t="s">
+        <v>1198</v>
       </c>
     </row>
   </sheetData>

--- a/DS_Mystery/Asia stock management/data/Загрузка справочник ШМТ.xlsx
+++ b/DS_Mystery/Asia stock management/data/Загрузка справочник ШМТ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="1208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="1209">
   <si>
     <t>Артикул</t>
   </si>
@@ -712,7 +712,7 @@
     <t>Средство для очистки сантехники "Tiger Shark" WC Гель, изогнутое горло, 1000 мл</t>
   </si>
   <si>
-    <t>Средства бытовые для очистки сантехники 0.75-0.9 л с изогнутым горлом</t>
+    <t>Средства бытовые для очистки сантехники до 3.5 л</t>
   </si>
   <si>
     <t>101369</t>
@@ -721,7 +721,7 @@
     <t>Средство для мытья посуды "Silver Regular" Лимон, бутылка ПЭТ, 5000 мл</t>
   </si>
   <si>
-    <t>Средства бытовые для мытья посуды от 3.5 л в бутылках ПЭТ</t>
+    <t>Средства бытовые для мытья посуды от 3.5 л</t>
   </si>
   <si>
     <t>270128</t>
@@ -778,7 +778,7 @@
     <t>Мыло-пена жидкое "Platinum", канистра, 5000 мл</t>
   </si>
   <si>
-    <t>Мыло жидкое туалетное от 3.5 л в канистрах</t>
+    <t>Мыло жидкое туалетное от 3.5 л</t>
   </si>
   <si>
     <t>104198</t>
@@ -799,7 +799,7 @@
     <t>Средство для очистки кухонного оборудования "Platinum Sharks" D-09, канистра, 5000 мл</t>
   </si>
   <si>
-    <t>Средства бытовые для очистки кухонных плит от 3.5 л</t>
+    <t>Средства профессиональные для очистки кухонного оборудования от 3.5 л (кг)</t>
   </si>
   <si>
     <t>107427</t>
@@ -2464,6 +2464,9 @@
     <t>ДЕМАРТ ООО</t>
   </si>
   <si>
+    <t>Пакеты бумажные без ручек на вынос белые, крафт размер M</t>
+  </si>
+  <si>
     <t>273025</t>
   </si>
   <si>
@@ -3646,7 +3649,7 @@
     <t>Мыло жидкое антибактериальное "Silver" Regular, бутылка ПЭТ, 5000 мл</t>
   </si>
   <si>
-    <t>Мыло жидкое антибактериальное от 3.5 л в бутылках ПЭТ</t>
+    <t>Мыло жидкое антибактериальное от 3.5 л</t>
   </si>
 </sst>
 </file>
@@ -11010,15 +11013,15 @@
         <v>805</v>
       </c>
       <c r="H278" s="3" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
     </row>
     <row r="279" ht="33" customHeight="true">
       <c r="A279" s="3" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>142</v>
@@ -11041,10 +11044,10 @@
     </row>
     <row r="280" ht="33" customHeight="true">
       <c r="A280" s="3" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>142</v>
@@ -11062,15 +11065,15 @@
         <v>127</v>
       </c>
       <c r="H280" s="3" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="281" ht="33" customHeight="true">
       <c r="A281" s="3" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>142</v>
@@ -11079,7 +11082,7 @@
         <v>11</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="F281" s="3" t="s">
         <v>13</v>
@@ -11088,15 +11091,15 @@
         <v>127</v>
       </c>
       <c r="H281" s="3" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="282" ht="33" customHeight="true">
       <c r="A282" s="3" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>18</v>
@@ -11114,15 +11117,15 @@
         <v>85</v>
       </c>
       <c r="H282" s="3" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="283" ht="33" customHeight="true">
       <c r="A283" s="3" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>142</v>
@@ -11140,15 +11143,15 @@
         <v>200</v>
       </c>
       <c r="H283" s="3" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="284" ht="33" customHeight="true">
       <c r="A284" s="3" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>18</v>
@@ -11157,7 +11160,7 @@
         <v>11</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F284" s="3" t="s">
         <v>13</v>
@@ -11166,15 +11169,15 @@
         <v>200</v>
       </c>
       <c r="H284" s="3" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="285" ht="33" customHeight="true">
       <c r="A285" s="3" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>142</v>
@@ -11192,15 +11195,15 @@
         <v>200</v>
       </c>
       <c r="H285" s="3" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="286" ht="33" customHeight="true">
       <c r="A286" s="3" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>142</v>
@@ -11218,15 +11221,15 @@
         <v>200</v>
       </c>
       <c r="H286" s="3" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="287" ht="33" customHeight="true">
       <c r="A287" s="3" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>142</v>
@@ -11244,15 +11247,15 @@
         <v>200</v>
       </c>
       <c r="H287" s="3" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="288" ht="33" customHeight="true">
       <c r="A288" s="3" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>142</v>
@@ -11270,15 +11273,15 @@
         <v>200</v>
       </c>
       <c r="H288" s="3" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="289" ht="33" customHeight="true">
       <c r="A289" s="3" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>142</v>
@@ -11296,15 +11299,15 @@
         <v>200</v>
       </c>
       <c r="H289" s="3" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="290" ht="33" customHeight="true">
       <c r="A290" s="3" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>142</v>
@@ -11322,15 +11325,15 @@
         <v>200</v>
       </c>
       <c r="H290" s="3" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="291" ht="33" customHeight="true">
       <c r="A291" s="3" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>142</v>
@@ -11339,7 +11342,7 @@
         <v>11</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="F291" s="3" t="s">
         <v>13</v>
@@ -11348,15 +11351,15 @@
         <v>452</v>
       </c>
       <c r="H291" s="3" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="292" ht="33" customHeight="true">
       <c r="A292" s="3" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>142</v>
@@ -11365,7 +11368,7 @@
         <v>11</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="F292" s="3" t="s">
         <v>13</v>
@@ -11374,15 +11377,15 @@
         <v>452</v>
       </c>
       <c r="H292" s="3" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="293" ht="22" customHeight="true">
       <c r="A293" s="3" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>142</v>
@@ -11400,15 +11403,15 @@
         <v>179</v>
       </c>
       <c r="H293" s="3" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="294" ht="22" customHeight="true">
       <c r="A294" s="3" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>142</v>
@@ -11426,15 +11429,15 @@
         <v>179</v>
       </c>
       <c r="H294" s="3" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="295" ht="22" customHeight="true">
       <c r="A295" s="3" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>142</v>
@@ -11457,10 +11460,10 @@
     </row>
     <row r="296" ht="33" customHeight="true">
       <c r="A296" s="3" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>142</v>
@@ -11478,15 +11481,15 @@
         <v>103</v>
       </c>
       <c r="H296" s="3" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="297" ht="33" customHeight="true">
       <c r="A297" s="3" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>142</v>
@@ -11504,15 +11507,15 @@
         <v>103</v>
       </c>
       <c r="H297" s="3" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="298" ht="22" customHeight="true">
       <c r="A298" s="3" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>142</v>
@@ -11535,10 +11538,10 @@
     </row>
     <row r="299" ht="33" customHeight="true">
       <c r="A299" s="3" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>142</v>
@@ -11556,15 +11559,15 @@
         <v>611</v>
       </c>
       <c r="H299" s="3" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="300" ht="33" customHeight="true">
       <c r="A300" s="3" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>142</v>
@@ -11582,15 +11585,15 @@
         <v>611</v>
       </c>
       <c r="H300" s="3" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="301" ht="33" customHeight="true">
       <c r="A301" s="3" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>142</v>
@@ -11613,10 +11616,10 @@
     </row>
     <row r="302" ht="33" customHeight="true">
       <c r="A302" s="3" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>142</v>
@@ -11639,10 +11642,10 @@
     </row>
     <row r="303" ht="33" customHeight="true">
       <c r="A303" s="3" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>142</v>
@@ -11660,15 +11663,15 @@
         <v>465</v>
       </c>
       <c r="H303" s="3" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="304" ht="33" customHeight="true">
       <c r="A304" s="3" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>142</v>
@@ -11691,10 +11694,10 @@
     </row>
     <row r="305" ht="33" customHeight="true">
       <c r="A305" s="3" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>142</v>
@@ -11717,10 +11720,10 @@
     </row>
     <row r="306" ht="22" customHeight="true">
       <c r="A306" s="3" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>142</v>
@@ -11729,7 +11732,7 @@
         <v>11</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="F306" s="3" t="s">
         <v>13</v>
@@ -11738,15 +11741,15 @@
         <v>633</v>
       </c>
       <c r="H306" s="3" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="307" ht="22" customHeight="true">
       <c r="A307" s="3" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>142</v>
@@ -11755,7 +11758,7 @@
         <v>11</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="F307" s="3" t="s">
         <v>13</v>
@@ -11769,10 +11772,10 @@
     </row>
     <row r="308" ht="22" customHeight="true">
       <c r="A308" s="3" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>142</v>
@@ -11781,7 +11784,7 @@
         <v>11</v>
       </c>
       <c r="E308" s="3" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="F308" s="3" t="s">
         <v>13</v>
@@ -11790,15 +11793,15 @@
         <v>633</v>
       </c>
       <c r="H308" s="3" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="309" ht="22" customHeight="true">
       <c r="A309" s="3" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>142</v>
@@ -11807,7 +11810,7 @@
         <v>11</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="F309" s="3" t="s">
         <v>13</v>
@@ -11821,10 +11824,10 @@
     </row>
     <row r="310" ht="33" customHeight="true">
       <c r="A310" s="3" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>142</v>
@@ -11847,10 +11850,10 @@
     </row>
     <row r="311" ht="33" customHeight="true">
       <c r="A311" s="3" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>142</v>
@@ -11859,7 +11862,7 @@
         <v>11</v>
       </c>
       <c r="E311" s="3" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="F311" s="3" t="s">
         <v>13</v>
@@ -11868,15 +11871,15 @@
         <v>184</v>
       </c>
       <c r="H311" s="3" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="312" ht="33" customHeight="true">
       <c r="A312" s="3" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>142</v>
@@ -11885,7 +11888,7 @@
         <v>11</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="F312" s="3" t="s">
         <v>13</v>
@@ -11894,15 +11897,15 @@
         <v>184</v>
       </c>
       <c r="H312" s="3" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="313" ht="33" customHeight="true">
       <c r="A313" s="3" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>18</v>
@@ -11911,7 +11914,7 @@
         <v>11</v>
       </c>
       <c r="E313" s="3" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="F313" s="3" t="s">
         <v>13</v>
@@ -11920,15 +11923,15 @@
         <v>14</v>
       </c>
       <c r="H313" s="3" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="314" ht="33" customHeight="true">
       <c r="A314" s="3" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>18</v>
@@ -11937,7 +11940,7 @@
         <v>11</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="F314" s="3" t="s">
         <v>13</v>
@@ -11946,15 +11949,15 @@
         <v>14</v>
       </c>
       <c r="H314" s="3" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="315" ht="33" customHeight="true">
       <c r="A315" s="3" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>18</v>
@@ -11963,7 +11966,7 @@
         <v>11</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="F315" s="3" t="s">
         <v>13</v>
@@ -11972,15 +11975,15 @@
         <v>14</v>
       </c>
       <c r="H315" s="3" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="316" ht="33" customHeight="true">
       <c r="A316" s="3" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>10</v>
@@ -11998,15 +12001,15 @@
         <v>14</v>
       </c>
       <c r="H316" s="3" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="317" ht="33" customHeight="true">
       <c r="A317" s="3" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>10</v>
@@ -12029,10 +12032,10 @@
     </row>
     <row r="318" ht="22" customHeight="true">
       <c r="A318" s="3" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>18</v>
@@ -12041,7 +12044,7 @@
         <v>11</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="F318" s="3" t="s">
         <v>13</v>
@@ -12050,15 +12053,15 @@
         <v>14</v>
       </c>
       <c r="H318" s="3" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="319" ht="22" customHeight="true">
       <c r="A319" s="3" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>18</v>
@@ -12067,7 +12070,7 @@
         <v>11</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="F319" s="3" t="s">
         <v>13</v>
@@ -12076,15 +12079,15 @@
         <v>14</v>
       </c>
       <c r="H319" s="3" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="320" ht="22" customHeight="true">
       <c r="A320" s="3" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>18</v>
@@ -12093,7 +12096,7 @@
         <v>11</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="F320" s="3" t="s">
         <v>13</v>
@@ -12102,15 +12105,15 @@
         <v>14</v>
       </c>
       <c r="H320" s="3" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="321" ht="22" customHeight="true">
       <c r="A321" s="3" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>18</v>
@@ -12119,7 +12122,7 @@
         <v>11</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="F321" s="3" t="s">
         <v>13</v>
@@ -12128,15 +12131,15 @@
         <v>14</v>
       </c>
       <c r="H321" s="3" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="322" ht="33" customHeight="true">
       <c r="A322" s="3" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>142</v>
@@ -12145,7 +12148,7 @@
         <v>11</v>
       </c>
       <c r="E322" s="3" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="F322" s="3" t="s">
         <v>13</v>
@@ -12154,15 +12157,15 @@
         <v>633</v>
       </c>
       <c r="H322" s="3" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="323" ht="33" customHeight="true">
       <c r="A323" s="3" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>142</v>
@@ -12185,10 +12188,10 @@
     </row>
     <row r="324" ht="33" customHeight="true">
       <c r="A324" s="3" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>142</v>
@@ -12211,10 +12214,10 @@
     </row>
     <row r="325" ht="33" customHeight="true">
       <c r="A325" s="3" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>142</v>
@@ -12237,10 +12240,10 @@
     </row>
     <row r="326" ht="33" customHeight="true">
       <c r="A326" s="3" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>142</v>
@@ -12258,15 +12261,15 @@
         <v>660</v>
       </c>
       <c r="H326" s="3" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="327" ht="33" customHeight="true">
       <c r="A327" s="3" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>142</v>
@@ -12284,15 +12287,15 @@
         <v>660</v>
       </c>
       <c r="H327" s="3" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="328" ht="33" customHeight="true">
       <c r="A328" s="3" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>142</v>
@@ -12315,10 +12318,10 @@
     </row>
     <row r="329" ht="22" customHeight="true">
       <c r="A329" s="3" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>18</v>
@@ -12341,10 +12344,10 @@
     </row>
     <row r="330" ht="22" customHeight="true">
       <c r="A330" s="3" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>142</v>
@@ -12367,10 +12370,10 @@
     </row>
     <row r="331" ht="33" customHeight="true">
       <c r="A331" s="3" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>142</v>
@@ -12393,10 +12396,10 @@
     </row>
     <row r="332" ht="22" customHeight="true">
       <c r="A332" s="3" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>142</v>
@@ -12419,10 +12422,10 @@
     </row>
     <row r="333" ht="22" customHeight="true">
       <c r="A333" s="3" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>142</v>
@@ -12445,10 +12448,10 @@
     </row>
     <row r="334" ht="33" customHeight="true">
       <c r="A334" s="3" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>142</v>
@@ -12466,15 +12469,15 @@
         <v>611</v>
       </c>
       <c r="H334" s="3" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="335" ht="33" customHeight="true">
       <c r="A335" s="3" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>142</v>
@@ -12497,10 +12500,10 @@
     </row>
     <row r="336" ht="33" customHeight="true">
       <c r="A336" s="3" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>142</v>
@@ -12523,10 +12526,10 @@
     </row>
     <row r="337" ht="33" customHeight="true">
       <c r="A337" s="3" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>142</v>
@@ -12544,15 +12547,15 @@
         <v>611</v>
       </c>
       <c r="H337" s="3" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="338" ht="33" customHeight="true">
       <c r="A338" s="3" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>142</v>
@@ -12575,10 +12578,10 @@
     </row>
     <row r="339" ht="33" customHeight="true">
       <c r="A339" s="3" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>142</v>
@@ -12601,10 +12604,10 @@
     </row>
     <row r="340" ht="22" customHeight="true">
       <c r="A340" s="3" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>10</v>
@@ -12627,10 +12630,10 @@
     </row>
     <row r="341" ht="33" customHeight="true">
       <c r="A341" s="3" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>142</v>
@@ -12648,15 +12651,15 @@
         <v>465</v>
       </c>
       <c r="H341" s="3" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="342" ht="33" customHeight="true">
       <c r="A342" s="3" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>142</v>
@@ -12674,15 +12677,15 @@
         <v>465</v>
       </c>
       <c r="H342" s="3" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="343" ht="33" customHeight="true">
       <c r="A343" s="3" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>142</v>
@@ -12705,10 +12708,10 @@
     </row>
     <row r="344" ht="22" customHeight="true">
       <c r="A344" s="3" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>142</v>
@@ -12726,15 +12729,15 @@
         <v>179</v>
       </c>
       <c r="H344" s="3" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="345" ht="22" customHeight="true">
       <c r="A345" s="3" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>142</v>
@@ -12757,10 +12760,10 @@
     </row>
     <row r="346" ht="22" customHeight="true">
       <c r="A346" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>18</v>
@@ -12783,10 +12786,10 @@
     </row>
     <row r="347" ht="22" customHeight="true">
       <c r="A347" s="3" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>142</v>
@@ -12795,7 +12798,7 @@
         <v>11</v>
       </c>
       <c r="E347" s="3" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="F347" s="3" t="s">
         <v>13</v>
@@ -12804,15 +12807,15 @@
         <v>788</v>
       </c>
       <c r="H347" s="3" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="348" ht="22" customHeight="true">
       <c r="A348" s="3" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>142</v>
@@ -12827,18 +12830,18 @@
         <v>13</v>
       </c>
       <c r="G348" s="3" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="H348" s="3" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="349" ht="22" customHeight="true">
       <c r="A349" s="3" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>10</v>
@@ -12847,7 +12850,7 @@
         <v>11</v>
       </c>
       <c r="E349" s="3" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="F349" s="3" t="s">
         <v>11</v>
@@ -12856,15 +12859,15 @@
         <v>90</v>
       </c>
       <c r="H349" s="3" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="350" ht="22" customHeight="true">
       <c r="A350" s="3" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>142</v>
@@ -12882,15 +12885,15 @@
         <v>683</v>
       </c>
       <c r="H350" s="3" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="351" ht="33" customHeight="true">
       <c r="A351" s="3" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>142</v>
@@ -12908,15 +12911,15 @@
         <v>660</v>
       </c>
       <c r="H351" s="3" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="352" ht="33" customHeight="true">
       <c r="A352" s="3" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>142</v>
@@ -12925,7 +12928,7 @@
         <v>13</v>
       </c>
       <c r="E352" s="3" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F352" s="3" t="s">
         <v>13</v>
@@ -12934,15 +12937,15 @@
         <v>448</v>
       </c>
       <c r="H352" s="3" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="353" ht="33" customHeight="true">
       <c r="A353" s="3" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>142</v>
@@ -12951,7 +12954,7 @@
         <v>13</v>
       </c>
       <c r="E353" s="3" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F353" s="3" t="s">
         <v>13</v>
@@ -12965,10 +12968,10 @@
     </row>
     <row r="354" ht="33" customHeight="true">
       <c r="A354" s="3" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>142</v>
@@ -12977,7 +12980,7 @@
         <v>13</v>
       </c>
       <c r="E354" s="3" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F354" s="3" t="s">
         <v>13</v>
@@ -12991,10 +12994,10 @@
     </row>
     <row r="355" ht="33" customHeight="true">
       <c r="A355" s="3" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>142</v>
@@ -13003,7 +13006,7 @@
         <v>13</v>
       </c>
       <c r="E355" s="3" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F355" s="3" t="s">
         <v>13</v>
@@ -13012,15 +13015,15 @@
         <v>448</v>
       </c>
       <c r="H355" s="3" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="356" ht="33" customHeight="true">
       <c r="A356" s="3" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>142</v>
@@ -13029,7 +13032,7 @@
         <v>13</v>
       </c>
       <c r="E356" s="3" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F356" s="3" t="s">
         <v>13</v>
@@ -13038,15 +13041,15 @@
         <v>448</v>
       </c>
       <c r="H356" s="3" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="357" ht="33" customHeight="true">
       <c r="A357" s="3" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C357" s="3" t="s">
         <v>142</v>
@@ -13055,7 +13058,7 @@
         <v>13</v>
       </c>
       <c r="E357" s="3" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F357" s="3" t="s">
         <v>13</v>
@@ -13064,15 +13067,15 @@
         <v>448</v>
       </c>
       <c r="H357" s="3" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="358" ht="33" customHeight="true">
       <c r="A358" s="3" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>142</v>
@@ -13081,7 +13084,7 @@
         <v>13</v>
       </c>
       <c r="E358" s="3" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F358" s="3" t="s">
         <v>13</v>
@@ -13090,15 +13093,15 @@
         <v>448</v>
       </c>
       <c r="H358" s="3" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="359" ht="33" customHeight="true">
       <c r="A359" s="3" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>18</v>
@@ -13116,15 +13119,15 @@
         <v>241</v>
       </c>
       <c r="H359" s="3" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="360" ht="22" customHeight="true">
       <c r="A360" s="3" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>142</v>
@@ -13142,15 +13145,15 @@
         <v>103</v>
       </c>
       <c r="H360" s="3" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="361" ht="22" customHeight="true">
       <c r="A361" s="3" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>18</v>
@@ -13173,10 +13176,10 @@
     </row>
     <row r="362" ht="33" customHeight="true">
       <c r="A362" s="3" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>18</v>
@@ -13199,10 +13202,10 @@
     </row>
     <row r="363" ht="33" customHeight="true">
       <c r="A363" s="3" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>18</v>
@@ -13211,7 +13214,7 @@
         <v>11</v>
       </c>
       <c r="E363" s="3" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="F363" s="3" t="s">
         <v>13</v>
@@ -13220,15 +13223,15 @@
         <v>14</v>
       </c>
       <c r="H363" s="3" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="364" ht="33" customHeight="true">
       <c r="A364" s="3" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>142</v>
@@ -13251,10 +13254,10 @@
     </row>
     <row r="365" ht="22" customHeight="true">
       <c r="A365" s="3" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>18</v>
@@ -13277,10 +13280,10 @@
     </row>
     <row r="366" ht="22" customHeight="true">
       <c r="A366" s="3" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>10</v>
@@ -13303,10 +13306,10 @@
     </row>
     <row r="367" ht="22" customHeight="true">
       <c r="A367" s="3" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>10</v>
@@ -13329,10 +13332,10 @@
     </row>
     <row r="368" ht="33" customHeight="true">
       <c r="A368" s="3" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>142</v>
@@ -13350,15 +13353,15 @@
         <v>465</v>
       </c>
       <c r="H368" s="3" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="369" ht="33" customHeight="true">
       <c r="A369" s="3" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>142</v>
@@ -13376,15 +13379,15 @@
         <v>465</v>
       </c>
       <c r="H369" s="3" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="370" ht="33" customHeight="true">
       <c r="A370" s="3" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>142</v>
@@ -13407,10 +13410,10 @@
     </row>
     <row r="371" ht="22" customHeight="true">
       <c r="A371" s="3" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>10</v>
@@ -13421,7 +13424,9 @@
       <c r="E371" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="F371" s="3" t="e"/>
+      <c r="F371" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="G371" s="3" t="s">
         <v>236</v>
       </c>
@@ -13431,7 +13436,7 @@
     </row>
     <row r="372" ht="33" customHeight="true">
       <c r="A372" s="3" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>574</v>
@@ -13457,10 +13462,10 @@
     </row>
     <row r="373" ht="22" customHeight="true">
       <c r="A373" s="3" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>142</v>
@@ -13478,15 +13483,15 @@
         <v>103</v>
       </c>
       <c r="H373" s="3" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="374" ht="33" customHeight="true">
       <c r="A374" s="3" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>142</v>
@@ -13504,12 +13509,12 @@
         <v>103</v>
       </c>
       <c r="H374" s="3" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="375" ht="33" customHeight="true">
       <c r="A375" s="3" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>645</v>
@@ -13535,7 +13540,7 @@
     </row>
     <row r="376" ht="33" customHeight="true">
       <c r="A376" s="3" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>648</v>
@@ -13561,10 +13566,10 @@
     </row>
     <row r="377" ht="33" customHeight="true">
       <c r="A377" s="3" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>142</v>
@@ -13587,10 +13592,10 @@
     </row>
     <row r="378" ht="22" customHeight="true">
       <c r="A378" s="3" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>142</v>
@@ -13613,10 +13618,10 @@
     </row>
     <row r="379" ht="22" customHeight="true">
       <c r="A379" s="3" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>142</v>
@@ -13639,7 +13644,7 @@
     </row>
     <row r="380" ht="33" customHeight="true">
       <c r="A380" s="3" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>271</v>
@@ -13665,10 +13670,10 @@
     </row>
     <row r="381" ht="33" customHeight="true">
       <c r="A381" s="3" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>142</v>
@@ -13677,7 +13682,7 @@
         <v>13</v>
       </c>
       <c r="E381" s="3" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F381" s="3" t="s">
         <v>13</v>
@@ -13686,15 +13691,15 @@
         <v>448</v>
       </c>
       <c r="H381" s="3" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="382" ht="22" customHeight="true">
       <c r="A382" s="3" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>142</v>
@@ -13703,7 +13708,7 @@
         <v>11</v>
       </c>
       <c r="E382" s="3" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="F382" s="3" t="e"/>
       <c r="G382" s="3" t="s">
@@ -13715,10 +13720,10 @@
     </row>
     <row r="383" ht="33" customHeight="true">
       <c r="A383" s="3" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>142</v>
@@ -13727,7 +13732,7 @@
         <v>11</v>
       </c>
       <c r="E383" s="3" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="F383" s="3" t="s">
         <v>13</v>
@@ -13741,10 +13746,10 @@
     </row>
     <row r="384" ht="33" customHeight="true">
       <c r="A384" s="3" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>142</v>
@@ -13753,7 +13758,7 @@
         <v>11</v>
       </c>
       <c r="E384" s="3" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="F384" s="3" t="s">
         <v>13</v>
@@ -13767,10 +13772,10 @@
     </row>
     <row r="385" ht="33" customHeight="true">
       <c r="A385" s="3" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>142</v>
@@ -13788,15 +13793,15 @@
         <v>683</v>
       </c>
       <c r="H385" s="3" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="386" ht="33" customHeight="true">
       <c r="A386" s="3" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>142</v>
@@ -13814,12 +13819,12 @@
         <v>683</v>
       </c>
       <c r="H386" s="3" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="387" ht="22" customHeight="true">
       <c r="A387" s="3" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>375</v>
@@ -13845,7 +13850,7 @@
     </row>
     <row r="388" ht="22" customHeight="true">
       <c r="A388" s="3" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>377</v>
@@ -13871,7 +13876,7 @@
     </row>
     <row r="389" ht="22" customHeight="true">
       <c r="A389" s="3" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>379</v>
@@ -13897,7 +13902,7 @@
     </row>
     <row r="390" ht="33" customHeight="true">
       <c r="A390" s="3" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>287</v>
@@ -13923,7 +13928,7 @@
     </row>
     <row r="391" ht="22" customHeight="true">
       <c r="A391" s="3" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>234</v>
@@ -13949,10 +13954,10 @@
     </row>
     <row r="392" ht="33" customHeight="true">
       <c r="A392" s="3" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>142</v>
@@ -13961,22 +13966,22 @@
         <v>13</v>
       </c>
       <c r="E392" s="3" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F392" s="3" t="e"/>
       <c r="G392" s="3" t="s">
         <v>448</v>
       </c>
       <c r="H392" s="3" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="393" ht="33" customHeight="true">
       <c r="A393" s="3" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>142</v>
@@ -13985,22 +13990,22 @@
         <v>13</v>
       </c>
       <c r="E393" s="3" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F393" s="3" t="e"/>
       <c r="G393" s="3" t="s">
         <v>448</v>
       </c>
       <c r="H393" s="3" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="394" ht="22" customHeight="true">
       <c r="A394" s="3" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>142</v>
@@ -14023,10 +14028,10 @@
     </row>
     <row r="395" ht="33" customHeight="true">
       <c r="A395" s="3" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>142</v>
@@ -14044,15 +14049,15 @@
         <v>200</v>
       </c>
       <c r="H395" s="3" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="396" ht="33" customHeight="true">
       <c r="A396" s="3" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>142</v>
@@ -14075,10 +14080,10 @@
     </row>
     <row r="397" ht="33" customHeight="true">
       <c r="A397" s="3" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>142</v>
@@ -14101,10 +14106,10 @@
     </row>
     <row r="398" ht="33" customHeight="true">
       <c r="A398" s="3" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>142</v>
@@ -14127,10 +14132,10 @@
     </row>
     <row r="399" ht="33" customHeight="true">
       <c r="A399" s="3" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>142</v>
@@ -14148,15 +14153,15 @@
         <v>465</v>
       </c>
       <c r="H399" s="3" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="400" ht="33" customHeight="true">
       <c r="A400" s="3" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>142</v>
@@ -14174,15 +14179,15 @@
         <v>465</v>
       </c>
       <c r="H400" s="3" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="401" ht="33" customHeight="true">
       <c r="A401" s="3" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>142</v>
@@ -14191,7 +14196,7 @@
         <v>13</v>
       </c>
       <c r="E401" s="3" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F401" s="3" t="s">
         <v>13</v>
@@ -14200,15 +14205,15 @@
         <v>448</v>
       </c>
       <c r="H401" s="3" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="402" ht="22" customHeight="true">
       <c r="A402" s="3" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>10</v>
@@ -14231,10 +14236,10 @@
     </row>
     <row r="403" ht="22" customHeight="true">
       <c r="A403" s="3" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>36</v>
@@ -14252,15 +14257,15 @@
         <v>38</v>
       </c>
       <c r="H403" s="3" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="404" ht="22" customHeight="true">
       <c r="A404" s="3" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>36</v>
@@ -14278,15 +14283,15 @@
         <v>38</v>
       </c>
       <c r="H404" s="3" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="405" ht="33" customHeight="true">
       <c r="A405" s="3" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>10</v>
@@ -14295,7 +14300,7 @@
         <v>11</v>
       </c>
       <c r="E405" s="3" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="F405" s="3" t="s">
         <v>13</v>
@@ -14304,15 +14309,15 @@
         <v>95</v>
       </c>
       <c r="H405" s="3" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="406" ht="22" customHeight="true">
       <c r="A406" s="3" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>36</v>
@@ -14335,10 +14340,10 @@
     </row>
     <row r="407" ht="33" customHeight="true">
       <c r="A407" s="3" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>10</v>
@@ -14347,7 +14352,7 @@
         <v>11</v>
       </c>
       <c r="E407" s="3" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="F407" s="3" t="s">
         <v>13</v>
@@ -14356,15 +14361,15 @@
         <v>156</v>
       </c>
       <c r="H407" s="3" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="408" ht="33" customHeight="true">
       <c r="A408" s="3" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>10</v>
@@ -14373,7 +14378,7 @@
         <v>11</v>
       </c>
       <c r="E408" s="3" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="F408" s="3" t="s">
         <v>13</v>
@@ -14382,15 +14387,15 @@
         <v>156</v>
       </c>
       <c r="H408" s="3" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="409" ht="33" customHeight="true">
       <c r="A409" s="3" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>10</v>
@@ -14399,7 +14404,7 @@
         <v>11</v>
       </c>
       <c r="E409" s="3" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="F409" s="3" t="s">
         <v>13</v>
@@ -14413,10 +14418,10 @@
     </row>
     <row r="410" ht="22" customHeight="true">
       <c r="A410" s="3" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>36</v>
@@ -14439,10 +14444,10 @@
     </row>
     <row r="411" ht="33" customHeight="true">
       <c r="A411" s="3" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>18</v>
@@ -14465,10 +14470,10 @@
     </row>
     <row r="412" ht="22" customHeight="true">
       <c r="A412" s="3" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>36</v>
@@ -14491,10 +14496,10 @@
     </row>
     <row r="413" ht="33" customHeight="true">
       <c r="A413" s="3" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>10</v>
@@ -14503,7 +14508,7 @@
         <v>11</v>
       </c>
       <c r="E413" s="3" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="F413" s="3" t="s">
         <v>13</v>
@@ -14512,15 +14517,15 @@
         <v>156</v>
       </c>
       <c r="H413" s="3" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="414" ht="22" customHeight="true">
       <c r="A414" s="3" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>36</v>
@@ -14543,10 +14548,10 @@
     </row>
     <row r="415" ht="33" customHeight="true">
       <c r="A415" s="3" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>18</v>
@@ -14564,15 +14569,15 @@
         <v>241</v>
       </c>
       <c r="H415" s="3" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="416" ht="33" customHeight="true">
       <c r="A416" s="3" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>18</v>
@@ -14590,15 +14595,15 @@
         <v>241</v>
       </c>
       <c r="H416" s="3" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="417" ht="22" customHeight="true">
       <c r="A417" s="3" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>18</v>
@@ -14616,15 +14621,15 @@
         <v>783</v>
       </c>
       <c r="H417" s="3" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="418" ht="33" customHeight="true">
       <c r="A418" s="3" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>18</v>
@@ -14642,15 +14647,15 @@
         <v>241</v>
       </c>
       <c r="H418" s="3" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="419" ht="22" customHeight="true">
       <c r="A419" s="3" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>18</v>
@@ -14668,15 +14673,15 @@
         <v>783</v>
       </c>
       <c r="H419" s="3" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="420" ht="22" customHeight="true">
       <c r="A420" s="3" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>18</v>
@@ -14694,15 +14699,15 @@
         <v>783</v>
       </c>
       <c r="H420" s="3" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="421" ht="33" customHeight="true">
       <c r="A421" s="3" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>18</v>
@@ -14720,15 +14725,15 @@
         <v>241</v>
       </c>
       <c r="H421" s="3" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="422" ht="22" customHeight="true">
       <c r="A422" s="3" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>18</v>
@@ -14746,15 +14751,15 @@
         <v>783</v>
       </c>
       <c r="H422" s="3" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="423" ht="33" customHeight="true">
       <c r="A423" s="3" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>18</v>
@@ -14772,15 +14777,15 @@
         <v>783</v>
       </c>
       <c r="H423" s="3" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="424" ht="22" customHeight="true">
       <c r="A424" s="3" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>10</v>
@@ -14789,7 +14794,7 @@
         <v>11</v>
       </c>
       <c r="E424" s="3" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="F424" s="3" t="s">
         <v>13</v>
@@ -14798,15 +14803,15 @@
         <v>90</v>
       </c>
       <c r="H424" s="3" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="425" ht="33" customHeight="true">
       <c r="A425" s="3" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>10</v>
@@ -14824,15 +14829,15 @@
         <v>783</v>
       </c>
       <c r="H425" s="3" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="426" ht="33" customHeight="true">
       <c r="A426" s="3" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>10</v>
@@ -14855,10 +14860,10 @@
     </row>
     <row r="427" ht="33" customHeight="true">
       <c r="A427" s="3" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>10</v>
@@ -14876,15 +14881,15 @@
         <v>241</v>
       </c>
       <c r="H427" s="3" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="428" ht="22" customHeight="true">
       <c r="A428" s="3" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>18</v>
@@ -14902,15 +14907,15 @@
         <v>241</v>
       </c>
       <c r="H428" s="3" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="429" ht="22" customHeight="true">
       <c r="A429" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>18</v>
@@ -14928,15 +14933,15 @@
         <v>241</v>
       </c>
       <c r="H429" s="3" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="430" ht="22" customHeight="true">
       <c r="A430" s="3" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>18</v>
@@ -14954,15 +14959,15 @@
         <v>241</v>
       </c>
       <c r="H430" s="3" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="431" ht="33" customHeight="true">
       <c r="A431" s="3" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>18</v>
@@ -14980,15 +14985,15 @@
         <v>241</v>
       </c>
       <c r="H431" s="3" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="432" ht="33" customHeight="true">
       <c r="A432" s="3" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>18</v>
@@ -15006,15 +15011,15 @@
         <v>241</v>
       </c>
       <c r="H432" s="3" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="433" ht="33" customHeight="true">
       <c r="A433" s="3" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>18</v>
@@ -15032,15 +15037,15 @@
         <v>241</v>
       </c>
       <c r="H433" s="3" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="434" ht="33" customHeight="true">
       <c r="A434" s="3" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>18</v>
@@ -15058,15 +15063,15 @@
         <v>241</v>
       </c>
       <c r="H434" s="3" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="435" ht="33" customHeight="true">
       <c r="A435" s="3" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>18</v>
@@ -15084,15 +15089,15 @@
         <v>241</v>
       </c>
       <c r="H435" s="3" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="436" ht="33" customHeight="true">
       <c r="A436" s="3" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>36</v>
@@ -15115,10 +15120,10 @@
     </row>
     <row r="437" ht="33" customHeight="true">
       <c r="A437" s="3" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>36</v>
@@ -15136,15 +15141,15 @@
         <v>683</v>
       </c>
       <c r="H437" s="3" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="438" ht="33" customHeight="true">
       <c r="A438" s="3" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>18</v>
@@ -15162,15 +15167,15 @@
         <v>85</v>
       </c>
       <c r="H438" s="3" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="439" ht="22" customHeight="true">
       <c r="A439" s="3" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>10</v>
@@ -15188,15 +15193,15 @@
         <v>783</v>
       </c>
       <c r="H439" s="3" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="440" ht="22" customHeight="true">
       <c r="A440" s="3" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>10</v>
@@ -15214,15 +15219,15 @@
         <v>783</v>
       </c>
       <c r="H440" s="3" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="441" ht="22" customHeight="true">
       <c r="A441" s="3" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>10</v>
@@ -15240,15 +15245,15 @@
         <v>783</v>
       </c>
       <c r="H441" s="3" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="442" ht="22" customHeight="true">
       <c r="A442" s="3" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>10</v>
@@ -15266,15 +15271,15 @@
         <v>783</v>
       </c>
       <c r="H442" s="3" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="443" ht="22" customHeight="true">
       <c r="A443" s="3" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>10</v>
@@ -15292,15 +15297,15 @@
         <v>783</v>
       </c>
       <c r="H443" s="3" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="444" ht="33" customHeight="true">
       <c r="A444" s="3" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>18</v>
@@ -15323,10 +15328,10 @@
     </row>
     <row r="445" ht="22" customHeight="true">
       <c r="A445" s="3" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>18</v>
@@ -15349,10 +15354,10 @@
     </row>
     <row r="446" ht="33" customHeight="true">
       <c r="A446" s="3" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>36</v>
@@ -15375,10 +15380,10 @@
     </row>
     <row r="447" ht="22" customHeight="true">
       <c r="A447" s="3" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>142</v>
@@ -15396,7 +15401,7 @@
         <v>222</v>
       </c>
       <c r="H447" s="3" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
     </row>
   </sheetData>
